--- a/BackTest/2019-10-06 BackTest ITC.xlsx
+++ b/BackTest/2019-10-06 BackTest ITC.xlsx
@@ -963,7 +963,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>148.6</v>
       </c>
@@ -1014,7 +1016,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>149.7</v>
       </c>
@@ -1065,7 +1069,9 @@
       <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>150.6</v>
       </c>
@@ -1110,7 +1116,9 @@
       <c r="J15" t="n">
         <v>19</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>75</v>
+      </c>
       <c r="L15" t="n">
         <v>151.8</v>
       </c>
@@ -1155,7 +1163,9 @@
       <c r="J16" t="n">
         <v>22</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>44.44444444444444</v>
+      </c>
       <c r="L16" t="n">
         <v>152.7</v>
       </c>
@@ -1200,7 +1210,9 @@
       <c r="J17" t="n">
         <v>24</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
       <c r="L17" t="n">
         <v>153.7</v>
       </c>
@@ -1245,7 +1257,9 @@
       <c r="J18" t="n">
         <v>24</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50</v>
+      </c>
       <c r="L18" t="n">
         <v>154.7</v>
       </c>
@@ -1290,7 +1304,9 @@
       <c r="J19" t="n">
         <v>25</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L19" t="n">
         <v>155.6</v>
       </c>
@@ -1335,7 +1351,9 @@
       <c r="J20" t="n">
         <v>31</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>53.84615384615385</v>
+      </c>
       <c r="L20" t="n">
         <v>157.1</v>
       </c>
@@ -1380,7 +1398,9 @@
       <c r="J21" t="n">
         <v>33</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L21" t="n">
         <v>158.3</v>
       </c>
@@ -1427,7 +1447,9 @@
       <c r="J22" t="n">
         <v>34</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>23.80952380952381</v>
+      </c>
       <c r="L22" t="n">
         <v>159.6</v>
       </c>
@@ -1475,7 +1497,7 @@
         <v>35</v>
       </c>
       <c r="K23" t="n">
-        <v>45.45454545454545</v>
+        <v>30</v>
       </c>
       <c r="L23" t="n">
         <v>160</v>
@@ -1524,7 +1546,7 @@
         <v>39</v>
       </c>
       <c r="K24" t="n">
-        <v>51.35135135135135</v>
+        <v>30</v>
       </c>
       <c r="L24" t="n">
         <v>161</v>
@@ -1573,7 +1595,7 @@
         <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>50</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L25" t="n">
         <v>161.6</v>
@@ -1622,7 +1644,7 @@
         <v>39</v>
       </c>
       <c r="K26" t="n">
-        <v>50</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>162.5</v>
@@ -1671,7 +1693,7 @@
         <v>41</v>
       </c>
       <c r="K27" t="n">
-        <v>40.54054054054054</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L27" t="n">
         <v>163</v>
@@ -1720,7 +1742,7 @@
         <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>40.54054054054054</v>
+        <v>37.5</v>
       </c>
       <c r="L28" t="n">
         <v>163.5</v>
@@ -1769,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="K29" t="n">
-        <v>43.58974358974359</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L29" t="n">
         <v>164.3</v>
@@ -1818,7 +1840,7 @@
         <v>45</v>
       </c>
       <c r="K30" t="n">
-        <v>36.58536585365854</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L30" t="n">
         <v>164.3</v>
@@ -1867,7 +1889,7 @@
         <v>46</v>
       </c>
       <c r="K31" t="n">
-        <v>36.58536585365854</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L31" t="n">
         <v>164.6</v>
@@ -1918,7 +1940,7 @@
         <v>48</v>
       </c>
       <c r="K32" t="n">
-        <v>30.23255813953488</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L32" t="n">
         <v>164.6</v>
@@ -1969,7 +1991,7 @@
         <v>49</v>
       </c>
       <c r="K33" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L33" t="n">
         <v>164.8</v>
@@ -2020,7 +2042,7 @@
         <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>25.71428571428571</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L34" t="n">
         <v>164.7</v>
@@ -2071,7 +2093,7 @@
         <v>50</v>
       </c>
       <c r="K35" t="n">
-        <v>16.12903225806452</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L35" t="n">
         <v>164.6</v>
@@ -2122,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>28.57142857142857</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L36" t="n">
         <v>164.5</v>
@@ -2173,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L37" t="n">
         <v>164.4</v>
@@ -2224,7 +2246,7 @@
         <v>53</v>
       </c>
       <c r="K38" t="n">
-        <v>17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>164.4</v>
@@ -2275,7 +2297,7 @@
         <v>54</v>
       </c>
       <c r="K39" t="n">
-        <v>17.24137931034483</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L39" t="n">
         <v>164.1</v>
@@ -2326,7 +2348,7 @@
         <v>55</v>
       </c>
       <c r="K40" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>163.9</v>
@@ -2377,7 +2399,7 @@
         <v>57</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>163.4</v>
@@ -2428,7 +2450,7 @@
         <v>59</v>
       </c>
       <c r="K42" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="L42" t="n">
         <v>163.3</v>
@@ -2479,7 +2501,7 @@
         <v>59</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>163.1</v>
@@ -2530,7 +2552,7 @@
         <v>59</v>
       </c>
       <c r="K44" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>162.8</v>
@@ -2581,7 +2603,7 @@
         <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L45" t="n">
         <v>162.6</v>
@@ -2632,7 +2654,7 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>162.4</v>
@@ -2683,7 +2705,7 @@
         <v>60</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>162.4</v>
@@ -2734,7 +2756,7 @@
         <v>60</v>
       </c>
       <c r="K48" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>162.3</v>
@@ -2785,7 +2807,7 @@
         <v>62</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L49" t="n">
         <v>162.5</v>
@@ -2836,7 +2858,7 @@
         <v>64</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L50" t="n">
         <v>162.6</v>
@@ -2887,7 +2909,7 @@
         <v>64</v>
       </c>
       <c r="K51" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L51" t="n">
         <v>162.9</v>
@@ -2938,7 +2960,7 @@
         <v>65</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>162.9</v>
@@ -2989,7 +3011,7 @@
         <v>66</v>
       </c>
       <c r="K53" t="n">
-        <v>-17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L53" t="n">
         <v>162.8</v>
@@ -3040,7 +3062,7 @@
         <v>68</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>162.9</v>
@@ -3142,7 +3164,7 @@
         <v>71</v>
       </c>
       <c r="K56" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L56" t="n">
         <v>162.6</v>
@@ -3193,7 +3215,7 @@
         <v>71</v>
       </c>
       <c r="K57" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L57" t="n">
         <v>162.5</v>
@@ -3244,7 +3266,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="n">
-        <v>-15.78947368421053</v>
+        <v>-40</v>
       </c>
       <c r="L58" t="n">
         <v>162.3</v>
@@ -3295,7 +3317,7 @@
         <v>72</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L59" t="n">
         <v>161.9</v>
@@ -3346,7 +3368,7 @@
         <v>74</v>
       </c>
       <c r="K60" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>161.9</v>
@@ -3397,7 +3419,7 @@
         <v>75</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>161.8</v>
@@ -3448,7 +3470,7 @@
         <v>76</v>
       </c>
       <c r="K62" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L62" t="n">
         <v>161.9</v>
@@ -3499,7 +3521,7 @@
         <v>77</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L63" t="n">
         <v>162</v>
@@ -3550,7 +3572,7 @@
         <v>77</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>161.9</v>
@@ -3601,7 +3623,7 @@
         <v>77</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>162</v>
@@ -3652,7 +3674,7 @@
         <v>77</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>162</v>
@@ -3703,7 +3725,7 @@
         <v>78</v>
       </c>
       <c r="K67" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>161.9</v>
@@ -3754,7 +3776,7 @@
         <v>80</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L68" t="n">
         <v>162.1</v>
@@ -3805,7 +3827,7 @@
         <v>81</v>
       </c>
       <c r="K69" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>162.2</v>
@@ -3856,7 +3878,7 @@
         <v>81</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>162.1</v>
@@ -3907,7 +3929,7 @@
         <v>81</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>162.1</v>
@@ -4009,7 +4031,7 @@
         <v>82</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="n">
         <v>161.9</v>
@@ -4060,7 +4082,7 @@
         <v>84</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>162</v>
@@ -4162,7 +4184,7 @@
         <v>84</v>
       </c>
       <c r="K76" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>162.2</v>
@@ -4213,7 +4235,7 @@
         <v>84</v>
       </c>
       <c r="K77" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>162.4</v>
@@ -4264,7 +4286,7 @@
         <v>84</v>
       </c>
       <c r="K78" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>162.4</v>
@@ -4315,7 +4337,7 @@
         <v>86</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L79" t="n">
         <v>162.3</v>
@@ -4366,7 +4388,7 @@
         <v>87</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>162.3</v>
@@ -4417,7 +4439,7 @@
         <v>88</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L81" t="n">
         <v>162.2</v>
@@ -4468,7 +4490,7 @@
         <v>88</v>
       </c>
       <c r="K82" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>162.1</v>
@@ -4519,7 +4541,7 @@
         <v>89</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>162.2</v>
@@ -4570,7 +4592,7 @@
         <v>89</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>162.1</v>
@@ -4621,7 +4643,7 @@
         <v>89</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>162</v>
@@ -4672,7 +4694,7 @@
         <v>89</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L86" t="n">
         <v>161.9</v>
@@ -4723,7 +4745,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>161.8</v>
@@ -4774,7 +4796,7 @@
         <v>89</v>
       </c>
       <c r="K88" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>161.7</v>
@@ -4825,7 +4847,7 @@
         <v>90</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>161.7</v>
@@ -4876,7 +4898,7 @@
         <v>91</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>161.5</v>
@@ -4927,7 +4949,7 @@
         <v>92</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>161.5</v>
@@ -4978,7 +5000,7 @@
         <v>94</v>
       </c>
       <c r="K92" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L92" t="n">
         <v>161.3</v>
@@ -5029,7 +5051,7 @@
         <v>95</v>
       </c>
       <c r="K93" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L93" t="n">
         <v>160.9</v>
@@ -5080,7 +5102,7 @@
         <v>96</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L94" t="n">
         <v>160.6</v>
@@ -5131,7 +5153,7 @@
         <v>96</v>
       </c>
       <c r="K95" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L95" t="n">
         <v>160.3</v>
@@ -5182,7 +5204,7 @@
         <v>97</v>
       </c>
       <c r="K96" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L96" t="n">
         <v>159.9</v>
@@ -5233,7 +5255,7 @@
         <v>97</v>
       </c>
       <c r="K97" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L97" t="n">
         <v>159.5</v>
@@ -5284,7 +5306,7 @@
         <v>98</v>
       </c>
       <c r="K98" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L98" t="n">
         <v>159</v>
@@ -5335,7 +5357,7 @@
         <v>99</v>
       </c>
       <c r="K99" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L99" t="n">
         <v>158.7</v>
@@ -5386,7 +5408,7 @@
         <v>100</v>
       </c>
       <c r="K100" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L100" t="n">
         <v>158.4</v>
@@ -5437,7 +5459,7 @@
         <v>103</v>
       </c>
       <c r="K101" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L101" t="n">
         <v>158.3</v>
@@ -5488,7 +5510,7 @@
         <v>105</v>
       </c>
       <c r="K102" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>158.2</v>
@@ -5539,7 +5561,7 @@
         <v>106</v>
       </c>
       <c r="K103" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>158.3</v>
@@ -5590,7 +5612,7 @@
         <v>107</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L104" t="n">
         <v>158.4</v>
@@ -5641,7 +5663,7 @@
         <v>109</v>
       </c>
       <c r="K105" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>158.3</v>
@@ -5692,7 +5714,7 @@
         <v>110</v>
       </c>
       <c r="K106" t="n">
-        <v>-23.80952380952381</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L106" t="n">
         <v>158.2</v>
@@ -5743,7 +5765,7 @@
         <v>112</v>
       </c>
       <c r="K107" t="n">
-        <v>-13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>158.3</v>
@@ -5794,7 +5816,7 @@
         <v>112</v>
       </c>
       <c r="K108" t="n">
-        <v>-13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L108" t="n">
         <v>158.5</v>
@@ -5845,7 +5867,7 @@
         <v>113</v>
       </c>
       <c r="K109" t="n">
-        <v>-13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>158.5</v>
@@ -5896,7 +5918,7 @@
         <v>114</v>
       </c>
       <c r="K110" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L110" t="n">
         <v>158.7</v>
@@ -5947,7 +5969,7 @@
         <v>114</v>
       </c>
       <c r="K111" t="n">
-        <v>-9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L111" t="n">
         <v>158.6</v>
@@ -5998,7 +6020,7 @@
         <v>115</v>
       </c>
       <c r="K112" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>158.8</v>
@@ -6049,7 +6071,7 @@
         <v>117</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>158.7</v>
@@ -6100,7 +6122,7 @@
         <v>119</v>
       </c>
       <c r="K114" t="n">
-        <v>4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L114" t="n">
         <v>158.7</v>
@@ -6151,7 +6173,7 @@
         <v>121</v>
       </c>
       <c r="K115" t="n">
-        <v>-4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L115" t="n">
         <v>158.7</v>
@@ -6202,7 +6224,7 @@
         <v>123</v>
       </c>
       <c r="K116" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L116" t="n">
         <v>159</v>
@@ -6253,7 +6275,7 @@
         <v>123</v>
       </c>
       <c r="K117" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L117" t="n">
         <v>159.1</v>
@@ -6304,7 +6326,7 @@
         <v>123</v>
       </c>
       <c r="K118" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L118" t="n">
         <v>159.2</v>
@@ -6355,7 +6377,7 @@
         <v>124</v>
       </c>
       <c r="K119" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>159.3</v>
@@ -6406,7 +6428,7 @@
         <v>125</v>
       </c>
       <c r="K120" t="n">
-        <v>12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L120" t="n">
         <v>159.4</v>
@@ -6508,7 +6530,7 @@
         <v>126</v>
       </c>
       <c r="K122" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L122" t="n">
         <v>159.4</v>
@@ -6559,7 +6581,7 @@
         <v>127</v>
       </c>
       <c r="K123" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>159.6</v>
@@ -6610,7 +6632,7 @@
         <v>127</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>159.6</v>
@@ -6661,7 +6683,7 @@
         <v>128</v>
       </c>
       <c r="K125" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L125" t="n">
         <v>159.7</v>
@@ -6712,7 +6734,7 @@
         <v>129</v>
       </c>
       <c r="K126" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>159.5</v>
@@ -6763,7 +6785,7 @@
         <v>130</v>
       </c>
       <c r="K127" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L127" t="n">
         <v>159.2</v>
@@ -6814,7 +6836,7 @@
         <v>131</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L128" t="n">
         <v>159</v>
@@ -6865,7 +6887,7 @@
         <v>131</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>158.9</v>
@@ -6916,7 +6938,7 @@
         <v>131</v>
       </c>
       <c r="K130" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>158.7</v>
@@ -7018,7 +7040,7 @@
         <v>133</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>158.5</v>
@@ -7069,7 +7091,7 @@
         <v>133</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>158.3</v>
@@ -7120,7 +7142,7 @@
         <v>134</v>
       </c>
       <c r="K134" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>158</v>
@@ -7171,7 +7193,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L135" t="n">
         <v>157.8</v>
@@ -7222,7 +7244,7 @@
         <v>135</v>
       </c>
       <c r="K136" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L136" t="n">
         <v>157.8</v>
@@ -7273,7 +7295,7 @@
         <v>136</v>
       </c>
       <c r="K137" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L137" t="n">
         <v>157.8</v>
@@ -7324,7 +7346,7 @@
         <v>137</v>
       </c>
       <c r="K138" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>157.8</v>
@@ -7375,7 +7397,7 @@
         <v>139</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L139" t="n">
         <v>157.6</v>
@@ -7426,7 +7448,7 @@
         <v>139</v>
       </c>
       <c r="K140" t="n">
-        <v>-28.57142857142857</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L140" t="n">
         <v>157.4</v>
@@ -7477,7 +7499,7 @@
         <v>140</v>
       </c>
       <c r="K141" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>157.2</v>
@@ -7579,7 +7601,7 @@
         <v>140</v>
       </c>
       <c r="K143" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>157</v>
@@ -7630,7 +7652,7 @@
         <v>140</v>
       </c>
       <c r="K144" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>157</v>
@@ -7681,7 +7703,7 @@
         <v>140</v>
       </c>
       <c r="K145" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>157</v>
@@ -7732,7 +7754,7 @@
         <v>140</v>
       </c>
       <c r="K146" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>156.9</v>
@@ -7783,7 +7805,7 @@
         <v>140</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>156.9</v>
@@ -7834,7 +7856,7 @@
         <v>142</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>157</v>
@@ -7885,7 +7907,7 @@
         <v>143</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L149" t="n">
         <v>157.2</v>
@@ -7936,7 +7958,7 @@
         <v>144</v>
       </c>
       <c r="K150" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L150" t="n">
         <v>157.5</v>
@@ -7987,7 +8009,7 @@
         <v>144</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L151" t="n">
         <v>157.7</v>
@@ -8038,7 +8060,7 @@
         <v>146</v>
       </c>
       <c r="K152" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>157.7</v>
@@ -8089,7 +8111,7 @@
         <v>147</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L153" t="n">
         <v>157.8</v>
@@ -8191,7 +8213,7 @@
         <v>149</v>
       </c>
       <c r="K155" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L155" t="n">
         <v>157.9</v>
@@ -8242,7 +8264,7 @@
         <v>150</v>
       </c>
       <c r="K156" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>157.9</v>
@@ -8293,7 +8315,7 @@
         <v>150</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L157" t="n">
         <v>157.9</v>
@@ -8344,7 +8366,7 @@
         <v>150</v>
       </c>
       <c r="K158" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L158" t="n">
         <v>157.7</v>
@@ -8395,7 +8417,7 @@
         <v>150</v>
       </c>
       <c r="K159" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>157.6</v>
@@ -8446,7 +8468,7 @@
         <v>151</v>
       </c>
       <c r="K160" t="n">
-        <v>16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L160" t="n">
         <v>157.5</v>
@@ -8497,7 +8519,7 @@
         <v>151</v>
       </c>
       <c r="K161" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
         <v>157.4</v>
@@ -8548,7 +8570,7 @@
         <v>151</v>
       </c>
       <c r="K162" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>157.5</v>
@@ -8599,7 +8621,7 @@
         <v>152</v>
       </c>
       <c r="K163" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L163" t="n">
         <v>157.6</v>
@@ -8650,7 +8672,7 @@
         <v>153</v>
       </c>
       <c r="K164" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>157.7</v>
@@ -8701,7 +8723,7 @@
         <v>153</v>
       </c>
       <c r="K165" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>157.7</v>
@@ -8752,7 +8774,7 @@
         <v>153</v>
       </c>
       <c r="K166" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>157.8</v>
@@ -8803,7 +8825,7 @@
         <v>153</v>
       </c>
       <c r="K167" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>157.9</v>
@@ -8854,7 +8876,7 @@
         <v>154</v>
       </c>
       <c r="K168" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>157.9</v>
@@ -8956,7 +8978,7 @@
         <v>156</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
         <v>158.1</v>
@@ -9007,7 +9029,7 @@
         <v>157</v>
       </c>
       <c r="K171" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>158.1</v>
@@ -9058,7 +9080,7 @@
         <v>158</v>
       </c>
       <c r="K172" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>158.2</v>
@@ -9160,7 +9182,7 @@
         <v>159</v>
       </c>
       <c r="K174" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>158.1</v>
@@ -9211,7 +9233,7 @@
         <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L175" t="n">
         <v>158.2</v>
@@ -9262,7 +9284,7 @@
         <v>161</v>
       </c>
       <c r="K176" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>158.2</v>
@@ -9313,7 +9335,7 @@
         <v>161</v>
       </c>
       <c r="K177" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L177" t="n">
         <v>158.2</v>
@@ -9364,7 +9386,7 @@
         <v>161</v>
       </c>
       <c r="K178" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>158.3</v>
@@ -9415,7 +9437,7 @@
         <v>163</v>
       </c>
       <c r="K179" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L179" t="n">
         <v>158.1</v>
@@ -9466,7 +9488,7 @@
         <v>164</v>
       </c>
       <c r="K180" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>157.9</v>
@@ -9517,7 +9539,7 @@
         <v>165</v>
       </c>
       <c r="K181" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L181" t="n">
         <v>157.7</v>
@@ -9568,7 +9590,7 @@
         <v>165</v>
       </c>
       <c r="K182" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>157.4</v>
@@ -9619,7 +9641,7 @@
         <v>165</v>
       </c>
       <c r="K183" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>157.2</v>
@@ -9670,7 +9692,7 @@
         <v>166</v>
       </c>
       <c r="K184" t="n">
-        <v>-23.07692307692308</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L184" t="n">
         <v>156.9</v>
@@ -9721,7 +9743,7 @@
         <v>166</v>
       </c>
       <c r="K185" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L185" t="n">
         <v>156.5</v>
@@ -9772,7 +9794,7 @@
         <v>166</v>
       </c>
       <c r="K186" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L186" t="n">
         <v>156.2</v>
@@ -9823,7 +9845,7 @@
         <v>167</v>
       </c>
       <c r="K187" t="n">
-        <v>-28.57142857142857</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L187" t="n">
         <v>155.8</v>
@@ -9874,7 +9896,7 @@
         <v>167</v>
       </c>
       <c r="K188" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L188" t="n">
         <v>155.4</v>
@@ -9925,7 +9947,7 @@
         <v>167</v>
       </c>
       <c r="K189" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L189" t="n">
         <v>155.2</v>
@@ -10027,7 +10049,7 @@
         <v>169</v>
       </c>
       <c r="K191" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>155</v>
@@ -10078,7 +10100,7 @@
         <v>171</v>
       </c>
       <c r="K192" t="n">
-        <v>-38.46153846153847</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>154.8</v>
@@ -10129,7 +10151,7 @@
         <v>172</v>
       </c>
       <c r="K193" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>154.7</v>
@@ -10180,7 +10202,7 @@
         <v>172</v>
       </c>
       <c r="K194" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>154.7</v>
@@ -10231,7 +10253,7 @@
         <v>172</v>
       </c>
       <c r="K195" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>154.7</v>
@@ -10282,7 +10304,7 @@
         <v>172</v>
       </c>
       <c r="K196" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L196" t="n">
         <v>154.7</v>
@@ -10333,7 +10355,7 @@
         <v>173</v>
       </c>
       <c r="K197" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>154.9</v>
@@ -10384,7 +10406,7 @@
         <v>175</v>
       </c>
       <c r="K198" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>154.9</v>
@@ -10435,7 +10457,7 @@
         <v>176</v>
       </c>
       <c r="K199" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>155</v>
@@ -10486,7 +10508,7 @@
         <v>176</v>
       </c>
       <c r="K200" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L200" t="n">
         <v>155</v>
@@ -10537,7 +10559,7 @@
         <v>176</v>
       </c>
       <c r="K201" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>154.9</v>
@@ -10588,7 +10610,7 @@
         <v>176</v>
       </c>
       <c r="K202" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>155</v>
@@ -10639,7 +10661,7 @@
         <v>176</v>
       </c>
       <c r="K203" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>155</v>
@@ -10741,7 +10763,7 @@
         <v>177</v>
       </c>
       <c r="K205" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L205" t="n">
         <v>155.1</v>
@@ -10792,7 +10814,7 @@
         <v>178</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L206" t="n">
         <v>155.1</v>
@@ -10843,7 +10865,7 @@
         <v>179</v>
       </c>
       <c r="K207" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L207" t="n">
         <v>155.1</v>
@@ -10894,7 +10916,7 @@
         <v>181</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L208" t="n">
         <v>155.1</v>
@@ -10945,7 +10967,7 @@
         <v>183</v>
       </c>
       <c r="K209" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L209" t="n">
         <v>155.2</v>
@@ -11047,7 +11069,7 @@
         <v>184</v>
       </c>
       <c r="K211" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>155.2</v>
@@ -11098,7 +11120,7 @@
         <v>185</v>
       </c>
       <c r="K212" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L212" t="n">
         <v>155.3</v>
@@ -11149,7 +11171,7 @@
         <v>185</v>
       </c>
       <c r="K213" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L213" t="n">
         <v>155.4</v>
@@ -11200,7 +11222,7 @@
         <v>186</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L214" t="n">
         <v>155.4</v>
@@ -11302,7 +11324,7 @@
         <v>186</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>155.3</v>
@@ -11353,7 +11375,7 @@
         <v>186</v>
       </c>
       <c r="K217" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L217" t="n">
         <v>155.2</v>
@@ -11404,7 +11426,7 @@
         <v>187</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L218" t="n">
         <v>155.2</v>
@@ -11455,7 +11477,7 @@
         <v>187</v>
       </c>
       <c r="K219" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>155</v>
@@ -11506,7 +11528,7 @@
         <v>187</v>
       </c>
       <c r="K220" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>154.9</v>
@@ -11557,7 +11579,7 @@
         <v>188</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>154.9</v>
@@ -11608,7 +11630,7 @@
         <v>189</v>
       </c>
       <c r="K222" t="n">
-        <v>-7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L222" t="n">
         <v>154.7</v>
@@ -11659,7 +11681,7 @@
         <v>189</v>
       </c>
       <c r="K223" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>154.5</v>
@@ -11710,7 +11732,7 @@
         <v>190</v>
       </c>
       <c r="K224" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L224" t="n">
         <v>154.3</v>
@@ -11761,7 +11783,7 @@
         <v>190</v>
       </c>
       <c r="K225" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L225" t="n">
         <v>154.1</v>
@@ -11812,7 +11834,7 @@
         <v>190</v>
       </c>
       <c r="K226" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L226" t="n">
         <v>153.9</v>
@@ -11863,7 +11885,7 @@
         <v>190</v>
       </c>
       <c r="K227" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>153.7</v>
@@ -11914,7 +11936,7 @@
         <v>190</v>
       </c>
       <c r="K228" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>153.6</v>
@@ -11965,7 +11987,7 @@
         <v>190</v>
       </c>
       <c r="K229" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L229" t="n">
         <v>153.5</v>
@@ -12016,7 +12038,7 @@
         <v>190</v>
       </c>
       <c r="K230" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L230" t="n">
         <v>153.4</v>
@@ -12067,7 +12089,7 @@
         <v>191</v>
       </c>
       <c r="K231" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>153.3</v>
@@ -12169,7 +12191,7 @@
         <v>194</v>
       </c>
       <c r="K233" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>153</v>
@@ -12220,7 +12242,7 @@
         <v>195</v>
       </c>
       <c r="K234" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L234" t="n">
         <v>153.1</v>
@@ -12271,7 +12293,7 @@
         <v>195</v>
       </c>
       <c r="K235" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L235" t="n">
         <v>153.2</v>
@@ -12322,7 +12344,7 @@
         <v>195</v>
       </c>
       <c r="K236" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L236" t="n">
         <v>153.3</v>
@@ -12373,7 +12395,7 @@
         <v>195</v>
       </c>
       <c r="K237" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L237" t="n">
         <v>153.4</v>
@@ -12424,7 +12446,7 @@
         <v>195</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L238" t="n">
         <v>153.5</v>
@@ -12475,7 +12497,7 @@
         <v>196</v>
       </c>
       <c r="K239" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>153.5</v>
@@ -12577,7 +12599,7 @@
         <v>199</v>
       </c>
       <c r="K241" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>153.4</v>
@@ -12679,7 +12701,7 @@
         <v>199</v>
       </c>
       <c r="K243" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L243" t="n">
         <v>153.3</v>
@@ -12730,7 +12752,7 @@
         <v>199</v>
       </c>
       <c r="K244" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L244" t="n">
         <v>153.1</v>
@@ -12781,7 +12803,7 @@
         <v>199</v>
       </c>
       <c r="K245" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L245" t="n">
         <v>152.9</v>
@@ -12832,7 +12854,7 @@
         <v>199</v>
       </c>
       <c r="K246" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L246" t="n">
         <v>152.7</v>
@@ -12883,7 +12905,7 @@
         <v>199</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L247" t="n">
         <v>152.5</v>
@@ -12934,7 +12956,7 @@
         <v>199</v>
       </c>
       <c r="K248" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L248" t="n">
         <v>152.3</v>
@@ -12985,7 +13007,7 @@
         <v>199</v>
       </c>
       <c r="K249" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L249" t="n">
         <v>152.2</v>
@@ -13035,9 +13057,7 @@
       <c r="J250" t="n">
         <v>199</v>
       </c>
-      <c r="K250" t="n">
-        <v>-11.11111111111111</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>152</v>
       </c>
@@ -13087,7 +13107,7 @@
         <v>200</v>
       </c>
       <c r="K251" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L251" t="n">
         <v>151.9</v>
@@ -13189,7 +13209,7 @@
         <v>202</v>
       </c>
       <c r="K253" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L253" t="n">
         <v>151.8</v>
@@ -13240,7 +13260,7 @@
         <v>202</v>
       </c>
       <c r="K254" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>151.7</v>
@@ -13291,7 +13311,7 @@
         <v>202</v>
       </c>
       <c r="K255" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>151.6</v>
@@ -13393,7 +13413,7 @@
         <v>204</v>
       </c>
       <c r="K257" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L257" t="n">
         <v>151.3</v>
@@ -13444,7 +13464,7 @@
         <v>205</v>
       </c>
       <c r="K258" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>151.1</v>
@@ -13546,7 +13566,7 @@
         <v>206</v>
       </c>
       <c r="K260" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>150.8</v>
@@ -13597,7 +13617,7 @@
         <v>207</v>
       </c>
       <c r="K261" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>150.7</v>
@@ -13648,7 +13668,7 @@
         <v>208</v>
       </c>
       <c r="K262" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>150.6</v>
@@ -13699,7 +13719,7 @@
         <v>208</v>
       </c>
       <c r="K263" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>150.6</v>
@@ -13750,7 +13770,7 @@
         <v>208</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>150.6</v>
@@ -13801,7 +13821,7 @@
         <v>208</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L265" t="n">
         <v>150.6</v>
@@ -13852,7 +13872,7 @@
         <v>208</v>
       </c>
       <c r="K266" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>150.7</v>
@@ -13903,7 +13923,7 @@
         <v>209</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L267" t="n">
         <v>150.8</v>
@@ -13954,7 +13974,7 @@
         <v>210</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L268" t="n">
         <v>150.9</v>
@@ -14005,7 +14025,7 @@
         <v>211</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L269" t="n">
         <v>151.1</v>
@@ -14056,7 +14076,7 @@
         <v>212</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L270" t="n">
         <v>151.1</v>
@@ -14107,7 +14127,7 @@
         <v>214</v>
       </c>
       <c r="K271" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>151.4</v>
@@ -14158,7 +14178,7 @@
         <v>214</v>
       </c>
       <c r="K272" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>151.6</v>
@@ -14209,7 +14229,7 @@
         <v>214</v>
       </c>
       <c r="K273" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>151.8</v>
@@ -14260,7 +14280,7 @@
         <v>214</v>
       </c>
       <c r="K274" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>152</v>
@@ -14311,7 +14331,7 @@
         <v>216</v>
       </c>
       <c r="K275" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L275" t="n">
         <v>152.4</v>
@@ -14362,7 +14382,7 @@
         <v>216</v>
       </c>
       <c r="K276" t="n">
-        <v>38.46153846153847</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L276" t="n">
         <v>152.8</v>
@@ -14413,7 +14433,7 @@
         <v>216</v>
       </c>
       <c r="K277" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>153.1</v>
@@ -14464,7 +14484,7 @@
         <v>216</v>
       </c>
       <c r="K278" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L278" t="n">
         <v>153.5</v>
@@ -14515,7 +14535,7 @@
         <v>216</v>
       </c>
       <c r="K279" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L279" t="n">
         <v>153.8</v>
@@ -14566,7 +14586,7 @@
         <v>216</v>
       </c>
       <c r="K280" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L280" t="n">
         <v>154.2</v>
@@ -14617,7 +14637,7 @@
         <v>218</v>
       </c>
       <c r="K281" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>154.2</v>
@@ -14668,7 +14688,7 @@
         <v>218</v>
       </c>
       <c r="K282" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>154.2</v>
@@ -14719,7 +14739,7 @@
         <v>218</v>
       </c>
       <c r="K283" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>154.2</v>
@@ -14770,7 +14790,7 @@
         <v>218</v>
       </c>
       <c r="K284" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L284" t="n">
         <v>154.2</v>
@@ -14821,7 +14841,7 @@
         <v>218</v>
       </c>
       <c r="K285" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L285" t="n">
         <v>154</v>
@@ -14872,7 +14892,7 @@
         <v>218</v>
       </c>
       <c r="K286" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L286" t="n">
         <v>153.8</v>
@@ -14923,7 +14943,7 @@
         <v>219</v>
       </c>
       <c r="K287" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>153.7</v>
@@ -14974,7 +14994,7 @@
         <v>219</v>
       </c>
       <c r="K288" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>153.6</v>
@@ -15025,7 +15045,7 @@
         <v>219</v>
       </c>
       <c r="K289" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>153.5</v>
@@ -15076,7 +15096,7 @@
         <v>221</v>
       </c>
       <c r="K290" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L290" t="n">
         <v>153.2</v>
@@ -15127,7 +15147,7 @@
         <v>221</v>
       </c>
       <c r="K291" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>153.1</v>
@@ -15178,7 +15198,7 @@
         <v>223</v>
       </c>
       <c r="K292" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L292" t="n">
         <v>153.2</v>
@@ -15229,7 +15249,7 @@
         <v>225</v>
       </c>
       <c r="K293" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L293" t="n">
         <v>153.1</v>
@@ -15280,7 +15300,7 @@
         <v>225</v>
       </c>
       <c r="K294" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L294" t="n">
         <v>153</v>
@@ -15331,7 +15351,7 @@
         <v>227</v>
       </c>
       <c r="K295" t="n">
-        <v>-9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L295" t="n">
         <v>153.1</v>
@@ -15382,7 +15402,7 @@
         <v>228</v>
       </c>
       <c r="K296" t="n">
-        <v>-16.66666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L296" t="n">
         <v>153.1</v>
@@ -15433,7 +15453,7 @@
         <v>229</v>
       </c>
       <c r="K297" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L297" t="n">
         <v>152.9</v>
@@ -15484,7 +15504,7 @@
         <v>229</v>
       </c>
       <c r="K298" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L298" t="n">
         <v>152.7</v>
@@ -15535,7 +15555,7 @@
         <v>230</v>
       </c>
       <c r="K299" t="n">
-        <v>-28.57142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L299" t="n">
         <v>152.4</v>
@@ -15586,7 +15606,7 @@
         <v>230</v>
       </c>
       <c r="K300" t="n">
-        <v>-28.57142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L300" t="n">
         <v>152.3</v>
@@ -15637,7 +15657,7 @@
         <v>231</v>
       </c>
       <c r="K301" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L301" t="n">
         <v>152.3</v>
@@ -15688,7 +15708,7 @@
         <v>231</v>
       </c>
       <c r="K302" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>152.1</v>
@@ -15790,7 +15810,7 @@
         <v>233</v>
       </c>
       <c r="K304" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L304" t="n">
         <v>152</v>
@@ -15841,7 +15861,7 @@
         <v>234</v>
       </c>
       <c r="K305" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L305" t="n">
         <v>151.7</v>
@@ -15892,7 +15912,7 @@
         <v>235</v>
       </c>
       <c r="K306" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>151.6</v>
@@ -15943,7 +15963,7 @@
         <v>235</v>
       </c>
       <c r="K307" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>151.6</v>
@@ -15994,7 +16014,7 @@
         <v>235</v>
       </c>
       <c r="K308" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L308" t="n">
         <v>151.6</v>
@@ -16045,7 +16065,7 @@
         <v>235</v>
       </c>
       <c r="K309" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L309" t="n">
         <v>151.7</v>
@@ -16147,7 +16167,7 @@
         <v>236</v>
       </c>
       <c r="K311" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L311" t="n">
         <v>151.7</v>
@@ -16198,7 +16218,7 @@
         <v>237</v>
       </c>
       <c r="K312" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L312" t="n">
         <v>151.7</v>
@@ -16300,7 +16320,7 @@
         <v>237</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L314" t="n">
         <v>151.8</v>
@@ -16351,7 +16371,7 @@
         <v>237</v>
       </c>
       <c r="K315" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>151.9</v>
@@ -16402,7 +16422,7 @@
         <v>237</v>
       </c>
       <c r="K316" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>151.9</v>
@@ -16555,7 +16575,7 @@
         <v>237</v>
       </c>
       <c r="K319" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>151.9</v>
@@ -16606,7 +16626,7 @@
         <v>237</v>
       </c>
       <c r="K320" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L320" t="n">
         <v>151.9</v>
@@ -16656,9 +16676,7 @@
       <c r="J321" t="n">
         <v>237</v>
       </c>
-      <c r="K321" t="n">
-        <v>0</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>152</v>
       </c>
@@ -16708,7 +16726,7 @@
         <v>238</v>
       </c>
       <c r="K322" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L322" t="n">
         <v>152.1</v>
@@ -16759,7 +16777,7 @@
         <v>238</v>
       </c>
       <c r="K323" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L323" t="n">
         <v>152.2</v>
@@ -16810,7 +16828,7 @@
         <v>238</v>
       </c>
       <c r="K324" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L324" t="n">
         <v>152.3</v>
@@ -16861,7 +16879,7 @@
         <v>239</v>
       </c>
       <c r="K325" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>152.3</v>
@@ -16912,7 +16930,7 @@
         <v>241</v>
       </c>
       <c r="K326" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L326" t="n">
         <v>152.5</v>
@@ -16963,7 +16981,7 @@
         <v>241</v>
       </c>
       <c r="K327" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L327" t="n">
         <v>152.7</v>
@@ -17014,7 +17032,7 @@
         <v>242</v>
       </c>
       <c r="K328" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L328" t="n">
         <v>152.8</v>
@@ -17065,7 +17083,7 @@
         <v>242</v>
       </c>
       <c r="K329" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L329" t="n">
         <v>152.9</v>
@@ -17116,7 +17134,7 @@
         <v>243</v>
       </c>
       <c r="K330" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L330" t="n">
         <v>153.1</v>
@@ -17167,7 +17185,7 @@
         <v>244</v>
       </c>
       <c r="K331" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>153.2</v>
@@ -17218,7 +17236,7 @@
         <v>244</v>
       </c>
       <c r="K332" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>153.2</v>
@@ -17269,7 +17287,7 @@
         <v>245</v>
       </c>
       <c r="K333" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L333" t="n">
         <v>153.3</v>
@@ -17320,7 +17338,7 @@
         <v>245</v>
       </c>
       <c r="K334" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>153.4</v>
@@ -17371,7 +17389,7 @@
         <v>245</v>
       </c>
       <c r="K335" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>153.6</v>

--- a/BackTest/2019-10-06 BackTest ITC.xlsx
+++ b/BackTest/2019-10-06 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M314"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="n">
-        <v>8060</v>
+        <v>32.9782</v>
       </c>
       <c r="G2" t="n">
-        <v>146.55</v>
+        <v>146.4833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,31 +468,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>148</v>
+      </c>
+      <c r="C3" t="n">
+        <v>149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>149</v>
+      </c>
+      <c r="E3" t="n">
+        <v>148</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8060</v>
+      </c>
+      <c r="G3" t="n">
+        <v>146.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>147</v>
       </c>
-      <c r="C3" t="n">
+      <c r="K3" t="n">
         <v>147</v>
       </c>
-      <c r="D3" t="n">
-        <v>147</v>
-      </c>
-      <c r="E3" t="n">
-        <v>147</v>
-      </c>
-      <c r="F3" t="n">
-        <v>154.144</v>
-      </c>
-      <c r="G3" t="n">
-        <v>146.5833333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -515,10 +519,10 @@
         <v>147</v>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>154.144</v>
       </c>
       <c r="G4" t="n">
-        <v>146.6166666666667</v>
+        <v>146.5833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -527,8 +531,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>147</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" t="n">
-        <v>159.5652</v>
+        <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>146.6666666666667</v>
+        <v>146.6166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +572,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>147</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -585,10 +601,10 @@
         <v>148</v>
       </c>
       <c r="F6" t="n">
-        <v>179.3102</v>
+        <v>159.5652</v>
       </c>
       <c r="G6" t="n">
-        <v>146.7166666666667</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +624,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>4344.2616</v>
+        <v>179.3102</v>
       </c>
       <c r="G7" t="n">
-        <v>146.7833333333333</v>
+        <v>146.7166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +671,10 @@
         <v>149</v>
       </c>
       <c r="F8" t="n">
-        <v>6781.0671</v>
+        <v>4344.2616</v>
       </c>
       <c r="G8" t="n">
-        <v>146.85</v>
+        <v>146.7833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +706,10 @@
         <v>149</v>
       </c>
       <c r="F9" t="n">
-        <v>5862.7516</v>
+        <v>6781.0671</v>
       </c>
       <c r="G9" t="n">
-        <v>146.9166666666667</v>
+        <v>146.85</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +741,10 @@
         <v>149</v>
       </c>
       <c r="F10" t="n">
-        <v>768</v>
+        <v>5862.7516</v>
       </c>
       <c r="G10" t="n">
-        <v>146.9833333333333</v>
+        <v>146.9166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +767,19 @@
         <v>149</v>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>61337.5666</v>
+        <v>768</v>
       </c>
       <c r="G11" t="n">
-        <v>147.0666666666667</v>
+        <v>146.9833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
         <v>150</v>
@@ -792,13 +808,13 @@
         <v>150</v>
       </c>
       <c r="E12" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" t="n">
-        <v>1989.2024</v>
+        <v>61337.5666</v>
       </c>
       <c r="G12" t="n">
-        <v>147.15</v>
+        <v>147.0666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +837,19 @@
         <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E13" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" t="n">
-        <v>118704.751256962</v>
+        <v>1989.2024</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3666666666667</v>
+        <v>147.15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E14" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F14" t="n">
-        <v>165485.1473</v>
+        <v>118704.751256962</v>
       </c>
       <c r="G14" t="n">
-        <v>147.55</v>
+        <v>147.3666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +904,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>158</v>
+      </c>
+      <c r="C15" t="n">
         <v>156</v>
       </c>
-      <c r="C15" t="n">
-        <v>160</v>
-      </c>
       <c r="D15" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E15" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" t="n">
-        <v>4413.52579</v>
+        <v>165485.1473</v>
       </c>
       <c r="G15" t="n">
-        <v>147.8</v>
+        <v>147.55</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,28 +939,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C16" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
         <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" t="n">
-        <v>12894.09035</v>
+        <v>4413.52579</v>
       </c>
       <c r="G16" t="n">
-        <v>148</v>
+        <v>147.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" t="n">
         <v>160</v>
       </c>
       <c r="E17" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" t="n">
-        <v>36486.1084</v>
+        <v>12894.09035</v>
       </c>
       <c r="G17" t="n">
-        <v>148.2333333333333</v>
+        <v>148</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="n">
         <v>159</v>
@@ -1002,19 +1018,19 @@
         <v>160</v>
       </c>
       <c r="E18" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" t="n">
-        <v>22512.21616</v>
+        <v>36486.1084</v>
       </c>
       <c r="G18" t="n">
-        <v>148.45</v>
+        <v>148.2333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1031,19 +1047,19 @@
         <v>159</v>
       </c>
       <c r="C19" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D19" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F19" t="n">
-        <v>73739.35563999999</v>
+        <v>22512.21616</v>
       </c>
       <c r="G19" t="n">
-        <v>148.6666666666667</v>
+        <v>148.45</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1082,19 @@
         <v>159</v>
       </c>
       <c r="C20" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D20" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" t="n">
         <v>158</v>
       </c>
       <c r="F20" t="n">
-        <v>111660.8427</v>
+        <v>73739.35563999999</v>
       </c>
       <c r="G20" t="n">
-        <v>148.9666666666667</v>
+        <v>148.6666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1114,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D21" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F21" t="n">
-        <v>58335.2976</v>
+        <v>111660.8427</v>
       </c>
       <c r="G21" t="n">
-        <v>149.25</v>
+        <v>148.9666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E22" t="n">
         <v>162</v>
       </c>
       <c r="F22" t="n">
-        <v>16316.6798</v>
+        <v>58335.2976</v>
       </c>
       <c r="G22" t="n">
-        <v>149.5333333333333</v>
+        <v>149.25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1187,19 @@
         <v>163</v>
       </c>
       <c r="C23" t="n">
+        <v>163</v>
+      </c>
+      <c r="D23" t="n">
+        <v>164</v>
+      </c>
+      <c r="E23" t="n">
         <v>162</v>
       </c>
-      <c r="D23" t="n">
-        <v>163</v>
-      </c>
-      <c r="E23" t="n">
-        <v>161</v>
-      </c>
       <c r="F23" t="n">
-        <v>58609.2632</v>
+        <v>16316.6798</v>
       </c>
       <c r="G23" t="n">
-        <v>149.8166666666667</v>
+        <v>149.5333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1222,19 @@
         <v>163</v>
       </c>
       <c r="C24" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D24" t="n">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E24" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" t="n">
-        <v>73847.40201616297</v>
+        <v>58609.2632</v>
       </c>
       <c r="G24" t="n">
-        <v>150.15</v>
+        <v>149.8166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C25" t="n">
         <v>166</v>
       </c>
       <c r="D25" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E25" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F25" t="n">
-        <v>64570.7158</v>
+        <v>73847.40201616297</v>
       </c>
       <c r="G25" t="n">
-        <v>150.4833333333333</v>
+        <v>150.15</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
         <v>166</v>
       </c>
       <c r="D26" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" t="n">
         <v>166</v>
       </c>
       <c r="F26" t="n">
-        <v>40715.9715</v>
+        <v>64570.7158</v>
       </c>
       <c r="G26" t="n">
-        <v>150.8166666666667</v>
+        <v>150.4833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1327,19 @@
         <v>166</v>
       </c>
       <c r="C27" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D27" t="n">
+        <v>168</v>
+      </c>
+      <c r="E27" t="n">
         <v>166</v>
       </c>
-      <c r="E27" t="n">
-        <v>163</v>
-      </c>
       <c r="F27" t="n">
-        <v>12697.7638</v>
+        <v>40715.9715</v>
       </c>
       <c r="G27" t="n">
-        <v>151.1166666666667</v>
+        <v>150.8166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" t="n">
         <v>164</v>
@@ -1355,10 +1371,10 @@
         <v>163</v>
       </c>
       <c r="F28" t="n">
-        <v>96647.4344</v>
+        <v>12697.7638</v>
       </c>
       <c r="G28" t="n">
-        <v>151.4</v>
+        <v>151.1166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,10 +1394,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>165</v>
+      </c>
+      <c r="C29" t="n">
         <v>164</v>
-      </c>
-      <c r="C29" t="n">
-        <v>166</v>
       </c>
       <c r="D29" t="n">
         <v>166</v>
@@ -1390,10 +1406,10 @@
         <v>163</v>
       </c>
       <c r="F29" t="n">
-        <v>28080.0765</v>
+        <v>96647.4344</v>
       </c>
       <c r="G29" t="n">
-        <v>151.7166666666667</v>
+        <v>151.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1432,19 @@
         <v>164</v>
       </c>
       <c r="C30" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D30" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E30" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" t="n">
-        <v>3124.7447</v>
+        <v>28080.0765</v>
       </c>
       <c r="G30" t="n">
-        <v>152.0166666666667</v>
+        <v>151.7166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" t="n">
-        <v>69465.1658</v>
+        <v>3124.7447</v>
       </c>
       <c r="G31" t="n">
-        <v>152.3333333333333</v>
+        <v>152.0166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,7 +1502,7 @@
         <v>165</v>
       </c>
       <c r="C32" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D32" t="n">
         <v>165</v>
@@ -1495,10 +1511,10 @@
         <v>163</v>
       </c>
       <c r="F32" t="n">
-        <v>27716.3467</v>
+        <v>69465.1658</v>
       </c>
       <c r="G32" t="n">
-        <v>152.6166666666667</v>
+        <v>152.3333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" t="n">
         <v>165</v>
       </c>
       <c r="E33" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" t="n">
-        <v>8007.5858</v>
+        <v>27716.3467</v>
       </c>
       <c r="G33" t="n">
-        <v>152.9166666666667</v>
+        <v>152.6166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1572,19 @@
         <v>164</v>
       </c>
       <c r="C34" t="n">
+        <v>164</v>
+      </c>
+      <c r="D34" t="n">
         <v>165</v>
       </c>
-      <c r="D34" t="n">
-        <v>166</v>
-      </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F34" t="n">
-        <v>38438.0612</v>
+        <v>8007.5858</v>
       </c>
       <c r="G34" t="n">
-        <v>153.2166666666667</v>
+        <v>152.9166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1604,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C35" t="n">
         <v>165</v>
@@ -1597,13 +1613,13 @@
         <v>166</v>
       </c>
       <c r="E35" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" t="n">
-        <v>43605.5648</v>
+        <v>38438.0612</v>
       </c>
       <c r="G35" t="n">
-        <v>153.5166666666667</v>
+        <v>153.2166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" t="n">
         <v>165</v>
       </c>
       <c r="D36" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" t="n">
         <v>164</v>
       </c>
       <c r="F36" t="n">
-        <v>41872.3737</v>
+        <v>43605.5648</v>
       </c>
       <c r="G36" t="n">
-        <v>153.8166666666667</v>
+        <v>153.5166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1677,19 @@
         <v>165</v>
       </c>
       <c r="C37" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D37" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E37" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F37" t="n">
-        <v>11682.7891</v>
+        <v>41872.3737</v>
       </c>
       <c r="G37" t="n">
-        <v>154.1</v>
+        <v>153.8166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1712,19 @@
         <v>165</v>
       </c>
       <c r="C38" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" t="n">
         <v>166</v>
       </c>
       <c r="E38" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F38" t="n">
-        <v>17603.2697060241</v>
+        <v>11682.7891</v>
       </c>
       <c r="G38" t="n">
-        <v>154.4</v>
+        <v>154.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>165</v>
+      </c>
+      <c r="C39" t="n">
         <v>164</v>
       </c>
-      <c r="C39" t="n">
-        <v>163</v>
-      </c>
       <c r="D39" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E39" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F39" t="n">
-        <v>31745.5434</v>
+        <v>17603.2697060241</v>
       </c>
       <c r="G39" t="n">
-        <v>154.65</v>
+        <v>154.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1782,19 @@
         <v>164</v>
       </c>
       <c r="C40" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D40" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E40" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F40" t="n">
-        <v>9369.7084</v>
+        <v>31745.5434</v>
       </c>
       <c r="G40" t="n">
-        <v>154.8666666666667</v>
+        <v>154.65</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>164</v>
+      </c>
+      <c r="C41" t="n">
+        <v>162</v>
+      </c>
+      <c r="D41" t="n">
+        <v>164</v>
+      </c>
+      <c r="E41" t="n">
         <v>161</v>
       </c>
-      <c r="C41" t="n">
-        <v>160</v>
-      </c>
-      <c r="D41" t="n">
-        <v>161</v>
-      </c>
-      <c r="E41" t="n">
-        <v>160</v>
-      </c>
       <c r="F41" t="n">
-        <v>19917.2393</v>
+        <v>9369.7084</v>
       </c>
       <c r="G41" t="n">
-        <v>155.0666666666667</v>
+        <v>154.8666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1852,19 @@
         <v>161</v>
       </c>
       <c r="C42" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D42" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F42" t="n">
-        <v>3584.4223</v>
+        <v>19917.2393</v>
       </c>
       <c r="G42" t="n">
-        <v>155.3</v>
+        <v>155.0666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1884,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" t="n">
         <v>162</v>
@@ -1877,13 +1893,13 @@
         <v>162</v>
       </c>
       <c r="E43" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F43" t="n">
-        <v>2263.4927</v>
+        <v>3584.4223</v>
       </c>
       <c r="G43" t="n">
-        <v>155.5333333333333</v>
+        <v>155.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1909,16 +1925,16 @@
         <v>162</v>
       </c>
       <c r="D44" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" t="n">
         <v>162</v>
       </c>
       <c r="F44" t="n">
-        <v>802.0918</v>
+        <v>2263.4927</v>
       </c>
       <c r="G44" t="n">
-        <v>155.7666666666667</v>
+        <v>155.5333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,10 +1954,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" t="n">
         <v>163</v>
@@ -1950,10 +1966,10 @@
         <v>162</v>
       </c>
       <c r="F45" t="n">
-        <v>8250.873100000001</v>
+        <v>802.0918</v>
       </c>
       <c r="G45" t="n">
-        <v>156.0166666666667</v>
+        <v>155.7666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2001,10 @@
         <v>162</v>
       </c>
       <c r="F46" t="n">
-        <v>1384.0071</v>
+        <v>8250.873100000001</v>
       </c>
       <c r="G46" t="n">
-        <v>156.2666666666667</v>
+        <v>156.0166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2014,16 +2030,16 @@
         <v>163</v>
       </c>
       <c r="D47" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F47" t="n">
-        <v>815.6361000000001</v>
+        <v>1384.0071</v>
       </c>
       <c r="G47" t="n">
-        <v>156.5166666666667</v>
+        <v>156.2666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2059,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" t="n">
         <v>163</v>
@@ -2052,13 +2068,13 @@
         <v>164</v>
       </c>
       <c r="E48" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F48" t="n">
-        <v>12953.8134</v>
+        <v>815.6361000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>156.7666666666667</v>
+        <v>156.5166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>164</v>
+      </c>
+      <c r="C49" t="n">
         <v>163</v>
       </c>
-      <c r="C49" t="n">
-        <v>165</v>
-      </c>
       <c r="D49" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" t="n">
-        <v>1459.255658181818</v>
+        <v>12953.8134</v>
       </c>
       <c r="G49" t="n">
-        <v>157.05</v>
+        <v>156.7666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,10 +2129,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D50" t="n">
         <v>165</v>
@@ -2125,10 +2141,10 @@
         <v>163</v>
       </c>
       <c r="F50" t="n">
-        <v>4817.6931</v>
+        <v>1459.255658181818</v>
       </c>
       <c r="G50" t="n">
-        <v>157.3</v>
+        <v>157.05</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="n">
         <v>163</v>
       </c>
       <c r="D51" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E51" t="n">
         <v>163</v>
       </c>
       <c r="F51" t="n">
-        <v>3969.5966</v>
+        <v>4817.6931</v>
       </c>
       <c r="G51" t="n">
-        <v>157.55</v>
+        <v>157.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F52" t="n">
-        <v>6784.8785</v>
+        <v>3969.5966</v>
       </c>
       <c r="G52" t="n">
-        <v>157.7833333333333</v>
+        <v>157.55</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F53" t="n">
-        <v>671.4115</v>
+        <v>6784.8785</v>
       </c>
       <c r="G53" t="n">
-        <v>158</v>
+        <v>157.7833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2272,19 @@
         <v>161</v>
       </c>
       <c r="C54" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F54" t="n">
-        <v>64361.5466</v>
+        <v>671.4115</v>
       </c>
       <c r="G54" t="n">
-        <v>158.2666666666667</v>
+        <v>158</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2304,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F55" t="n">
-        <v>33683.3406</v>
+        <v>64361.5466</v>
       </c>
       <c r="G55" t="n">
-        <v>158.4833333333333</v>
+        <v>158.2666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,10 +2339,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>162</v>
+      </c>
+      <c r="C56" t="n">
         <v>161</v>
-      </c>
-      <c r="C56" t="n">
-        <v>162</v>
       </c>
       <c r="D56" t="n">
         <v>162</v>
@@ -2335,10 +2351,10 @@
         <v>161</v>
       </c>
       <c r="F56" t="n">
-        <v>506.7407</v>
+        <v>33683.3406</v>
       </c>
       <c r="G56" t="n">
-        <v>158.7333333333333</v>
+        <v>158.4833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2386,10 @@
         <v>161</v>
       </c>
       <c r="F57" t="n">
-        <v>971.259</v>
+        <v>506.7407</v>
       </c>
       <c r="G57" t="n">
-        <v>158.9833333333333</v>
+        <v>158.7333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C58" t="n">
+        <v>162</v>
+      </c>
+      <c r="D58" t="n">
+        <v>162</v>
+      </c>
+      <c r="E58" t="n">
         <v>161</v>
       </c>
-      <c r="D58" t="n">
-        <v>161</v>
-      </c>
-      <c r="E58" t="n">
-        <v>160</v>
-      </c>
       <c r="F58" t="n">
-        <v>374.1508</v>
+        <v>971.259</v>
       </c>
       <c r="G58" t="n">
-        <v>159.2</v>
+        <v>158.9833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C59" t="n">
         <v>161</v>
@@ -2437,13 +2453,13 @@
         <v>161</v>
       </c>
       <c r="E59" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F59" t="n">
-        <v>14.8643</v>
+        <v>374.1508</v>
       </c>
       <c r="G59" t="n">
-        <v>159.4166666666667</v>
+        <v>159.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2482,19 @@
         <v>161</v>
       </c>
       <c r="C60" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D60" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E60" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F60" t="n">
-        <v>65428.9289</v>
+        <v>14.8643</v>
       </c>
       <c r="G60" t="n">
-        <v>159.6666666666667</v>
+        <v>159.4166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,10 +2514,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D61" t="n">
         <v>163</v>
@@ -2510,10 +2526,10 @@
         <v>160</v>
       </c>
       <c r="F61" t="n">
-        <v>4054.6144</v>
+        <v>65428.9289</v>
       </c>
       <c r="G61" t="n">
-        <v>159.9166666666667</v>
+        <v>159.6666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" t="n">
         <v>163</v>
       </c>
       <c r="E62" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F62" t="n">
-        <v>308.756</v>
+        <v>4054.6144</v>
       </c>
       <c r="G62" t="n">
-        <v>160.15</v>
+        <v>159.9166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D63" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E63" t="n">
         <v>162</v>
       </c>
       <c r="F63" t="n">
-        <v>1682.9425</v>
+        <v>308.756</v>
       </c>
       <c r="G63" t="n">
-        <v>160.4</v>
+        <v>160.15</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2631,10 @@
         <v>162</v>
       </c>
       <c r="F64" t="n">
-        <v>125</v>
+        <v>1682.9425</v>
       </c>
       <c r="G64" t="n">
-        <v>160.65</v>
+        <v>160.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2644,16 +2660,16 @@
         <v>162</v>
       </c>
       <c r="D65" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E65" t="n">
         <v>162</v>
       </c>
       <c r="F65" t="n">
-        <v>4176.5408</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
-        <v>160.8833333333333</v>
+        <v>160.65</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2679,16 +2695,16 @@
         <v>162</v>
       </c>
       <c r="D66" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E66" t="n">
         <v>162</v>
       </c>
       <c r="F66" t="n">
-        <v>11585.8263</v>
+        <v>4176.5408</v>
       </c>
       <c r="G66" t="n">
-        <v>161.1166666666667</v>
+        <v>160.8833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D67" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E67" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F67" t="n">
-        <v>9658.895317682927</v>
+        <v>11585.8263</v>
       </c>
       <c r="G67" t="n">
-        <v>161.3166666666667</v>
+        <v>161.1166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2762,19 @@
         <v>163</v>
       </c>
       <c r="C68" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F68" t="n">
-        <v>12.85276073619632</v>
+        <v>9658.895317682927</v>
       </c>
       <c r="G68" t="n">
-        <v>161.55</v>
+        <v>161.3166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E69" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F69" t="n">
-        <v>53984.6143</v>
+        <v>12.85276073619632</v>
       </c>
       <c r="G69" t="n">
-        <v>161.7666666666667</v>
+        <v>161.55</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2822,13 +2838,13 @@
         <v>162</v>
       </c>
       <c r="E70" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" t="n">
-        <v>2492.2074</v>
+        <v>53984.6143</v>
       </c>
       <c r="G70" t="n">
-        <v>161.9833333333333</v>
+        <v>161.7666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2854,16 +2870,16 @@
         <v>162</v>
       </c>
       <c r="D71" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E71" t="n">
         <v>162</v>
       </c>
       <c r="F71" t="n">
-        <v>8405.013000000001</v>
+        <v>2492.2074</v>
       </c>
       <c r="G71" t="n">
-        <v>162.1833333333333</v>
+        <v>161.9833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C72" t="n">
         <v>162</v>
       </c>
       <c r="D72" t="n">
+        <v>163</v>
+      </c>
+      <c r="E72" t="n">
         <v>162</v>
       </c>
-      <c r="E72" t="n">
-        <v>161</v>
-      </c>
       <c r="F72" t="n">
-        <v>6105.7745</v>
+        <v>8405.013000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>162.3833333333333</v>
+        <v>162.1833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2937,19 @@
         <v>161</v>
       </c>
       <c r="C73" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73" t="n">
         <v>161</v>
       </c>
       <c r="F73" t="n">
-        <v>1651.4457</v>
+        <v>6105.7745</v>
       </c>
       <c r="G73" t="n">
-        <v>162.4333333333333</v>
+        <v>162.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E74" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F74" t="n">
-        <v>236.638</v>
+        <v>1651.4457</v>
       </c>
       <c r="G74" t="n">
-        <v>162.55</v>
+        <v>162.4333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3016,10 @@
         <v>163</v>
       </c>
       <c r="F75" t="n">
-        <v>125</v>
+        <v>236.638</v>
       </c>
       <c r="G75" t="n">
-        <v>162.6</v>
+        <v>162.55</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3051,10 @@
         <v>163</v>
       </c>
       <c r="F76" t="n">
-        <v>16.5214</v>
+        <v>125</v>
       </c>
       <c r="G76" t="n">
-        <v>162.7</v>
+        <v>162.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3074,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C77" t="n">
         <v>163</v>
@@ -3067,13 +3083,13 @@
         <v>163</v>
       </c>
       <c r="E77" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F77" t="n">
-        <v>17682.4269</v>
+        <v>16.5214</v>
       </c>
       <c r="G77" t="n">
-        <v>162.7666666666667</v>
+        <v>162.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3121,10 @@
         <v>161</v>
       </c>
       <c r="F78" t="n">
-        <v>8219.4763</v>
+        <v>17682.4269</v>
       </c>
       <c r="G78" t="n">
-        <v>162.8333333333333</v>
+        <v>162.7666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3147,19 @@
         <v>161</v>
       </c>
       <c r="C79" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D79" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E79" t="n">
         <v>161</v>
       </c>
       <c r="F79" t="n">
-        <v>84.10769999999999</v>
+        <v>8219.4763</v>
       </c>
       <c r="G79" t="n">
-        <v>162.8833333333333</v>
+        <v>162.8333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3182,19 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" t="n">
         <v>161</v>
       </c>
       <c r="F80" t="n">
-        <v>14646.4567</v>
+        <v>84.10769999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>162.85</v>
+        <v>162.8833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D81" t="n">
         <v>162</v>
       </c>
       <c r="E81" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F81" t="n">
-        <v>9987.75</v>
+        <v>14646.4567</v>
       </c>
       <c r="G81" t="n">
-        <v>162.8333333333333</v>
+        <v>162.85</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" t="n">
         <v>161</v>
       </c>
       <c r="D82" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E82" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F82" t="n">
-        <v>1150.3602</v>
+        <v>9987.75</v>
       </c>
       <c r="G82" t="n">
-        <v>162.8</v>
+        <v>162.8333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,16 +3287,16 @@
         <v>161</v>
       </c>
       <c r="C83" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E83" t="n">
         <v>161</v>
       </c>
       <c r="F83" t="n">
-        <v>275</v>
+        <v>1150.3602</v>
       </c>
       <c r="G83" t="n">
         <v>162.8</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="n">
         <v>162</v>
       </c>
       <c r="D84" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E84" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F84" t="n">
-        <v>9942.953299999999</v>
+        <v>275</v>
       </c>
       <c r="G84" t="n">
-        <v>162.7333333333333</v>
+        <v>162.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3354,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="n">
         <v>162</v>
@@ -3350,10 +3366,10 @@
         <v>162</v>
       </c>
       <c r="F85" t="n">
-        <v>3802.6044</v>
+        <v>9942.953299999999</v>
       </c>
       <c r="G85" t="n">
-        <v>162.6666666666667</v>
+        <v>162.7333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" t="n">
         <v>162</v>
       </c>
       <c r="D86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E86" t="n">
         <v>162</v>
       </c>
       <c r="F86" t="n">
-        <v>139.8388</v>
+        <v>3802.6044</v>
       </c>
       <c r="G86" t="n">
-        <v>162.6</v>
+        <v>162.6666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3414,16 +3430,16 @@
         <v>162</v>
       </c>
       <c r="D87" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E87" t="n">
         <v>162</v>
       </c>
       <c r="F87" t="n">
-        <v>4173.1189</v>
+        <v>139.8388</v>
       </c>
       <c r="G87" t="n">
-        <v>162.5666666666667</v>
+        <v>162.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3449,16 +3465,16 @@
         <v>162</v>
       </c>
       <c r="D88" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E88" t="n">
         <v>162</v>
       </c>
       <c r="F88" t="n">
-        <v>4288.6694</v>
+        <v>4173.1189</v>
       </c>
       <c r="G88" t="n">
-        <v>162.5333333333333</v>
+        <v>162.5666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3497,19 @@
         <v>162</v>
       </c>
       <c r="C89" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D89" t="n">
         <v>162</v>
       </c>
       <c r="E89" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F89" t="n">
-        <v>6400</v>
+        <v>4288.6694</v>
       </c>
       <c r="G89" t="n">
-        <v>162.45</v>
+        <v>162.5333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>162</v>
+      </c>
+      <c r="C90" t="n">
         <v>161</v>
       </c>
-      <c r="C90" t="n">
-        <v>160</v>
-      </c>
       <c r="D90" t="n">
+        <v>162</v>
+      </c>
+      <c r="E90" t="n">
         <v>161</v>
       </c>
-      <c r="E90" t="n">
-        <v>160</v>
-      </c>
       <c r="F90" t="n">
-        <v>4529.1033</v>
+        <v>6400</v>
       </c>
       <c r="G90" t="n">
-        <v>162.3833333333333</v>
+        <v>162.45</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3567,19 @@
         <v>161</v>
       </c>
       <c r="C91" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" t="n">
         <v>161</v>
       </c>
       <c r="E91" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91" t="n">
-        <v>19486.4271</v>
+        <v>4529.1033</v>
       </c>
       <c r="G91" t="n">
-        <v>162.3166666666667</v>
+        <v>162.3833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E92" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F92" t="n">
-        <v>50</v>
+        <v>19486.4271</v>
       </c>
       <c r="G92" t="n">
-        <v>162.25</v>
+        <v>162.3166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D93" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E93" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F93" t="n">
-        <v>14685.0765</v>
+        <v>50</v>
       </c>
       <c r="G93" t="n">
-        <v>162.15</v>
+        <v>162.25</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,10 +3669,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D94" t="n">
         <v>160</v>
@@ -3665,10 +3681,10 @@
         <v>158</v>
       </c>
       <c r="F94" t="n">
-        <v>10271.7332</v>
+        <v>14685.0765</v>
       </c>
       <c r="G94" t="n">
-        <v>162.05</v>
+        <v>162.15</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" t="n">
         <v>159</v>
       </c>
       <c r="D95" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E95" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F95" t="n">
-        <v>2910.6286</v>
+        <v>10271.7332</v>
       </c>
       <c r="G95" t="n">
-        <v>161.95</v>
+        <v>162.05</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3742,19 @@
         <v>159</v>
       </c>
       <c r="C96" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D96" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E96" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F96" t="n">
-        <v>60542.5104</v>
+        <v>2910.6286</v>
       </c>
       <c r="G96" t="n">
-        <v>161.8333333333333</v>
+        <v>161.95</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" t="n">
         <v>158</v>
       </c>
       <c r="D97" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E97" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F97" t="n">
-        <v>12515.7217</v>
+        <v>60542.5104</v>
       </c>
       <c r="G97" t="n">
-        <v>161.75</v>
+        <v>161.8333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>158</v>
+      </c>
+      <c r="C98" t="n">
+        <v>158</v>
+      </c>
+      <c r="D98" t="n">
         <v>159</v>
       </c>
-      <c r="C98" t="n">
-        <v>157</v>
-      </c>
-      <c r="D98" t="n">
-        <v>160</v>
-      </c>
       <c r="E98" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F98" t="n">
-        <v>11672.5516</v>
+        <v>12515.7217</v>
       </c>
       <c r="G98" t="n">
-        <v>161.6333333333333</v>
+        <v>161.75</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C99" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E99" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F99" t="n">
-        <v>12712.3602</v>
+        <v>11672.5516</v>
       </c>
       <c r="G99" t="n">
-        <v>161.55</v>
+        <v>161.6333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3882,19 @@
         <v>158</v>
       </c>
       <c r="C100" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D100" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E100" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F100" t="n">
-        <v>8092.7153</v>
+        <v>12712.3602</v>
       </c>
       <c r="G100" t="n">
-        <v>161.4666666666667</v>
+        <v>161.55</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,16 +3917,16 @@
         <v>158</v>
       </c>
       <c r="C101" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D101" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F101" t="n">
-        <v>9081.7611</v>
+        <v>8092.7153</v>
       </c>
       <c r="G101" t="n">
         <v>161.4666666666667</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D102" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E102" t="n">
         <v>158</v>
       </c>
       <c r="F102" t="n">
-        <v>572.5522</v>
+        <v>9081.7611</v>
       </c>
       <c r="G102" t="n">
-        <v>161.4</v>
+        <v>161.4666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3987,19 @@
         <v>159</v>
       </c>
       <c r="C103" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" t="n">
         <v>159</v>
       </c>
       <c r="E103" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F103" t="n">
-        <v>38.5597</v>
+        <v>572.5522</v>
       </c>
       <c r="G103" t="n">
-        <v>161.35</v>
+        <v>161.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C104" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D104" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E104" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F104" t="n">
-        <v>43554.83</v>
+        <v>38.5597</v>
       </c>
       <c r="G104" t="n">
-        <v>161.3166666666667</v>
+        <v>161.35</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4057,19 @@
         <v>158</v>
       </c>
       <c r="C105" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D105" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E105" t="n">
         <v>157</v>
       </c>
       <c r="F105" t="n">
-        <v>1308.7715</v>
+        <v>43554.83</v>
       </c>
       <c r="G105" t="n">
-        <v>161.2333333333333</v>
+        <v>161.3166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,7 +4092,7 @@
         <v>158</v>
       </c>
       <c r="C106" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D106" t="n">
         <v>158</v>
@@ -4085,10 +4101,10 @@
         <v>157</v>
       </c>
       <c r="F106" t="n">
-        <v>4340.0607</v>
+        <v>1308.7715</v>
       </c>
       <c r="G106" t="n">
-        <v>161.1333333333333</v>
+        <v>161.2333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4127,19 @@
         <v>158</v>
       </c>
       <c r="C107" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D107" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F107" t="n">
-        <v>2729</v>
+        <v>4340.0607</v>
       </c>
       <c r="G107" t="n">
-        <v>161.0666666666667</v>
+        <v>161.1333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4159,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" t="n">
         <v>159</v>
@@ -4155,10 +4171,10 @@
         <v>158</v>
       </c>
       <c r="F108" t="n">
-        <v>437.7547</v>
+        <v>2729</v>
       </c>
       <c r="G108" t="n">
-        <v>161</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C109" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D109" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E109" t="n">
         <v>158</v>
       </c>
       <c r="F109" t="n">
-        <v>335.7057</v>
+        <v>437.7547</v>
       </c>
       <c r="G109" t="n">
-        <v>160.8833333333333</v>
+        <v>161</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E110" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110" t="n">
-        <v>500</v>
+        <v>335.7057</v>
       </c>
       <c r="G110" t="n">
-        <v>160.8166666666667</v>
+        <v>160.8833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4257,13 +4273,13 @@
         <v>159</v>
       </c>
       <c r="E111" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F111" t="n">
-        <v>14794.9394</v>
+        <v>500</v>
       </c>
       <c r="G111" t="n">
-        <v>160.75</v>
+        <v>160.8166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D112" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F112" t="n">
-        <v>1969.8</v>
+        <v>14794.9394</v>
       </c>
       <c r="G112" t="n">
-        <v>160.7166666666667</v>
+        <v>160.75</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E113" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F113" t="n">
-        <v>143.3603</v>
+        <v>1969.8</v>
       </c>
       <c r="G113" t="n">
-        <v>160.6666666666667</v>
+        <v>160.7166666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E114" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>143.3603</v>
       </c>
       <c r="G114" t="n">
-        <v>160.6166666666667</v>
+        <v>160.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E115" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F115" t="n">
-        <v>161.2654</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>160.5666666666667</v>
+        <v>160.6166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E116" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116" t="n">
-        <v>1829.35</v>
+        <v>161.2654</v>
       </c>
       <c r="G116" t="n">
-        <v>160.5333333333333</v>
+        <v>160.5666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" t="n">
         <v>160</v>
       </c>
       <c r="D117" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E117" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117" t="n">
-        <v>13724.3137</v>
+        <v>1829.35</v>
       </c>
       <c r="G117" t="n">
-        <v>160.5</v>
+        <v>160.5333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,7 +4509,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C118" t="n">
         <v>160</v>
@@ -4505,10 +4521,10 @@
         <v>160</v>
       </c>
       <c r="F118" t="n">
-        <v>266.2855</v>
+        <v>13724.3137</v>
       </c>
       <c r="G118" t="n">
-        <v>160.4833333333333</v>
+        <v>160.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>161</v>
+      </c>
+      <c r="C119" t="n">
         <v>160</v>
       </c>
-      <c r="C119" t="n">
-        <v>159</v>
-      </c>
       <c r="D119" t="n">
+        <v>161</v>
+      </c>
+      <c r="E119" t="n">
         <v>160</v>
       </c>
-      <c r="E119" t="n">
-        <v>159</v>
-      </c>
       <c r="F119" t="n">
-        <v>274.3011</v>
+        <v>266.2855</v>
       </c>
       <c r="G119" t="n">
-        <v>160.45</v>
+        <v>160.4833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C120" t="n">
+        <v>159</v>
+      </c>
+      <c r="D120" t="n">
         <v>160</v>
       </c>
-      <c r="D120" t="n">
-        <v>161</v>
-      </c>
       <c r="E120" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F120" t="n">
-        <v>1790.8987</v>
+        <v>274.3011</v>
       </c>
       <c r="G120" t="n">
-        <v>160.4</v>
+        <v>160.45</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C121" t="n">
         <v>160</v>
       </c>
       <c r="D121" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E121" t="n">
         <v>160</v>
       </c>
       <c r="F121" t="n">
-        <v>4277.7402</v>
+        <v>1790.8987</v>
       </c>
       <c r="G121" t="n">
-        <v>160.3666666666667</v>
+        <v>160.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4652,19 @@
         <v>160</v>
       </c>
       <c r="C122" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D122" t="n">
         <v>160</v>
       </c>
       <c r="E122" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F122" t="n">
-        <v>12644.2061</v>
+        <v>4277.7402</v>
       </c>
       <c r="G122" t="n">
-        <v>160.3</v>
+        <v>160.3666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4687,19 @@
         <v>160</v>
       </c>
       <c r="C123" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D123" t="n">
         <v>160</v>
       </c>
       <c r="E123" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F123" t="n">
-        <v>32.4812</v>
+        <v>12644.2061</v>
       </c>
       <c r="G123" t="n">
-        <v>160.2666666666667</v>
+        <v>160.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4731,10 @@
         <v>160</v>
       </c>
       <c r="F124" t="n">
-        <v>13.95</v>
+        <v>32.4812</v>
       </c>
       <c r="G124" t="n">
-        <v>160.2333333333333</v>
+        <v>160.2666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C125" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D125" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E125" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F125" t="n">
-        <v>11784.7259</v>
+        <v>13.95</v>
       </c>
       <c r="G125" t="n">
-        <v>160.1833333333333</v>
+        <v>160.2333333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4792,19 @@
         <v>159</v>
       </c>
       <c r="C126" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D126" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E126" t="n">
         <v>158</v>
       </c>
       <c r="F126" t="n">
-        <v>10417.9096</v>
+        <v>11784.7259</v>
       </c>
       <c r="G126" t="n">
-        <v>160.1166666666667</v>
+        <v>160.1833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C127" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D127" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E127" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F127" t="n">
-        <v>22751.9941</v>
+        <v>10417.9096</v>
       </c>
       <c r="G127" t="n">
-        <v>160.05</v>
+        <v>160.1166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C128" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D128" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E128" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F128" t="n">
-        <v>501</v>
+        <v>22751.9941</v>
       </c>
       <c r="G128" t="n">
-        <v>159.9666666666667</v>
+        <v>160.05</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C129" t="n">
         <v>158</v>
       </c>
       <c r="D129" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E129" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F129" t="n">
-        <v>3825.0585</v>
+        <v>501</v>
       </c>
       <c r="G129" t="n">
-        <v>159.9</v>
+        <v>159.9666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4922,13 +4938,13 @@
         <v>158</v>
       </c>
       <c r="E130" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F130" t="n">
-        <v>15515</v>
+        <v>3825.0585</v>
       </c>
       <c r="G130" t="n">
-        <v>159.8333333333333</v>
+        <v>159.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4967,19 @@
         <v>158</v>
       </c>
       <c r="C131" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E131" t="n">
         <v>158</v>
       </c>
       <c r="F131" t="n">
-        <v>27629.0326</v>
+        <v>15515</v>
       </c>
       <c r="G131" t="n">
-        <v>159.7833333333333</v>
+        <v>159.8333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>158</v>
+      </c>
+      <c r="C132" t="n">
         <v>159</v>
       </c>
-      <c r="C132" t="n">
-        <v>158</v>
-      </c>
       <c r="D132" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E132" t="n">
         <v>158</v>
       </c>
       <c r="F132" t="n">
-        <v>101</v>
+        <v>27629.0326</v>
       </c>
       <c r="G132" t="n">
-        <v>159.7166666666667</v>
+        <v>159.7833333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5046,10 @@
         <v>158</v>
       </c>
       <c r="F133" t="n">
-        <v>6886.899371069182</v>
+        <v>101</v>
       </c>
       <c r="G133" t="n">
-        <v>159.6666666666667</v>
+        <v>159.7166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C134" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D134" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E134" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F134" t="n">
-        <v>156.5315</v>
+        <v>6886.899371069182</v>
       </c>
       <c r="G134" t="n">
-        <v>159.5666666666667</v>
+        <v>159.6666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" t="n">
         <v>157</v>
       </c>
       <c r="D135" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E135" t="n">
         <v>157</v>
       </c>
       <c r="F135" t="n">
-        <v>200</v>
+        <v>156.5315</v>
       </c>
       <c r="G135" t="n">
-        <v>159.4666666666667</v>
+        <v>159.5666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C136" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D136" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E136" t="n">
         <v>157</v>
       </c>
       <c r="F136" t="n">
-        <v>1502.861144654088</v>
+        <v>200</v>
       </c>
       <c r="G136" t="n">
-        <v>159.3833333333333</v>
+        <v>159.4666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5177,19 @@
         <v>158</v>
       </c>
       <c r="C137" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D137" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E137" t="n">
         <v>157</v>
       </c>
       <c r="F137" t="n">
-        <v>4157.262</v>
+        <v>1502.861144654088</v>
       </c>
       <c r="G137" t="n">
-        <v>159.2833333333333</v>
+        <v>159.3833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>158</v>
+      </c>
+      <c r="C138" t="n">
         <v>157</v>
       </c>
-      <c r="C138" t="n">
-        <v>158</v>
-      </c>
       <c r="D138" t="n">
         <v>158</v>
       </c>
       <c r="E138" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F138" t="n">
-        <v>50706.8142</v>
+        <v>4157.262</v>
       </c>
       <c r="G138" t="n">
-        <v>159.2</v>
+        <v>159.2833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C139" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D139" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E139" t="n">
         <v>156</v>
       </c>
       <c r="F139" t="n">
-        <v>18462.2754</v>
+        <v>50706.8142</v>
       </c>
       <c r="G139" t="n">
-        <v>159.1166666666667</v>
+        <v>159.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5291,10 @@
         <v>156</v>
       </c>
       <c r="F140" t="n">
-        <v>74293.3181</v>
+        <v>18462.2754</v>
       </c>
       <c r="G140" t="n">
-        <v>159.0166666666667</v>
+        <v>159.1166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5317,19 @@
         <v>156</v>
       </c>
       <c r="C141" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D141" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E141" t="n">
         <v>156</v>
       </c>
       <c r="F141" t="n">
-        <v>13429.323</v>
+        <v>74293.3181</v>
       </c>
       <c r="G141" t="n">
-        <v>158.95</v>
+        <v>159.0166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C142" t="n">
         <v>157</v>
       </c>
       <c r="D142" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E142" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>13429.323</v>
       </c>
       <c r="G142" t="n">
-        <v>158.8833333333333</v>
+        <v>158.95</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C143" t="n">
         <v>157</v>
       </c>
       <c r="D143" t="n">
+        <v>158</v>
+      </c>
+      <c r="E143" t="n">
         <v>157</v>
       </c>
-      <c r="E143" t="n">
-        <v>156</v>
-      </c>
       <c r="F143" t="n">
-        <v>3744.5205</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>158.8</v>
+        <v>158.8833333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144" t="n">
         <v>157</v>
       </c>
       <c r="D144" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E144" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>3744.5205</v>
       </c>
       <c r="G144" t="n">
-        <v>158.7166666666667</v>
+        <v>158.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5466,10 @@
         <v>157</v>
       </c>
       <c r="F145" t="n">
-        <v>9732.7078</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>158.6333333333333</v>
+        <v>158.7166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5501,10 @@
         <v>157</v>
       </c>
       <c r="F146" t="n">
-        <v>1140.0882</v>
+        <v>9732.7078</v>
       </c>
       <c r="G146" t="n">
-        <v>158.55</v>
+        <v>158.6333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C147" t="n">
         <v>157</v>
       </c>
       <c r="D147" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E147" t="n">
         <v>157</v>
       </c>
       <c r="F147" t="n">
-        <v>1020.264</v>
+        <v>1140.0882</v>
       </c>
       <c r="G147" t="n">
-        <v>158.4666666666667</v>
+        <v>158.55</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E148" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>1020.264</v>
       </c>
       <c r="G148" t="n">
-        <v>158.4166666666667</v>
+        <v>158.4666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E149" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>158.3666666666667</v>
+        <v>158.4166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C150" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D150" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E150" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>158.35</v>
+        <v>158.3666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,7 +5664,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C151" t="n">
         <v>159</v>
@@ -5657,13 +5673,13 @@
         <v>159</v>
       </c>
       <c r="E151" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F151" t="n">
-        <v>399</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>158.3166666666667</v>
+        <v>158.35</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5686,19 +5702,19 @@
         <v>158</v>
       </c>
       <c r="C152" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D152" t="n">
         <v>159</v>
       </c>
       <c r="E152" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F152" t="n">
-        <v>22748.0916</v>
+        <v>399</v>
       </c>
       <c r="G152" t="n">
-        <v>158.2833333333333</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,16 +5737,16 @@
         <v>158</v>
       </c>
       <c r="C153" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E153" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>22748.0916</v>
       </c>
       <c r="G153" t="n">
         <v>158.2833333333333</v>
@@ -5753,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E154" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F154" t="n">
-        <v>1147.4843</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>158.25</v>
+        <v>158.2833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E155" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>1147.4843</v>
       </c>
       <c r="G155" t="n">
-        <v>158.2333333333333</v>
+        <v>158.25</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5839,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E156" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F156" t="n">
-        <v>171.1862</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>158.2166666666667</v>
+        <v>158.2333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" t="n">
         <v>157</v>
       </c>
       <c r="D157" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E157" t="n">
         <v>157</v>
       </c>
       <c r="F157" t="n">
-        <v>796</v>
+        <v>171.1862</v>
       </c>
       <c r="G157" t="n">
-        <v>158.2</v>
+        <v>158.2166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,7 +5921,7 @@
         <v>157</v>
       </c>
       <c r="F158" t="n">
-        <v>246.8949</v>
+        <v>796</v>
       </c>
       <c r="G158" t="n">
         <v>158.2</v>
@@ -5928,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" t="n">
         <v>157</v>
       </c>
       <c r="D159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E159" t="n">
         <v>157</v>
       </c>
       <c r="F159" t="n">
-        <v>200.9537</v>
+        <v>246.8949</v>
       </c>
       <c r="G159" t="n">
-        <v>158.1833333333333</v>
+        <v>158.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E160" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F160" t="n">
-        <v>2911.4751</v>
+        <v>200.9537</v>
       </c>
       <c r="G160" t="n">
-        <v>158.2</v>
+        <v>158.1833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6026,10 @@
         <v>158</v>
       </c>
       <c r="F161" t="n">
-        <v>385.918</v>
+        <v>2911.4751</v>
       </c>
       <c r="G161" t="n">
-        <v>158.1666666666667</v>
+        <v>158.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,7 +6061,7 @@
         <v>158</v>
       </c>
       <c r="F162" t="n">
-        <v>12499.9999</v>
+        <v>385.918</v>
       </c>
       <c r="G162" t="n">
         <v>158.1666666666667</v>
@@ -6068,19 +6084,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E163" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F163" t="n">
-        <v>4179.8471</v>
+        <v>12499.9999</v>
       </c>
       <c r="G163" t="n">
         <v>158.1666666666667</v>
@@ -6103,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D164" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E164" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F164" t="n">
-        <v>909.905</v>
+        <v>4179.8471</v>
       </c>
       <c r="G164" t="n">
-        <v>158.1333333333333</v>
+        <v>158.1666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6147,10 +6163,10 @@
         <v>158</v>
       </c>
       <c r="E165" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" t="n">
-        <v>398</v>
+        <v>909.905</v>
       </c>
       <c r="G165" t="n">
         <v>158.1333333333333</v>
@@ -6185,10 +6201,10 @@
         <v>158</v>
       </c>
       <c r="F166" t="n">
-        <v>709.405</v>
+        <v>398</v>
       </c>
       <c r="G166" t="n">
-        <v>158.15</v>
+        <v>158.1333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6236,10 @@
         <v>158</v>
       </c>
       <c r="F167" t="n">
-        <v>2824.1265</v>
+        <v>709.405</v>
       </c>
       <c r="G167" t="n">
-        <v>158.1333333333333</v>
+        <v>158.15</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C168" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D168" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E168" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>2824.1265</v>
       </c>
       <c r="G168" t="n">
-        <v>158.1</v>
+        <v>158.1333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,19 +6294,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>159</v>
+      </c>
+      <c r="C169" t="n">
         <v>157</v>
       </c>
-      <c r="C169" t="n">
-        <v>158</v>
-      </c>
       <c r="D169" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E169" t="n">
         <v>157</v>
       </c>
       <c r="F169" t="n">
-        <v>13.8527</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
         <v>158.1</v>
@@ -6316,16 +6332,16 @@
         <v>157</v>
       </c>
       <c r="C170" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E170" t="n">
         <v>157</v>
       </c>
       <c r="F170" t="n">
-        <v>78.631</v>
+        <v>13.8527</v>
       </c>
       <c r="G170" t="n">
         <v>158.1</v>
@@ -6348,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C171" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D171" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E171" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F171" t="n">
-        <v>1371.7151</v>
+        <v>78.631</v>
       </c>
       <c r="G171" t="n">
-        <v>158.0833333333333</v>
+        <v>158.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E172" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>1371.7151</v>
       </c>
       <c r="G172" t="n">
-        <v>158.0666666666667</v>
+        <v>158.0833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6421,16 +6437,16 @@
         <v>159</v>
       </c>
       <c r="C173" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D173" t="n">
         <v>159</v>
       </c>
       <c r="E173" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F173" t="n">
-        <v>13598.1318</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>158.0666666666667</v>
@@ -6453,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C174" t="n">
         <v>158</v>
       </c>
       <c r="D174" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E174" t="n">
         <v>158</v>
       </c>
       <c r="F174" t="n">
-        <v>306.8361</v>
+        <v>13598.1318</v>
       </c>
       <c r="G174" t="n">
-        <v>158.0333333333333</v>
+        <v>158.0666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6507,19 @@
         <v>158</v>
       </c>
       <c r="C175" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D175" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E175" t="n">
         <v>158</v>
       </c>
       <c r="F175" t="n">
-        <v>31678.5002</v>
+        <v>306.8361</v>
       </c>
       <c r="G175" t="n">
-        <v>158.05</v>
+        <v>158.0333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C176" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D176" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E176" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F176" t="n">
-        <v>3411.1643</v>
+        <v>31678.5002</v>
       </c>
       <c r="G176" t="n">
-        <v>158.0166666666667</v>
+        <v>158.05</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,7 +6574,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" t="n">
         <v>158</v>
@@ -6567,13 +6583,13 @@
         <v>158</v>
       </c>
       <c r="E177" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F177" t="n">
-        <v>838.3075</v>
+        <v>3411.1643</v>
       </c>
       <c r="G177" t="n">
-        <v>157.9833333333333</v>
+        <v>158.0166666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6621,10 @@
         <v>158</v>
       </c>
       <c r="F178" t="n">
-        <v>370.948</v>
+        <v>838.3075</v>
       </c>
       <c r="G178" t="n">
-        <v>157.95</v>
+        <v>157.9833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C179" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D179" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E179" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F179" t="n">
-        <v>7471.2691</v>
+        <v>370.948</v>
       </c>
       <c r="G179" t="n">
-        <v>157.9</v>
+        <v>157.95</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,10 +6679,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>157</v>
+      </c>
+      <c r="C180" t="n">
         <v>156</v>
-      </c>
-      <c r="C180" t="n">
-        <v>157</v>
       </c>
       <c r="D180" t="n">
         <v>157</v>
@@ -6675,10 +6691,10 @@
         <v>156</v>
       </c>
       <c r="F180" t="n">
-        <v>8788.7192</v>
+        <v>7471.2691</v>
       </c>
       <c r="G180" t="n">
-        <v>157.85</v>
+        <v>157.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6701,19 +6717,19 @@
         <v>156</v>
       </c>
       <c r="C181" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D181" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E181" t="n">
         <v>156</v>
       </c>
       <c r="F181" t="n">
-        <v>5749.9813</v>
+        <v>8788.7192</v>
       </c>
       <c r="G181" t="n">
-        <v>157.7833333333333</v>
+        <v>157.85</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6739,16 +6755,16 @@
         <v>156</v>
       </c>
       <c r="D182" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E182" t="n">
         <v>156</v>
       </c>
       <c r="F182" t="n">
-        <v>1267.0452</v>
+        <v>5749.9813</v>
       </c>
       <c r="G182" t="n">
-        <v>157.7333333333333</v>
+        <v>157.7833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C183" t="n">
         <v>156</v>
       </c>
       <c r="D183" t="n">
+        <v>157</v>
+      </c>
+      <c r="E183" t="n">
         <v>156</v>
       </c>
-      <c r="E183" t="n">
-        <v>155</v>
-      </c>
       <c r="F183" t="n">
-        <v>4798.4787</v>
+        <v>1267.0452</v>
       </c>
       <c r="G183" t="n">
-        <v>157.6666666666667</v>
+        <v>157.7333333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,10 +6819,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>155</v>
+      </c>
+      <c r="C184" t="n">
         <v>156</v>
-      </c>
-      <c r="C184" t="n">
-        <v>155</v>
       </c>
       <c r="D184" t="n">
         <v>156</v>
@@ -6815,10 +6831,10 @@
         <v>155</v>
       </c>
       <c r="F184" t="n">
-        <v>4468.7307</v>
+        <v>4798.4787</v>
       </c>
       <c r="G184" t="n">
-        <v>157.5833333333333</v>
+        <v>157.6666666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C185" t="n">
         <v>155</v>
       </c>
       <c r="D185" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E185" t="n">
         <v>155</v>
       </c>
       <c r="F185" t="n">
-        <v>6767.4042</v>
+        <v>4468.7307</v>
       </c>
       <c r="G185" t="n">
-        <v>157.5166666666667</v>
+        <v>157.5833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6882,13 +6898,13 @@
         <v>155</v>
       </c>
       <c r="E186" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F186" t="n">
-        <v>51213.3164</v>
+        <v>6767.4042</v>
       </c>
       <c r="G186" t="n">
-        <v>157.4666666666667</v>
+        <v>157.5166666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C187" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D187" t="n">
         <v>155</v>
       </c>
       <c r="E187" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F187" t="n">
-        <v>16059.1812</v>
+        <v>51213.3164</v>
       </c>
       <c r="G187" t="n">
-        <v>157.4166666666667</v>
+        <v>157.4666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6949,16 +6965,16 @@
         <v>154</v>
       </c>
       <c r="D188" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E188" t="n">
         <v>153</v>
       </c>
       <c r="F188" t="n">
-        <v>16022.3355</v>
+        <v>16059.1812</v>
       </c>
       <c r="G188" t="n">
-        <v>157.35</v>
+        <v>157.4166666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C189" t="n">
         <v>154</v>
       </c>
       <c r="D189" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E189" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F189" t="n">
-        <v>1557.258</v>
+        <v>16022.3355</v>
       </c>
       <c r="G189" t="n">
-        <v>157.2833333333333</v>
+        <v>157.35</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7029,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
+        <v>157</v>
+      </c>
+      <c r="C190" t="n">
         <v>154</v>
       </c>
-      <c r="C190" t="n">
-        <v>155</v>
-      </c>
       <c r="D190" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E190" t="n">
         <v>154</v>
       </c>
       <c r="F190" t="n">
-        <v>3355.1886</v>
+        <v>1557.258</v>
       </c>
       <c r="G190" t="n">
-        <v>157.2333333333333</v>
+        <v>157.2833333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7064,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>154</v>
+      </c>
+      <c r="C191" t="n">
         <v>155</v>
-      </c>
-      <c r="C191" t="n">
-        <v>156</v>
       </c>
       <c r="D191" t="n">
         <v>156</v>
       </c>
       <c r="E191" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F191" t="n">
-        <v>375</v>
+        <v>3355.1886</v>
       </c>
       <c r="G191" t="n">
-        <v>157.1833333333333</v>
+        <v>157.2333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C192" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D192" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E192" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F192" t="n">
-        <v>4660.1852</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
-        <v>157.1166666666667</v>
+        <v>157.1833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7121,19 +7137,19 @@
         <v>154</v>
       </c>
       <c r="C193" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D193" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E193" t="n">
         <v>154</v>
       </c>
       <c r="F193" t="n">
-        <v>2983.1986</v>
+        <v>4660.1852</v>
       </c>
       <c r="G193" t="n">
-        <v>157.0666666666667</v>
+        <v>157.1166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7181,10 @@
         <v>154</v>
       </c>
       <c r="F194" t="n">
-        <v>695.931</v>
+        <v>2983.1986</v>
       </c>
       <c r="G194" t="n">
-        <v>157.0333333333333</v>
+        <v>157.0666666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7197,13 +7213,13 @@
         <v>155</v>
       </c>
       <c r="E195" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F195" t="n">
-        <v>6619.6859</v>
+        <v>695.931</v>
       </c>
       <c r="G195" t="n">
-        <v>157</v>
+        <v>157.0333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7232,13 +7248,13 @@
         <v>155</v>
       </c>
       <c r="E196" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F196" t="n">
-        <v>583</v>
+        <v>6619.6859</v>
       </c>
       <c r="G196" t="n">
-        <v>156.95</v>
+        <v>157</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C197" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D197" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E197" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>583</v>
       </c>
       <c r="G197" t="n">
-        <v>156.9333333333333</v>
+        <v>156.95</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7309,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E198" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F198" t="n">
-        <v>115.3647</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>156.8666666666667</v>
+        <v>156.9333333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E199" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F199" t="n">
-        <v>19.1032</v>
+        <v>115.3647</v>
       </c>
       <c r="G199" t="n">
-        <v>156.85</v>
+        <v>156.8666666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7391,10 @@
         <v>155</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>19.1032</v>
       </c>
       <c r="G200" t="n">
-        <v>156.8333333333333</v>
+        <v>156.85</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7426,10 @@
         <v>155</v>
       </c>
       <c r="F201" t="n">
-        <v>12519.9999</v>
+        <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>156.8</v>
+        <v>156.8333333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,10 +7461,10 @@
         <v>155</v>
       </c>
       <c r="F202" t="n">
-        <v>15</v>
+        <v>12519.9999</v>
       </c>
       <c r="G202" t="n">
-        <v>156.7666666666667</v>
+        <v>156.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7474,16 +7490,16 @@
         <v>155</v>
       </c>
       <c r="D203" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E203" t="n">
         <v>155</v>
       </c>
       <c r="F203" t="n">
-        <v>478.7599</v>
+        <v>15</v>
       </c>
       <c r="G203" t="n">
-        <v>156.7333333333333</v>
+        <v>156.7666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7509,16 +7525,16 @@
         <v>155</v>
       </c>
       <c r="D204" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E204" t="n">
         <v>155</v>
       </c>
       <c r="F204" t="n">
-        <v>223.9753</v>
+        <v>478.7599</v>
       </c>
       <c r="G204" t="n">
-        <v>156.7</v>
+        <v>156.7333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7554,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E205" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F205" t="n">
-        <v>229</v>
+        <v>223.9753</v>
       </c>
       <c r="G205" t="n">
-        <v>156.6833333333333</v>
+        <v>156.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7576,19 +7592,19 @@
         <v>156</v>
       </c>
       <c r="C206" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D206" t="n">
         <v>156</v>
       </c>
       <c r="E206" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F206" t="n">
-        <v>1504.738</v>
+        <v>229</v>
       </c>
       <c r="G206" t="n">
-        <v>156.65</v>
+        <v>156.6833333333333</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7611,19 +7627,19 @@
         <v>156</v>
       </c>
       <c r="C207" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D207" t="n">
         <v>156</v>
       </c>
       <c r="E207" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F207" t="n">
-        <v>91.3978</v>
+        <v>1504.738</v>
       </c>
       <c r="G207" t="n">
-        <v>156.6333333333333</v>
+        <v>156.65</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7659,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C208" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D208" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E208" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F208" t="n">
-        <v>8554.9126</v>
+        <v>91.3978</v>
       </c>
       <c r="G208" t="n">
-        <v>156.55</v>
+        <v>156.6333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7681,19 +7697,19 @@
         <v>155</v>
       </c>
       <c r="C209" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D209" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E209" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F209" t="n">
-        <v>1206.769</v>
+        <v>8554.9126</v>
       </c>
       <c r="G209" t="n">
-        <v>156.5166666666667</v>
+        <v>156.55</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,19 +7732,19 @@
         <v>155</v>
       </c>
       <c r="C210" t="n">
+        <v>156</v>
+      </c>
+      <c r="D210" t="n">
+        <v>156</v>
+      </c>
+      <c r="E210" t="n">
         <v>155</v>
       </c>
-      <c r="D210" t="n">
-        <v>155</v>
-      </c>
-      <c r="E210" t="n">
-        <v>154</v>
-      </c>
       <c r="F210" t="n">
-        <v>1967</v>
+        <v>1206.769</v>
       </c>
       <c r="G210" t="n">
-        <v>156.45</v>
+        <v>156.5166666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7764,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C211" t="n">
         <v>155</v>
       </c>
       <c r="D211" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E211" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F211" t="n">
-        <v>1167.1662</v>
+        <v>1967</v>
       </c>
       <c r="G211" t="n">
-        <v>156.3833333333333</v>
+        <v>156.45</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7799,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>156</v>
+      </c>
+      <c r="C212" t="n">
         <v>155</v>
-      </c>
-      <c r="C212" t="n">
-        <v>156</v>
       </c>
       <c r="D212" t="n">
         <v>156</v>
       </c>
       <c r="E212" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F212" t="n">
-        <v>20677.9331</v>
+        <v>1167.1662</v>
       </c>
       <c r="G212" t="n">
-        <v>156.3666666666667</v>
+        <v>156.3833333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7827,13 +7843,13 @@
         <v>156</v>
       </c>
       <c r="E213" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F213" t="n">
-        <v>399</v>
+        <v>20677.9331</v>
       </c>
       <c r="G213" t="n">
-        <v>156.3333333333333</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7856,19 +7872,19 @@
         <v>155</v>
       </c>
       <c r="C214" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D214" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E214" t="n">
         <v>155</v>
       </c>
       <c r="F214" t="n">
-        <v>1729.3891</v>
+        <v>399</v>
       </c>
       <c r="G214" t="n">
-        <v>156.3</v>
+        <v>156.3333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7900,10 +7916,10 @@
         <v>155</v>
       </c>
       <c r="F215" t="n">
-        <v>797.4382000000001</v>
+        <v>1729.3891</v>
       </c>
       <c r="G215" t="n">
-        <v>156.25</v>
+        <v>156.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,7 +7939,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C216" t="n">
         <v>155</v>
@@ -7932,13 +7948,13 @@
         <v>155</v>
       </c>
       <c r="E216" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F216" t="n">
-        <v>19589.8697</v>
+        <v>797.4382000000001</v>
       </c>
       <c r="G216" t="n">
-        <v>156.2166666666667</v>
+        <v>156.25</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7967,13 +7983,13 @@
         <v>155</v>
       </c>
       <c r="E217" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F217" t="n">
-        <v>8872.5344</v>
+        <v>19589.8697</v>
       </c>
       <c r="G217" t="n">
-        <v>156.1833333333333</v>
+        <v>156.2166666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7996,19 +8012,19 @@
         <v>154</v>
       </c>
       <c r="C218" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D218" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E218" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F218" t="n">
-        <v>947.1328</v>
+        <v>8872.5344</v>
       </c>
       <c r="G218" t="n">
-        <v>156.1333333333333</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8056,10 @@
         <v>154</v>
       </c>
       <c r="F219" t="n">
-        <v>106.671</v>
+        <v>947.1328</v>
       </c>
       <c r="G219" t="n">
-        <v>156.0833333333333</v>
+        <v>156.1333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8079,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C220" t="n">
         <v>154</v>
       </c>
       <c r="D220" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E220" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F220" t="n">
-        <v>27265.504</v>
+        <v>106.671</v>
       </c>
       <c r="G220" t="n">
-        <v>156.0166666666667</v>
+        <v>156.0833333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8114,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C221" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D221" t="n">
         <v>155</v>
       </c>
       <c r="E221" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F221" t="n">
-        <v>1</v>
+        <v>27265.504</v>
       </c>
       <c r="G221" t="n">
-        <v>155.9666666666667</v>
+        <v>156.0166666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8149,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E222" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F222" t="n">
-        <v>1799.5389</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>155.9</v>
+        <v>155.9666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,7 +8184,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C223" t="n">
         <v>154</v>
@@ -8177,13 +8193,13 @@
         <v>154</v>
       </c>
       <c r="E223" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F223" t="n">
-        <v>1929.5543</v>
+        <v>1799.5389</v>
       </c>
       <c r="G223" t="n">
-        <v>155.8166666666667</v>
+        <v>155.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,10 +8219,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>153</v>
+      </c>
+      <c r="C224" t="n">
         <v>154</v>
-      </c>
-      <c r="C224" t="n">
-        <v>153</v>
       </c>
       <c r="D224" t="n">
         <v>154</v>
@@ -8215,10 +8231,10 @@
         <v>153</v>
       </c>
       <c r="F224" t="n">
-        <v>3151.0636</v>
+        <v>1929.5543</v>
       </c>
       <c r="G224" t="n">
-        <v>155.7333333333333</v>
+        <v>155.8166666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8266,10 @@
         <v>153</v>
       </c>
       <c r="F225" t="n">
-        <v>68.4622</v>
+        <v>3151.0636</v>
       </c>
       <c r="G225" t="n">
-        <v>155.65</v>
+        <v>155.7333333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8289,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C226" t="n">
         <v>153</v>
       </c>
       <c r="D226" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E226" t="n">
         <v>153</v>
       </c>
       <c r="F226" t="n">
-        <v>3065.6379</v>
+        <v>68.4622</v>
       </c>
       <c r="G226" t="n">
-        <v>155.5666666666667</v>
+        <v>155.65</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8336,10 @@
         <v>153</v>
       </c>
       <c r="F227" t="n">
-        <v>14665.8011</v>
+        <v>3065.6379</v>
       </c>
       <c r="G227" t="n">
-        <v>155.4833333333333</v>
+        <v>155.5666666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8359,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C228" t="n">
         <v>153</v>
       </c>
       <c r="D228" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E228" t="n">
         <v>153</v>
       </c>
       <c r="F228" t="n">
-        <v>2090.3137</v>
+        <v>14665.8011</v>
       </c>
       <c r="G228" t="n">
-        <v>155.4166666666667</v>
+        <v>155.4833333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8394,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C229" t="n">
         <v>153</v>
       </c>
       <c r="D229" t="n">
+        <v>154</v>
+      </c>
+      <c r="E229" t="n">
         <v>153</v>
       </c>
-      <c r="E229" t="n">
-        <v>148</v>
-      </c>
       <c r="F229" t="n">
-        <v>138132.011</v>
+        <v>2090.3137</v>
       </c>
       <c r="G229" t="n">
-        <v>155.3333333333333</v>
+        <v>155.4166666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,7 +8429,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C230" t="n">
         <v>153</v>
@@ -8422,13 +8438,13 @@
         <v>153</v>
       </c>
       <c r="E230" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F230" t="n">
-        <v>16117.5457</v>
+        <v>138132.011</v>
       </c>
       <c r="G230" t="n">
-        <v>155.2333333333333</v>
+        <v>155.3333333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8451,19 +8467,19 @@
         <v>152</v>
       </c>
       <c r="C231" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D231" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E231" t="n">
         <v>152</v>
       </c>
       <c r="F231" t="n">
-        <v>15123.208</v>
+        <v>16117.5457</v>
       </c>
       <c r="G231" t="n">
-        <v>155.1666666666667</v>
+        <v>155.2333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8499,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C232" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D232" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E232" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F232" t="n">
-        <v>439.8936</v>
+        <v>15123.208</v>
       </c>
       <c r="G232" t="n">
-        <v>155.05</v>
+        <v>155.1666666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8521,19 +8537,19 @@
         <v>153</v>
       </c>
       <c r="C233" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D233" t="n">
         <v>153</v>
       </c>
       <c r="E233" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F233" t="n">
-        <v>38.5947</v>
+        <v>439.8936</v>
       </c>
       <c r="G233" t="n">
-        <v>154.9666666666667</v>
+        <v>155.05</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8556,19 +8572,19 @@
         <v>153</v>
       </c>
       <c r="C234" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D234" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E234" t="n">
         <v>153</v>
       </c>
       <c r="F234" t="n">
-        <v>23820</v>
+        <v>38.5947</v>
       </c>
       <c r="G234" t="n">
-        <v>154.9</v>
+        <v>154.9666666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,7 +8604,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C235" t="n">
         <v>154</v>
@@ -8597,13 +8613,13 @@
         <v>154</v>
       </c>
       <c r="E235" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F235" t="n">
-        <v>328</v>
+        <v>23820</v>
       </c>
       <c r="G235" t="n">
-        <v>154.8166666666667</v>
+        <v>154.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,7 +8639,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C236" t="n">
         <v>154</v>
@@ -8632,13 +8648,13 @@
         <v>154</v>
       </c>
       <c r="E236" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F236" t="n">
-        <v>3750.242533766234</v>
+        <v>328</v>
       </c>
       <c r="G236" t="n">
-        <v>154.75</v>
+        <v>154.8166666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8667,13 +8683,13 @@
         <v>154</v>
       </c>
       <c r="E237" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F237" t="n">
-        <v>130.211</v>
+        <v>3750.242533766234</v>
       </c>
       <c r="G237" t="n">
-        <v>154.6833333333333</v>
+        <v>154.75</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,7 +8709,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C238" t="n">
         <v>154</v>
@@ -8702,13 +8718,13 @@
         <v>154</v>
       </c>
       <c r="E238" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F238" t="n">
-        <v>100</v>
+        <v>130.211</v>
       </c>
       <c r="G238" t="n">
-        <v>154.6166666666667</v>
+        <v>154.6833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8744,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C239" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D239" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E239" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F239" t="n">
-        <v>18972.5467</v>
+        <v>100</v>
       </c>
       <c r="G239" t="n">
-        <v>154.5666666666667</v>
+        <v>154.6166666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8779,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>152</v>
+      </c>
+      <c r="C240" t="n">
         <v>153</v>
       </c>
-      <c r="C240" t="n">
-        <v>154</v>
-      </c>
       <c r="D240" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E240" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F240" t="n">
-        <v>3136.6544</v>
+        <v>18972.5467</v>
       </c>
       <c r="G240" t="n">
-        <v>154.5166666666667</v>
+        <v>154.5666666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8814,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C241" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D241" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E241" t="n">
         <v>152</v>
       </c>
       <c r="F241" t="n">
-        <v>2927.7154</v>
+        <v>3136.6544</v>
       </c>
       <c r="G241" t="n">
-        <v>154.45</v>
+        <v>154.5166666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8845,10 +8861,10 @@
         <v>152</v>
       </c>
       <c r="F242" t="n">
-        <v>204.0257</v>
+        <v>2927.7154</v>
       </c>
       <c r="G242" t="n">
-        <v>154.3833333333333</v>
+        <v>154.45</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8880,10 +8896,10 @@
         <v>152</v>
       </c>
       <c r="F243" t="n">
-        <v>2631.5789</v>
+        <v>204.0257</v>
       </c>
       <c r="G243" t="n">
-        <v>154.3166666666667</v>
+        <v>154.3833333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,7 +8919,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C244" t="n">
         <v>152</v>
@@ -8912,13 +8928,13 @@
         <v>152</v>
       </c>
       <c r="E244" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F244" t="n">
-        <v>10657.1052</v>
+        <v>2631.5789</v>
       </c>
       <c r="G244" t="n">
-        <v>154.2666666666667</v>
+        <v>154.3166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,7 +8954,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C245" t="n">
         <v>152</v>
@@ -8947,13 +8963,13 @@
         <v>152</v>
       </c>
       <c r="E245" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F245" t="n">
-        <v>500</v>
+        <v>10657.1052</v>
       </c>
       <c r="G245" t="n">
-        <v>154.2166666666667</v>
+        <v>154.2666666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8982,13 +8998,13 @@
         <v>152</v>
       </c>
       <c r="E246" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F246" t="n">
-        <v>5173.2843</v>
+        <v>500</v>
       </c>
       <c r="G246" t="n">
-        <v>154.1666666666667</v>
+        <v>154.2166666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9014,16 +9030,16 @@
         <v>152</v>
       </c>
       <c r="D247" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E247" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F247" t="n">
-        <v>2272.5668</v>
+        <v>5173.2843</v>
       </c>
       <c r="G247" t="n">
-        <v>154.1333333333333</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9049,16 +9065,16 @@
         <v>152</v>
       </c>
       <c r="D248" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E248" t="n">
         <v>152</v>
       </c>
       <c r="F248" t="n">
-        <v>500</v>
+        <v>2272.5668</v>
       </c>
       <c r="G248" t="n">
-        <v>154.1</v>
+        <v>154.1333333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9090,10 +9106,10 @@
         <v>152</v>
       </c>
       <c r="F249" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G249" t="n">
-        <v>154.0666666666667</v>
+        <v>154.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,7 +9129,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C250" t="n">
         <v>152</v>
@@ -9122,13 +9138,13 @@
         <v>152</v>
       </c>
       <c r="E250" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F250" t="n">
-        <v>7314.5503</v>
+        <v>250</v>
       </c>
       <c r="G250" t="n">
-        <v>154.0166666666667</v>
+        <v>154.0666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9151,19 +9167,19 @@
         <v>151</v>
       </c>
       <c r="C251" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D251" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E251" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F251" t="n">
-        <v>3249.9999</v>
+        <v>7314.5503</v>
       </c>
       <c r="G251" t="n">
-        <v>153.9333333333333</v>
+        <v>154.0166666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9186,19 +9202,19 @@
         <v>151</v>
       </c>
       <c r="C252" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D252" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E252" t="n">
         <v>151</v>
       </c>
       <c r="F252" t="n">
-        <v>6508.3679</v>
+        <v>3249.9999</v>
       </c>
       <c r="G252" t="n">
-        <v>153.9</v>
+        <v>153.9333333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9234,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C253" t="n">
+        <v>152</v>
+      </c>
+      <c r="D253" t="n">
+        <v>152</v>
+      </c>
+      <c r="E253" t="n">
         <v>151</v>
       </c>
-      <c r="D253" t="n">
-        <v>151</v>
-      </c>
-      <c r="E253" t="n">
-        <v>149</v>
-      </c>
       <c r="F253" t="n">
-        <v>62.3535</v>
+        <v>6508.3679</v>
       </c>
       <c r="G253" t="n">
-        <v>153.8333333333333</v>
+        <v>153.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,7 +9269,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C254" t="n">
         <v>151</v>
@@ -9262,13 +9278,13 @@
         <v>151</v>
       </c>
       <c r="E254" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F254" t="n">
-        <v>9.225099999999999</v>
+        <v>62.3535</v>
       </c>
       <c r="G254" t="n">
-        <v>153.7666666666667</v>
+        <v>153.8333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,7 +9304,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C255" t="n">
         <v>151</v>
@@ -9297,13 +9313,13 @@
         <v>151</v>
       </c>
       <c r="E255" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F255" t="n">
-        <v>2032.8978</v>
+        <v>9.225099999999999</v>
       </c>
       <c r="G255" t="n">
-        <v>153.7</v>
+        <v>153.7666666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9326,19 +9342,19 @@
         <v>150</v>
       </c>
       <c r="C256" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D256" t="n">
         <v>151</v>
       </c>
       <c r="E256" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F256" t="n">
-        <v>9949.816999999999</v>
+        <v>2032.8978</v>
       </c>
       <c r="G256" t="n">
-        <v>153.6166666666667</v>
+        <v>153.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9361,19 +9377,19 @@
         <v>150</v>
       </c>
       <c r="C257" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D257" t="n">
         <v>151</v>
       </c>
       <c r="E257" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F257" t="n">
-        <v>714.2446</v>
+        <v>9949.816999999999</v>
       </c>
       <c r="G257" t="n">
-        <v>153.5333333333333</v>
+        <v>153.6166666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9396,19 +9412,19 @@
         <v>150</v>
       </c>
       <c r="C258" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D258" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E258" t="n">
         <v>150</v>
       </c>
       <c r="F258" t="n">
-        <v>2520</v>
+        <v>714.2446</v>
       </c>
       <c r="G258" t="n">
-        <v>153.4666666666667</v>
+        <v>153.5333333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9440,10 +9456,10 @@
         <v>150</v>
       </c>
       <c r="F259" t="n">
-        <v>1032.1595</v>
+        <v>2520</v>
       </c>
       <c r="G259" t="n">
-        <v>153.3833333333333</v>
+        <v>153.4666666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,35 +9479,31 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E260" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>1032.1595</v>
       </c>
       <c r="G260" t="n">
-        <v>153.3166666666667</v>
+        <v>153.3833333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>150</v>
-      </c>
-      <c r="K260" t="n">
-        <v>150</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
@@ -9502,40 +9514,32 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C261" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D261" t="n">
         <v>151</v>
       </c>
       <c r="E261" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F261" t="n">
-        <v>2141.2983</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
-        <v>153.2333333333333</v>
+        <v>153.3166666666667</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>151</v>
-      </c>
-      <c r="K261" t="n">
-        <v>150</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9545,40 +9549,32 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C262" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D262" t="n">
         <v>151</v>
       </c>
       <c r="E262" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F262" t="n">
-        <v>1360</v>
+        <v>2141.2983</v>
       </c>
       <c r="G262" t="n">
-        <v>153.1666666666667</v>
+        <v>153.2333333333333</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>150</v>
-      </c>
-      <c r="K262" t="n">
-        <v>150</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9600,28 +9596,20 @@
         <v>151</v>
       </c>
       <c r="F263" t="n">
-        <v>760</v>
+        <v>1360</v>
       </c>
       <c r="G263" t="n">
-        <v>153.1</v>
+        <v>153.1666666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>151</v>
-      </c>
-      <c r="K263" t="n">
-        <v>150</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9643,28 +9631,20 @@
         <v>151</v>
       </c>
       <c r="F264" t="n">
-        <v>255.1876</v>
+        <v>760</v>
       </c>
       <c r="G264" t="n">
-        <v>153.0333333333333</v>
+        <v>153.1</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>151</v>
-      </c>
-      <c r="K264" t="n">
-        <v>150</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9686,28 +9666,20 @@
         <v>151</v>
       </c>
       <c r="F265" t="n">
-        <v>1216.207</v>
+        <v>255.1876</v>
       </c>
       <c r="G265" t="n">
-        <v>152.95</v>
+        <v>153.0333333333333</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>151</v>
-      </c>
-      <c r="K265" t="n">
-        <v>150</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9729,28 +9701,20 @@
         <v>151</v>
       </c>
       <c r="F266" t="n">
-        <v>6028.5757</v>
+        <v>1216.207</v>
       </c>
       <c r="G266" t="n">
-        <v>152.8833333333333</v>
+        <v>152.95</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>151</v>
-      </c>
-      <c r="K266" t="n">
-        <v>150</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9763,37 +9727,29 @@
         <v>151</v>
       </c>
       <c r="C267" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D267" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E267" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F267" t="n">
-        <v>16365.3492</v>
+        <v>6028.5757</v>
       </c>
       <c r="G267" t="n">
-        <v>152.8166666666667</v>
+        <v>152.8833333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>151</v>
-      </c>
-      <c r="K267" t="n">
-        <v>150</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9803,40 +9759,32 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C268" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D268" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E268" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F268" t="n">
-        <v>86.92319999999999</v>
+        <v>16365.3492</v>
       </c>
       <c r="G268" t="n">
-        <v>152.7666666666667</v>
+        <v>152.8166666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>152</v>
-      </c>
-      <c r="K268" t="n">
-        <v>150</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9846,40 +9794,32 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C269" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D269" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E269" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F269" t="n">
-        <v>86</v>
+        <v>86.92319999999999</v>
       </c>
       <c r="G269" t="n">
-        <v>152.7</v>
+        <v>152.7666666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>151</v>
-      </c>
-      <c r="K269" t="n">
-        <v>150</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9889,22 +9829,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E270" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="G270" t="n">
-        <v>152.6333333333333</v>
+        <v>152.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9913,14 +9853,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>150</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9930,22 +9864,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E271" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F271" t="n">
-        <v>2.6732</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>152.6</v>
+        <v>152.6333333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9954,14 +9888,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>150</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9983,10 +9911,10 @@
         <v>153</v>
       </c>
       <c r="F272" t="n">
-        <v>2614.379</v>
+        <v>2.6732</v>
       </c>
       <c r="G272" t="n">
-        <v>152.55</v>
+        <v>152.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9995,14 +9923,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>150</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10018,16 +9940,16 @@
         <v>153</v>
       </c>
       <c r="D273" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E273" t="n">
         <v>153</v>
       </c>
       <c r="F273" t="n">
-        <v>1060.551472727273</v>
+        <v>2614.379</v>
       </c>
       <c r="G273" t="n">
-        <v>152.5</v>
+        <v>152.55</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10036,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>150</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10059,16 +9975,16 @@
         <v>153</v>
       </c>
       <c r="D274" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E274" t="n">
         <v>153</v>
       </c>
       <c r="F274" t="n">
-        <v>4937.1697</v>
+        <v>1060.551472727273</v>
       </c>
       <c r="G274" t="n">
-        <v>152.4666666666667</v>
+        <v>152.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10077,14 +9993,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>150</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10094,19 +10004,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C275" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D275" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E275" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F275" t="n">
-        <v>14032.7314</v>
+        <v>4937.1697</v>
       </c>
       <c r="G275" t="n">
         <v>152.4666666666667</v>
@@ -10118,14 +10028,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>150</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10147,7 +10051,7 @@
         <v>154</v>
       </c>
       <c r="F276" t="n">
-        <v>18195.991</v>
+        <v>14032.7314</v>
       </c>
       <c r="G276" t="n">
         <v>152.4666666666667</v>
@@ -10159,14 +10063,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>150</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10176,7 +10074,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C277" t="n">
         <v>155</v>
@@ -10185,10 +10083,10 @@
         <v>155</v>
       </c>
       <c r="E277" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F277" t="n">
-        <v>9320</v>
+        <v>18195.991</v>
       </c>
       <c r="G277" t="n">
         <v>152.4666666666667</v>
@@ -10200,14 +10098,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>150</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10229,10 +10121,10 @@
         <v>155</v>
       </c>
       <c r="F278" t="n">
-        <v>1580</v>
+        <v>9320</v>
       </c>
       <c r="G278" t="n">
-        <v>152.4833333333333</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10241,14 +10133,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>150</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10270,10 +10156,10 @@
         <v>155</v>
       </c>
       <c r="F279" t="n">
-        <v>2360</v>
+        <v>1580</v>
       </c>
       <c r="G279" t="n">
-        <v>152.5</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10282,14 +10168,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>150</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10311,10 +10191,10 @@
         <v>155</v>
       </c>
       <c r="F280" t="n">
-        <v>1871.2214</v>
+        <v>2360</v>
       </c>
       <c r="G280" t="n">
-        <v>152.5166666666667</v>
+        <v>152.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10323,14 +10203,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>150</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10340,22 +10214,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E281" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F281" t="n">
-        <v>1862.9204</v>
+        <v>1871.2214</v>
       </c>
       <c r="G281" t="n">
-        <v>152.4833333333333</v>
+        <v>152.5166666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10364,14 +10238,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>150</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10393,10 +10261,10 @@
         <v>153</v>
       </c>
       <c r="F282" t="n">
-        <v>4094.8166</v>
+        <v>1862.9204</v>
       </c>
       <c r="G282" t="n">
-        <v>152.4666666666667</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10405,14 +10273,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>150</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10434,10 +10296,10 @@
         <v>153</v>
       </c>
       <c r="F283" t="n">
-        <v>1373.4443</v>
+        <v>4094.8166</v>
       </c>
       <c r="G283" t="n">
-        <v>152.45</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10446,14 +10308,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>150</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10475,7 +10331,7 @@
         <v>153</v>
       </c>
       <c r="F284" t="n">
-        <v>5702.8348</v>
+        <v>1373.4443</v>
       </c>
       <c r="G284" t="n">
         <v>152.45</v>
@@ -10487,14 +10343,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>150</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10516,7 +10366,7 @@
         <v>153</v>
       </c>
       <c r="F285" t="n">
-        <v>599.8039</v>
+        <v>5702.8348</v>
       </c>
       <c r="G285" t="n">
         <v>152.45</v>
@@ -10528,14 +10378,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>150</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10557,7 +10401,7 @@
         <v>153</v>
       </c>
       <c r="F286" t="n">
-        <v>1824.101</v>
+        <v>599.8039</v>
       </c>
       <c r="G286" t="n">
         <v>152.45</v>
@@ -10569,14 +10413,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>150</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10586,22 +10424,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E287" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F287" t="n">
-        <v>1</v>
+        <v>1824.101</v>
       </c>
       <c r="G287" t="n">
-        <v>152.4666666666667</v>
+        <v>152.45</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10610,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>150</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10639,10 +10471,10 @@
         <v>154</v>
       </c>
       <c r="F288" t="n">
-        <v>3152.3051</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
-        <v>152.4833333333333</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10651,14 +10483,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>150</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10680,10 +10506,10 @@
         <v>154</v>
       </c>
       <c r="F289" t="n">
-        <v>400</v>
+        <v>3152.3051</v>
       </c>
       <c r="G289" t="n">
-        <v>152.5</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10692,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>150</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10709,22 +10529,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E290" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F290" t="n">
-        <v>10405.1961</v>
+        <v>400</v>
       </c>
       <c r="G290" t="n">
-        <v>152.4833333333333</v>
+        <v>152.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10733,14 +10553,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>150</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10762,10 +10576,10 @@
         <v>152</v>
       </c>
       <c r="F291" t="n">
-        <v>6010.1365</v>
+        <v>10405.1961</v>
       </c>
       <c r="G291" t="n">
-        <v>152.45</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10774,14 +10588,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>150</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10794,19 +10602,19 @@
         <v>152</v>
       </c>
       <c r="C292" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D292" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E292" t="n">
         <v>152</v>
       </c>
       <c r="F292" t="n">
-        <v>2004.3789</v>
+        <v>6010.1365</v>
       </c>
       <c r="G292" t="n">
-        <v>152.4833333333333</v>
+        <v>152.45</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10815,14 +10623,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>150</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10835,19 +10637,19 @@
         <v>152</v>
       </c>
       <c r="C293" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D293" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E293" t="n">
         <v>152</v>
       </c>
       <c r="F293" t="n">
-        <v>110.3731</v>
+        <v>2004.3789</v>
       </c>
       <c r="G293" t="n">
-        <v>152.4666666666667</v>
+        <v>152.4833333333333</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10856,14 +10658,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>150</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10873,22 +10669,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C294" t="n">
         <v>152</v>
       </c>
       <c r="D294" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E294" t="n">
         <v>152</v>
       </c>
       <c r="F294" t="n">
-        <v>3144.4243</v>
+        <v>110.3731</v>
       </c>
       <c r="G294" t="n">
-        <v>152.4333333333333</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10897,14 +10693,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>150</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10914,19 +10704,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C295" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D295" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E295" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F295" t="n">
-        <v>1</v>
+        <v>3144.4243</v>
       </c>
       <c r="G295" t="n">
         <v>152.4333333333333</v>
@@ -10938,14 +10728,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>150</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10955,22 +10739,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C296" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D296" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E296" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F296" t="n">
-        <v>502.4959</v>
+        <v>1</v>
       </c>
       <c r="G296" t="n">
-        <v>152.4166666666667</v>
+        <v>152.4333333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10979,14 +10763,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>150</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10996,22 +10774,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C297" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D297" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E297" t="n">
         <v>152</v>
       </c>
       <c r="F297" t="n">
-        <v>1294.3672</v>
+        <v>502.4959</v>
       </c>
       <c r="G297" t="n">
-        <v>152.3833333333333</v>
+        <v>152.4166666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11020,14 +10798,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>150</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11049,10 +10821,10 @@
         <v>152</v>
       </c>
       <c r="F298" t="n">
-        <v>12492.3682</v>
+        <v>1294.3672</v>
       </c>
       <c r="G298" t="n">
-        <v>152.35</v>
+        <v>152.3833333333333</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11061,14 +10833,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>150</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11078,22 +10844,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E299" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F299" t="n">
-        <v>6144.177</v>
+        <v>12492.3682</v>
       </c>
       <c r="G299" t="n">
-        <v>152.3166666666667</v>
+        <v>152.35</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11102,14 +10868,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>150</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11131,10 +10891,10 @@
         <v>151</v>
       </c>
       <c r="F300" t="n">
-        <v>1115.2179</v>
+        <v>6144.177</v>
       </c>
       <c r="G300" t="n">
-        <v>152.2666666666667</v>
+        <v>152.3166666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11143,14 +10903,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>150</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11160,19 +10914,19 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E301" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F301" t="n">
-        <v>114.6593</v>
+        <v>1115.2179</v>
       </c>
       <c r="G301" t="n">
         <v>152.2666666666667</v>
@@ -11184,14 +10938,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>150</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +10961,7 @@
         <v>152</v>
       </c>
       <c r="F302" t="n">
-        <v>340</v>
+        <v>114.6593</v>
       </c>
       <c r="G302" t="n">
         <v>152.2666666666667</v>
@@ -11225,14 +10973,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>150</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11242,22 +10984,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E303" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F303" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="G303" t="n">
-        <v>152.25</v>
+        <v>152.2666666666667</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11266,14 +11008,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>150</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11283,19 +11019,19 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E304" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F304" t="n">
-        <v>759.381</v>
+        <v>400</v>
       </c>
       <c r="G304" t="n">
         <v>152.25</v>
@@ -11307,14 +11043,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>150</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11324,22 +11054,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E305" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F305" t="n">
-        <v>335.7058</v>
+        <v>759.381</v>
       </c>
       <c r="G305" t="n">
-        <v>152.2333333333333</v>
+        <v>152.25</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11348,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>150</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11365,19 +11089,19 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E306" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F306" t="n">
-        <v>9639.4802</v>
+        <v>335.7058</v>
       </c>
       <c r="G306" t="n">
         <v>152.2333333333333</v>
@@ -11389,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>150</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11418,7 +11136,7 @@
         <v>152</v>
       </c>
       <c r="F307" t="n">
-        <v>215.8725</v>
+        <v>9639.4802</v>
       </c>
       <c r="G307" t="n">
         <v>152.2333333333333</v>
@@ -11430,14 +11148,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>150</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11459,7 +11171,7 @@
         <v>152</v>
       </c>
       <c r="F308" t="n">
-        <v>4696.412</v>
+        <v>215.8725</v>
       </c>
       <c r="G308" t="n">
         <v>152.2333333333333</v>
@@ -11471,14 +11183,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>150</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11500,7 +11206,7 @@
         <v>152</v>
       </c>
       <c r="F309" t="n">
-        <v>500</v>
+        <v>4696.412</v>
       </c>
       <c r="G309" t="n">
         <v>152.2333333333333</v>
@@ -11512,14 +11218,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>150</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11541,7 +11241,7 @@
         <v>152</v>
       </c>
       <c r="F310" t="n">
-        <v>673.0657</v>
+        <v>500</v>
       </c>
       <c r="G310" t="n">
         <v>152.2333333333333</v>
@@ -11553,14 +11253,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>150</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11570,19 +11264,19 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E311" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F311" t="n">
-        <v>4384.2993</v>
+        <v>673.0657</v>
       </c>
       <c r="G311" t="n">
         <v>152.2333333333333</v>
@@ -11594,14 +11288,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>150</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11611,19 +11299,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C312" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D312" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E312" t="n">
         <v>151</v>
       </c>
       <c r="F312" t="n">
-        <v>8609.6646</v>
+        <v>4384.2993</v>
       </c>
       <c r="G312" t="n">
         <v>152.2333333333333</v>
@@ -11635,14 +11323,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>150</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11664,10 +11346,10 @@
         <v>151</v>
       </c>
       <c r="F313" t="n">
-        <v>32399.7724</v>
+        <v>8609.6646</v>
       </c>
       <c r="G313" t="n">
-        <v>152.25</v>
+        <v>152.2333333333333</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11676,14 +11358,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>150</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11702,30 +11378,59 @@
         <v>152</v>
       </c>
       <c r="E314" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F314" t="n">
+        <v>32399.7724</v>
+      </c>
+      <c r="G314" t="n">
+        <v>152.25</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>152</v>
+      </c>
+      <c r="C315" t="n">
+        <v>152</v>
+      </c>
+      <c r="D315" t="n">
+        <v>152</v>
+      </c>
+      <c r="E315" t="n">
+        <v>152</v>
+      </c>
+      <c r="F315" t="n">
         <v>2675.7466</v>
       </c>
-      <c r="G314" t="n">
+      <c r="G315" t="n">
         <v>152.2666666666667</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>150</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-06 BackTest ITC.xlsx
+++ b/BackTest/2019-10-06 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M315"/>
+  <dimension ref="A1:N325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>32.9782</v>
       </c>
       <c r="G2" t="n">
+        <v>147.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>146.4833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,25 @@
         <v>8060</v>
       </c>
       <c r="G3" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>146.55</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>147</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
+        <v>147</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,24 +533,29 @@
         <v>154.144</v>
       </c>
       <c r="G4" t="n">
+        <v>147.7333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>146.5833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="n">
+        <v>149</v>
+      </c>
+      <c r="L4" t="n">
         <v>147</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,24 +579,29 @@
         <v>500</v>
       </c>
       <c r="G5" t="n">
+        <v>147.6666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>146.6166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
         <v>147</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>147</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,18 +625,25 @@
         <v>159.5652</v>
       </c>
       <c r="G6" t="n">
+        <v>147.6666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>146.6666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>147</v>
+      </c>
+      <c r="L6" t="n">
+        <v>147</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,18 +667,29 @@
         <v>179.3102</v>
       </c>
       <c r="G7" t="n">
+        <v>147.6666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>146.7166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>148</v>
+      </c>
+      <c r="L7" t="n">
+        <v>147</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,18 +713,29 @@
         <v>4344.2616</v>
       </c>
       <c r="G8" t="n">
+        <v>147.7333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>146.7833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>148</v>
+      </c>
+      <c r="L8" t="n">
+        <v>147</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -709,18 +759,25 @@
         <v>6781.0671</v>
       </c>
       <c r="G9" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="H9" t="n">
         <v>146.85</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>149</v>
+      </c>
+      <c r="L9" t="n">
+        <v>149</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,18 +801,29 @@
         <v>5862.7516</v>
       </c>
       <c r="G10" t="n">
+        <v>147.9333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>146.9166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>149</v>
+      </c>
+      <c r="L10" t="n">
+        <v>149</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -779,18 +847,29 @@
         <v>768</v>
       </c>
       <c r="G11" t="n">
+        <v>148</v>
+      </c>
+      <c r="H11" t="n">
         <v>146.9833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>149</v>
+      </c>
+      <c r="L11" t="n">
+        <v>149</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -814,18 +893,29 @@
         <v>61337.5666</v>
       </c>
       <c r="G12" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>147.0666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>149</v>
+      </c>
+      <c r="L12" t="n">
+        <v>149</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -849,18 +939,29 @@
         <v>1989.2024</v>
       </c>
       <c r="G13" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>147.15</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>150</v>
+      </c>
+      <c r="L13" t="n">
+        <v>149</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,18 +985,29 @@
         <v>118704.751256962</v>
       </c>
       <c r="G14" t="n">
+        <v>149.0666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>147.3666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>150</v>
+      </c>
+      <c r="L14" t="n">
+        <v>149</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,18 +1031,27 @@
         <v>165485.1473</v>
       </c>
       <c r="G15" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="H15" t="n">
         <v>147.55</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>149</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1075,27 @@
         <v>4413.52579</v>
       </c>
       <c r="G16" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="H16" t="n">
         <v>147.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>149</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1119,27 @@
         <v>12894.09035</v>
       </c>
       <c r="G17" t="n">
+        <v>151.0666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>148</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>149</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1163,27 @@
         <v>36486.1084</v>
       </c>
       <c r="G18" t="n">
+        <v>151.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>148.2333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>149</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1207,27 @@
         <v>22512.21616</v>
       </c>
       <c r="G19" t="n">
+        <v>152.5333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>148.45</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>149</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1251,27 @@
         <v>73739.35563999999</v>
       </c>
       <c r="G20" t="n">
+        <v>153.2666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>148.6666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>149</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1295,27 @@
         <v>111660.8427</v>
       </c>
       <c r="G21" t="n">
+        <v>154.3333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>148.9666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>149</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1339,27 @@
         <v>58335.2976</v>
       </c>
       <c r="G22" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>149.25</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>149</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1383,27 @@
         <v>16316.6798</v>
       </c>
       <c r="G23" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H23" t="n">
         <v>149.5333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>149</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1427,27 @@
         <v>58609.2632</v>
       </c>
       <c r="G24" t="n">
+        <v>157.0666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>149.8166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>149</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1471,27 @@
         <v>73847.40201616297</v>
       </c>
       <c r="G25" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>150.15</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>149</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1515,27 @@
         <v>64570.7158</v>
       </c>
       <c r="G26" t="n">
+        <v>159.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>150.4833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>149</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1559,27 @@
         <v>40715.9715</v>
       </c>
       <c r="G27" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="H27" t="n">
         <v>150.8166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>149</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1603,27 @@
         <v>12697.7638</v>
       </c>
       <c r="G28" t="n">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>151.1166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>149</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1647,27 @@
         <v>96647.4344</v>
       </c>
       <c r="G29" t="n">
+        <v>161.7333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>151.4</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>149</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1691,27 @@
         <v>28080.0765</v>
       </c>
       <c r="G30" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>151.7166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>149</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1735,27 @@
         <v>3124.7447</v>
       </c>
       <c r="G31" t="n">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>152.0166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>149</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1779,27 @@
         <v>69465.1658</v>
       </c>
       <c r="G32" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>152.3333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>149</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1823,27 @@
         <v>27716.3467</v>
       </c>
       <c r="G33" t="n">
+        <v>163.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>152.6166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>149</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1867,27 @@
         <v>8007.5858</v>
       </c>
       <c r="G34" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>152.9166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>149</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,19 +1911,28 @@
         <v>38438.0612</v>
       </c>
       <c r="G35" t="n">
+        <v>164.2666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>153.2166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
+      <c r="L35" t="n">
+        <v>149</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1.102382550335571</v>
       </c>
     </row>
     <row r="36">
@@ -1654,18 +1955,21 @@
         <v>43605.5648</v>
       </c>
       <c r="G36" t="n">
+        <v>164.3333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>153.5166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1993,21 @@
         <v>41872.3737</v>
       </c>
       <c r="G37" t="n">
+        <v>164.5333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>153.8166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +2031,21 @@
         <v>11682.7891</v>
       </c>
       <c r="G38" t="n">
+        <v>164.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>154.1</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +2069,21 @@
         <v>17603.2697060241</v>
       </c>
       <c r="G39" t="n">
+        <v>164.6666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>154.4</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +2107,21 @@
         <v>31745.5434</v>
       </c>
       <c r="G40" t="n">
+        <v>164.4666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>154.65</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2145,21 @@
         <v>9369.7084</v>
       </c>
       <c r="G41" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>154.8666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2183,21 @@
         <v>19917.2393</v>
       </c>
       <c r="G42" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="H42" t="n">
         <v>155.0666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2221,21 @@
         <v>3584.4223</v>
       </c>
       <c r="G43" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>155.3</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2259,21 @@
         <v>2263.4927</v>
       </c>
       <c r="G44" t="n">
+        <v>163.5333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>155.5333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2297,21 @@
         <v>802.0918</v>
       </c>
       <c r="G45" t="n">
+        <v>163.2666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>155.7666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2335,21 @@
         <v>8250.873100000001</v>
       </c>
       <c r="G46" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H46" t="n">
         <v>156.0166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2373,21 @@
         <v>1384.0071</v>
       </c>
       <c r="G47" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>156.2666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2411,21 @@
         <v>815.6361000000001</v>
       </c>
       <c r="G48" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>156.5166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2449,21 @@
         <v>12953.8134</v>
       </c>
       <c r="G49" t="n">
+        <v>163</v>
+      </c>
+      <c r="H49" t="n">
         <v>156.7666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2487,21 @@
         <v>1459.255658181818</v>
       </c>
       <c r="G50" t="n">
+        <v>163</v>
+      </c>
+      <c r="H50" t="n">
         <v>157.05</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2525,21 @@
         <v>4817.6931</v>
       </c>
       <c r="G51" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>157.3</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2563,21 @@
         <v>3969.5966</v>
       </c>
       <c r="G52" t="n">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>157.55</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2601,21 @@
         <v>6784.8785</v>
       </c>
       <c r="G53" t="n">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>157.7833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2639,21 @@
         <v>671.4115</v>
       </c>
       <c r="G54" t="n">
-        <v>158</v>
+        <v>162.4666666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2677,21 @@
         <v>64361.5466</v>
       </c>
       <c r="G55" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>158.2666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2715,21 @@
         <v>33683.3406</v>
       </c>
       <c r="G56" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>158.4833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2753,21 @@
         <v>506.7407</v>
       </c>
       <c r="G57" t="n">
+        <v>162.5333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>158.7333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2791,21 @@
         <v>971.259</v>
       </c>
       <c r="G58" t="n">
+        <v>162.5333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>158.9833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2829,21 @@
         <v>374.1508</v>
       </c>
       <c r="G59" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>159.2</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2867,21 @@
         <v>14.8643</v>
       </c>
       <c r="G60" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H60" t="n">
         <v>159.4166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2905,21 @@
         <v>65428.9289</v>
       </c>
       <c r="G61" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H61" t="n">
         <v>159.6666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2943,21 @@
         <v>4054.6144</v>
       </c>
       <c r="G62" t="n">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>159.9166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2981,21 @@
         <v>308.756</v>
       </c>
       <c r="G63" t="n">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>160.15</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3019,21 @@
         <v>1682.9425</v>
       </c>
       <c r="G64" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>160.4</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3057,21 @@
         <v>125</v>
       </c>
       <c r="G65" t="n">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>160.65</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3095,21 @@
         <v>4176.5408</v>
       </c>
       <c r="G66" t="n">
+        <v>162</v>
+      </c>
+      <c r="H66" t="n">
         <v>160.8833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3133,21 @@
         <v>11585.8263</v>
       </c>
       <c r="G67" t="n">
+        <v>161.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>161.1166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3171,21 @@
         <v>9658.895317682927</v>
       </c>
       <c r="G68" t="n">
+        <v>161.8666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>161.3166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3209,21 @@
         <v>12.85276073619632</v>
       </c>
       <c r="G69" t="n">
+        <v>162</v>
+      </c>
+      <c r="H69" t="n">
         <v>161.55</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3247,21 @@
         <v>53984.6143</v>
       </c>
       <c r="G70" t="n">
+        <v>161.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>161.7666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3285,21 @@
         <v>2492.2074</v>
       </c>
       <c r="G71" t="n">
+        <v>162</v>
+      </c>
+      <c r="H71" t="n">
         <v>161.9833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3323,21 @@
         <v>8405.013000000001</v>
       </c>
       <c r="G72" t="n">
+        <v>162</v>
+      </c>
+      <c r="H72" t="n">
         <v>162.1833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3361,21 @@
         <v>6105.7745</v>
       </c>
       <c r="G73" t="n">
+        <v>162</v>
+      </c>
+      <c r="H73" t="n">
         <v>162.3833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3399,21 @@
         <v>1651.4457</v>
       </c>
       <c r="G74" t="n">
+        <v>162</v>
+      </c>
+      <c r="H74" t="n">
         <v>162.4333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3437,21 @@
         <v>236.638</v>
       </c>
       <c r="G75" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>162.55</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3475,21 @@
         <v>125</v>
       </c>
       <c r="G76" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>162.6</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3513,21 @@
         <v>16.5214</v>
       </c>
       <c r="G77" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>162.7</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3551,21 @@
         <v>17682.4269</v>
       </c>
       <c r="G78" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>162.7666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3589,21 @@
         <v>8219.4763</v>
       </c>
       <c r="G79" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>162.8333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3627,21 @@
         <v>84.10769999999999</v>
       </c>
       <c r="G80" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>162.8833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3665,21 @@
         <v>14646.4567</v>
       </c>
       <c r="G81" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="H81" t="n">
         <v>162.85</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3703,21 @@
         <v>9987.75</v>
       </c>
       <c r="G82" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>162.8333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3741,21 @@
         <v>1150.3602</v>
       </c>
       <c r="G83" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>162.8</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3779,21 @@
         <v>275</v>
       </c>
       <c r="G84" t="n">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>162.8</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3817,21 @@
         <v>9942.953299999999</v>
       </c>
       <c r="G85" t="n">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>162.7333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3855,21 @@
         <v>3802.6044</v>
       </c>
       <c r="G86" t="n">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>162.6666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3893,21 @@
         <v>139.8388</v>
       </c>
       <c r="G87" t="n">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>162.6</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3931,21 @@
         <v>4173.1189</v>
       </c>
       <c r="G88" t="n">
+        <v>162.0666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>162.5666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3969,21 @@
         <v>4288.6694</v>
       </c>
       <c r="G89" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>162.5333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4007,21 @@
         <v>6400</v>
       </c>
       <c r="G90" t="n">
+        <v>162</v>
+      </c>
+      <c r="H90" t="n">
         <v>162.45</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4045,21 @@
         <v>4529.1033</v>
       </c>
       <c r="G91" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="H91" t="n">
         <v>162.3833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4083,21 @@
         <v>19486.4271</v>
       </c>
       <c r="G92" t="n">
+        <v>161.6666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>162.3166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4121,21 @@
         <v>50</v>
       </c>
       <c r="G93" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="H93" t="n">
         <v>162.25</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4159,21 @@
         <v>14685.0765</v>
       </c>
       <c r="G94" t="n">
+        <v>161.0666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>162.15</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4197,21 @@
         <v>10271.7332</v>
       </c>
       <c r="G95" t="n">
+        <v>160.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>162.05</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4235,21 @@
         <v>2910.6286</v>
       </c>
       <c r="G96" t="n">
+        <v>160.7333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>161.95</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4273,21 @@
         <v>60542.5104</v>
       </c>
       <c r="G97" t="n">
+        <v>160.5333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>161.8333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4311,21 @@
         <v>12515.7217</v>
       </c>
       <c r="G98" t="n">
+        <v>160.3333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>161.75</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4349,21 @@
         <v>11672.5516</v>
       </c>
       <c r="G99" t="n">
+        <v>160</v>
+      </c>
+      <c r="H99" t="n">
         <v>161.6333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4387,21 @@
         <v>12712.3602</v>
       </c>
       <c r="G100" t="n">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>161.55</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4425,21 @@
         <v>8092.7153</v>
       </c>
       <c r="G101" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="H101" t="n">
         <v>161.4666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4463,21 @@
         <v>9081.7611</v>
       </c>
       <c r="G102" t="n">
+        <v>159.2666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>161.4666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4501,21 @@
         <v>572.5522</v>
       </c>
       <c r="G103" t="n">
+        <v>159</v>
+      </c>
+      <c r="H103" t="n">
         <v>161.4</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4539,21 @@
         <v>38.5597</v>
       </c>
       <c r="G104" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H104" t="n">
         <v>161.35</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4577,21 @@
         <v>43554.83</v>
       </c>
       <c r="G105" t="n">
+        <v>158.7333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>161.3166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4615,21 @@
         <v>1308.7715</v>
       </c>
       <c r="G106" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>161.2333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4653,21 @@
         <v>4340.0607</v>
       </c>
       <c r="G107" t="n">
+        <v>158.3333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>161.1333333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4691,21 @@
         <v>2729</v>
       </c>
       <c r="G108" t="n">
+        <v>158.3333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>161.0666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4729,21 @@
         <v>437.7547</v>
       </c>
       <c r="G109" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>161</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4767,21 @@
         <v>335.7057</v>
       </c>
       <c r="G110" t="n">
+        <v>158.3333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>160.8833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4805,21 @@
         <v>500</v>
       </c>
       <c r="G111" t="n">
+        <v>158.3333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>160.8166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4843,21 @@
         <v>14794.9394</v>
       </c>
       <c r="G112" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>160.75</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4881,21 @@
         <v>1969.8</v>
       </c>
       <c r="G113" t="n">
+        <v>158.5333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>160.7166666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4919,21 @@
         <v>143.3603</v>
       </c>
       <c r="G114" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>160.6666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4957,21 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
+        <v>158.7333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>160.6166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4995,21 @@
         <v>161.2654</v>
       </c>
       <c r="G116" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H116" t="n">
         <v>160.5666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5033,21 @@
         <v>1829.35</v>
       </c>
       <c r="G117" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="H117" t="n">
         <v>160.5333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5071,21 @@
         <v>13724.3137</v>
       </c>
       <c r="G118" t="n">
+        <v>158.9333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>160.5</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5109,21 @@
         <v>266.2855</v>
       </c>
       <c r="G119" t="n">
+        <v>159</v>
+      </c>
+      <c r="H119" t="n">
         <v>160.4833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5147,21 @@
         <v>274.3011</v>
       </c>
       <c r="G120" t="n">
+        <v>158.9333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>160.45</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5185,21 @@
         <v>1790.8987</v>
       </c>
       <c r="G121" t="n">
+        <v>159.0666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>160.4</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5223,21 @@
         <v>4277.7402</v>
       </c>
       <c r="G122" t="n">
+        <v>159.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>160.3666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5261,21 @@
         <v>12644.2061</v>
       </c>
       <c r="G123" t="n">
+        <v>159.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>160.3</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5299,21 @@
         <v>32.4812</v>
       </c>
       <c r="G124" t="n">
+        <v>159.3333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>160.2666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5337,21 @@
         <v>13.95</v>
       </c>
       <c r="G125" t="n">
+        <v>159.4666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>160.2333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5375,21 @@
         <v>11784.7259</v>
       </c>
       <c r="G126" t="n">
+        <v>159.4666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>160.1833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5413,21 @@
         <v>10417.9096</v>
       </c>
       <c r="G127" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="H127" t="n">
         <v>160.1166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5451,21 @@
         <v>22751.9941</v>
       </c>
       <c r="G128" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="H128" t="n">
         <v>160.05</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5489,21 @@
         <v>501</v>
       </c>
       <c r="G129" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>159.9666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5527,21 @@
         <v>3825.0585</v>
       </c>
       <c r="G130" t="n">
+        <v>159.0666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>159.9</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5565,21 @@
         <v>15515</v>
       </c>
       <c r="G131" t="n">
+        <v>159.0666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>159.8333333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5603,21 @@
         <v>27629.0326</v>
       </c>
       <c r="G132" t="n">
+        <v>159</v>
+      </c>
+      <c r="H132" t="n">
         <v>159.7833333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5641,21 @@
         <v>101</v>
       </c>
       <c r="G133" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>159.7166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5679,21 @@
         <v>6886.899371069182</v>
       </c>
       <c r="G134" t="n">
+        <v>158.7333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>159.6666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5717,21 @@
         <v>156.5315</v>
       </c>
       <c r="G135" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="H135" t="n">
         <v>159.5666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5755,21 @@
         <v>200</v>
       </c>
       <c r="G136" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H136" t="n">
         <v>159.4666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5793,21 @@
         <v>1502.861144654088</v>
       </c>
       <c r="G137" t="n">
+        <v>158.2666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>159.3833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5831,21 @@
         <v>4157.262</v>
       </c>
       <c r="G138" t="n">
+        <v>158.1333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>159.2833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5869,21 @@
         <v>50706.8142</v>
       </c>
       <c r="G139" t="n">
+        <v>158</v>
+      </c>
+      <c r="H139" t="n">
         <v>159.2</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5907,21 @@
         <v>18462.2754</v>
       </c>
       <c r="G140" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>159.1166666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +5945,21 @@
         <v>74293.3181</v>
       </c>
       <c r="G141" t="n">
+        <v>157.5333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>159.0166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +5983,21 @@
         <v>13429.323</v>
       </c>
       <c r="G142" t="n">
+        <v>157.4666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>158.95</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6021,21 @@
         <v>2</v>
       </c>
       <c r="G143" t="n">
+        <v>157.4666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>158.8833333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6059,21 @@
         <v>3744.5205</v>
       </c>
       <c r="G144" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>158.8</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6097,21 @@
         <v>2</v>
       </c>
       <c r="G145" t="n">
+        <v>157.3333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>158.7166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6135,21 @@
         <v>9732.7078</v>
       </c>
       <c r="G146" t="n">
+        <v>157.2666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>158.6333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6173,21 @@
         <v>1140.0882</v>
       </c>
       <c r="G147" t="n">
+        <v>157.1333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>158.55</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6211,21 @@
         <v>1020.264</v>
       </c>
       <c r="G148" t="n">
+        <v>157.0666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>158.4666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6249,21 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
+        <v>157.1333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>158.4166666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6287,21 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>158.3666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6325,21 @@
         <v>2</v>
       </c>
       <c r="G151" t="n">
+        <v>157.3333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>158.35</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6363,21 @@
         <v>399</v>
       </c>
       <c r="G152" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H152" t="n">
         <v>158.3166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6401,21 @@
         <v>22748.0916</v>
       </c>
       <c r="G153" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H153" t="n">
         <v>158.2833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6439,21 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H154" t="n">
         <v>158.2833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6477,21 @@
         <v>1147.4843</v>
       </c>
       <c r="G155" t="n">
+        <v>157.4666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>158.25</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6515,21 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="H156" t="n">
         <v>158.2333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6553,21 @@
         <v>171.1862</v>
       </c>
       <c r="G157" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="H157" t="n">
         <v>158.2166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6591,21 @@
         <v>796</v>
       </c>
       <c r="G158" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="H158" t="n">
         <v>158.2</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6629,21 @@
         <v>246.8949</v>
       </c>
       <c r="G159" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="H159" t="n">
         <v>158.2</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6667,21 @@
         <v>200.9537</v>
       </c>
       <c r="G160" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="H160" t="n">
         <v>158.1833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6705,21 @@
         <v>2911.4751</v>
       </c>
       <c r="G161" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>158.2</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6743,21 @@
         <v>385.918</v>
       </c>
       <c r="G162" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>158.1666666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +6781,21 @@
         <v>12499.9999</v>
       </c>
       <c r="G163" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H163" t="n">
         <v>158.1666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +6819,21 @@
         <v>4179.8471</v>
       </c>
       <c r="G164" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H164" t="n">
         <v>158.1666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +6857,21 @@
         <v>909.905</v>
       </c>
       <c r="G165" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H165" t="n">
         <v>158.1333333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +6895,21 @@
         <v>398</v>
       </c>
       <c r="G166" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>158.1333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +6933,21 @@
         <v>709.405</v>
       </c>
       <c r="G167" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>158.15</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +6971,21 @@
         <v>2824.1265</v>
       </c>
       <c r="G168" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>158.1333333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7009,21 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>158.1</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7047,21 @@
         <v>13.8527</v>
       </c>
       <c r="G170" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>158.1</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7085,21 @@
         <v>78.631</v>
       </c>
       <c r="G171" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H171" t="n">
         <v>158.1</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7123,21 @@
         <v>1371.7151</v>
       </c>
       <c r="G172" t="n">
+        <v>157.8666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>158.0833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7161,21 @@
         <v>1</v>
       </c>
       <c r="G173" t="n">
+        <v>158</v>
+      </c>
+      <c r="H173" t="n">
         <v>158.0666666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6487,15 +7202,18 @@
         <v>158.0666666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>158.0666666666667</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7237,21 @@
         <v>306.8361</v>
       </c>
       <c r="G175" t="n">
+        <v>158.1333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>158.0333333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7275,21 @@
         <v>31678.5002</v>
       </c>
       <c r="G176" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="H176" t="n">
         <v>158.05</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7313,21 @@
         <v>3411.1643</v>
       </c>
       <c r="G177" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="H177" t="n">
         <v>158.0166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7351,21 @@
         <v>838.3075</v>
       </c>
       <c r="G178" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="H178" t="n">
         <v>157.9833333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7389,21 @@
         <v>370.948</v>
       </c>
       <c r="G179" t="n">
+        <v>158.1333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>157.95</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7427,21 @@
         <v>7471.2691</v>
       </c>
       <c r="G180" t="n">
+        <v>158</v>
+      </c>
+      <c r="H180" t="n">
         <v>157.9</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7465,21 @@
         <v>8788.7192</v>
       </c>
       <c r="G181" t="n">
+        <v>157.9333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>157.85</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7503,21 @@
         <v>5749.9813</v>
       </c>
       <c r="G182" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H182" t="n">
         <v>157.7833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7541,21 @@
         <v>1267.0452</v>
       </c>
       <c r="G183" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>157.7333333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7579,21 @@
         <v>4798.4787</v>
       </c>
       <c r="G184" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="H184" t="n">
         <v>157.6666666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7617,21 @@
         <v>4468.7307</v>
       </c>
       <c r="G185" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="H185" t="n">
         <v>157.5833333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7655,21 @@
         <v>6767.4042</v>
       </c>
       <c r="G186" t="n">
+        <v>157.1333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>157.5166666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +7693,21 @@
         <v>51213.3164</v>
       </c>
       <c r="G187" t="n">
+        <v>156.9333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>157.4666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +7731,21 @@
         <v>16059.1812</v>
       </c>
       <c r="G188" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>157.4166666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +7769,21 @@
         <v>16022.3355</v>
       </c>
       <c r="G189" t="n">
+        <v>156.3333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>157.35</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +7807,21 @@
         <v>1557.258</v>
       </c>
       <c r="G190" t="n">
+        <v>156.0666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>157.2833333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +7845,21 @@
         <v>3355.1886</v>
       </c>
       <c r="G191" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="H191" t="n">
         <v>157.2333333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +7883,21 @@
         <v>375</v>
       </c>
       <c r="G192" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>157.1833333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +7921,21 @@
         <v>4660.1852</v>
       </c>
       <c r="G193" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H193" t="n">
         <v>157.1166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +7959,21 @@
         <v>2983.1986</v>
       </c>
       <c r="G194" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H194" t="n">
         <v>157.0666666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +7997,21 @@
         <v>695.931</v>
       </c>
       <c r="G195" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>157.0333333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8035,21 @@
         <v>6619.6859</v>
       </c>
       <c r="G196" t="n">
+        <v>155</v>
+      </c>
+      <c r="H196" t="n">
         <v>157</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8073,21 @@
         <v>583</v>
       </c>
       <c r="G197" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>156.95</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8111,21 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>156.9333333333333</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8149,21 @@
         <v>115.3647</v>
       </c>
       <c r="G199" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H199" t="n">
         <v>156.8666666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8187,21 @@
         <v>19.1032</v>
       </c>
       <c r="G200" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H200" t="n">
         <v>156.85</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8225,21 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H201" t="n">
         <v>156.8333333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8263,21 @@
         <v>12519.9999</v>
       </c>
       <c r="G202" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H202" t="n">
         <v>156.8</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8301,21 @@
         <v>15</v>
       </c>
       <c r="G203" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>156.7666666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8339,21 @@
         <v>478.7599</v>
       </c>
       <c r="G204" t="n">
+        <v>154.9333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>156.7333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8377,21 @@
         <v>223.9753</v>
       </c>
       <c r="G205" t="n">
+        <v>155</v>
+      </c>
+      <c r="H205" t="n">
         <v>156.7</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8415,21 @@
         <v>229</v>
       </c>
       <c r="G206" t="n">
+        <v>155.0666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>156.6833333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +8453,21 @@
         <v>1504.738</v>
       </c>
       <c r="G207" t="n">
+        <v>155</v>
+      </c>
+      <c r="H207" t="n">
         <v>156.65</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +8491,21 @@
         <v>91.3978</v>
       </c>
       <c r="G208" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>156.6333333333333</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +8529,21 @@
         <v>8554.9126</v>
       </c>
       <c r="G209" t="n">
+        <v>155.0666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>156.55</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +8567,21 @@
         <v>1206.769</v>
       </c>
       <c r="G210" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>156.5166666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +8605,21 @@
         <v>1967</v>
       </c>
       <c r="G211" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>156.45</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +8643,21 @@
         <v>1167.1662</v>
       </c>
       <c r="G212" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>156.3833333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +8681,21 @@
         <v>20677.9331</v>
       </c>
       <c r="G213" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>156.3666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +8719,21 @@
         <v>399</v>
       </c>
       <c r="G214" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>156.3333333333333</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +8757,21 @@
         <v>1729.3891</v>
       </c>
       <c r="G215" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>156.3</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +8795,21 @@
         <v>797.4382000000001</v>
       </c>
       <c r="G216" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>156.25</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +8833,21 @@
         <v>19589.8697</v>
       </c>
       <c r="G217" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>156.2166666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +8871,21 @@
         <v>8872.5344</v>
       </c>
       <c r="G218" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +8909,21 @@
         <v>947.1328</v>
       </c>
       <c r="G219" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H219" t="n">
         <v>156.1333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,18 +8947,21 @@
         <v>106.671</v>
       </c>
       <c r="G220" t="n">
+        <v>155.1333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>156.0833333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8129,18 +8985,21 @@
         <v>27265.504</v>
       </c>
       <c r="G221" t="n">
+        <v>155</v>
+      </c>
+      <c r="H221" t="n">
         <v>156.0166666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,18 +9023,21 @@
         <v>1</v>
       </c>
       <c r="G222" t="n">
+        <v>155</v>
+      </c>
+      <c r="H222" t="n">
         <v>155.9666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,18 +9061,21 @@
         <v>1799.5389</v>
       </c>
       <c r="G223" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>155.9</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8234,18 +9099,21 @@
         <v>1929.5543</v>
       </c>
       <c r="G224" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>155.8166666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8269,18 +9137,21 @@
         <v>3151.0636</v>
       </c>
       <c r="G225" t="n">
+        <v>154.6666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>155.7333333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8304,18 +9175,21 @@
         <v>68.4622</v>
       </c>
       <c r="G226" t="n">
+        <v>154.5333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>155.65</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,18 +9213,21 @@
         <v>3065.6379</v>
       </c>
       <c r="G227" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="H227" t="n">
         <v>155.5666666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8374,18 +9251,21 @@
         <v>14665.8011</v>
       </c>
       <c r="G228" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="H228" t="n">
         <v>155.4833333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,18 +9289,21 @@
         <v>2090.3137</v>
       </c>
       <c r="G229" t="n">
+        <v>154</v>
+      </c>
+      <c r="H229" t="n">
         <v>155.4166666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8444,18 +9327,21 @@
         <v>138132.011</v>
       </c>
       <c r="G230" t="n">
+        <v>153.8666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>155.3333333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,18 +9365,21 @@
         <v>16117.5457</v>
       </c>
       <c r="G231" t="n">
+        <v>153.7333333333333</v>
+      </c>
+      <c r="H231" t="n">
         <v>155.2333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8514,18 +9403,21 @@
         <v>15123.208</v>
       </c>
       <c r="G232" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>155.1666666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8549,18 +9441,21 @@
         <v>439.8936</v>
       </c>
       <c r="G233" t="n">
+        <v>153.4666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>155.05</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8584,18 +9479,21 @@
         <v>38.5947</v>
       </c>
       <c r="G234" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H234" t="n">
         <v>154.9666666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8619,18 +9517,21 @@
         <v>23820</v>
       </c>
       <c r="G235" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H235" t="n">
         <v>154.9</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,18 +9555,21 @@
         <v>328</v>
       </c>
       <c r="G236" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H236" t="n">
         <v>154.8166666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,18 +9593,21 @@
         <v>3750.242533766234</v>
       </c>
       <c r="G237" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>154.75</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,18 +9631,21 @@
         <v>130.211</v>
       </c>
       <c r="G238" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>154.6833333333333</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,18 +9669,21 @@
         <v>100</v>
       </c>
       <c r="G239" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>154.6166666666667</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8794,18 +9707,21 @@
         <v>18972.5467</v>
       </c>
       <c r="G240" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>154.5666666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8829,18 +9745,21 @@
         <v>3136.6544</v>
       </c>
       <c r="G241" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H241" t="n">
         <v>154.5166666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8864,18 +9783,21 @@
         <v>2927.7154</v>
       </c>
       <c r="G242" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>154.45</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8899,18 +9821,21 @@
         <v>204.0257</v>
       </c>
       <c r="G243" t="n">
+        <v>153.2666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>154.3833333333333</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8934,18 +9859,21 @@
         <v>2631.5789</v>
       </c>
       <c r="G244" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="H244" t="n">
         <v>154.3166666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8969,18 +9897,21 @@
         <v>10657.1052</v>
       </c>
       <c r="G245" t="n">
+        <v>153.1333333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>154.2666666666667</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9004,18 +9935,21 @@
         <v>500</v>
       </c>
       <c r="G246" t="n">
+        <v>153.0666666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>154.2166666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9039,18 +9973,21 @@
         <v>5173.2843</v>
       </c>
       <c r="G247" t="n">
+        <v>152.9333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>154.1666666666667</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9074,18 +10011,21 @@
         <v>2272.5668</v>
       </c>
       <c r="G248" t="n">
+        <v>152.9333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>154.1333333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9109,18 +10049,21 @@
         <v>500</v>
       </c>
       <c r="G249" t="n">
+        <v>152.8666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>154.1</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9144,18 +10087,21 @@
         <v>250</v>
       </c>
       <c r="G250" t="n">
+        <v>152.7333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>154.0666666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9179,18 +10125,21 @@
         <v>7314.5503</v>
       </c>
       <c r="G251" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="H251" t="n">
         <v>154.0166666666667</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9214,18 +10163,21 @@
         <v>3249.9999</v>
       </c>
       <c r="G252" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="H252" t="n">
         <v>153.9333333333333</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9249,18 +10201,21 @@
         <v>6508.3679</v>
       </c>
       <c r="G253" t="n">
+        <v>152.2666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>153.9</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9284,18 +10239,21 @@
         <v>62.3535</v>
       </c>
       <c r="G254" t="n">
+        <v>152.0666666666667</v>
+      </c>
+      <c r="H254" t="n">
         <v>153.8333333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9319,18 +10277,21 @@
         <v>9.225099999999999</v>
       </c>
       <c r="G255" t="n">
+        <v>151.9333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>153.7666666666667</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9354,18 +10315,21 @@
         <v>2032.8978</v>
       </c>
       <c r="G256" t="n">
+        <v>151.7333333333333</v>
+      </c>
+      <c r="H256" t="n">
         <v>153.7</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9389,18 +10353,21 @@
         <v>9949.816999999999</v>
       </c>
       <c r="G257" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="H257" t="n">
         <v>153.6166666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,18 +10391,21 @@
         <v>714.2446</v>
       </c>
       <c r="G258" t="n">
+        <v>151.5333333333333</v>
+      </c>
+      <c r="H258" t="n">
         <v>153.5333333333333</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9459,18 +10429,21 @@
         <v>2520</v>
       </c>
       <c r="G259" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="H259" t="n">
         <v>153.4666666666667</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9494,18 +10467,21 @@
         <v>1032.1595</v>
       </c>
       <c r="G260" t="n">
+        <v>151.2666666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>153.3833333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9529,18 +10505,21 @@
         <v>1</v>
       </c>
       <c r="G261" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="H261" t="n">
         <v>153.3166666666667</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9564,18 +10543,21 @@
         <v>2141.2983</v>
       </c>
       <c r="G262" t="n">
+        <v>151.0666666666667</v>
+      </c>
+      <c r="H262" t="n">
         <v>153.2333333333333</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9599,18 +10581,21 @@
         <v>1360</v>
       </c>
       <c r="G263" t="n">
+        <v>151</v>
+      </c>
+      <c r="H263" t="n">
         <v>153.1666666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9634,18 +10619,21 @@
         <v>760</v>
       </c>
       <c r="G264" t="n">
+        <v>150.9333333333333</v>
+      </c>
+      <c r="H264" t="n">
         <v>153.1</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9669,18 +10657,21 @@
         <v>255.1876</v>
       </c>
       <c r="G265" t="n">
+        <v>150.8666666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>153.0333333333333</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9704,18 +10695,21 @@
         <v>1216.207</v>
       </c>
       <c r="G266" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H266" t="n">
         <v>152.95</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9739,18 +10733,21 @@
         <v>6028.5757</v>
       </c>
       <c r="G267" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H267" t="n">
         <v>152.8833333333333</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9774,18 +10771,21 @@
         <v>16365.3492</v>
       </c>
       <c r="G268" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H268" t="n">
         <v>152.8166666666667</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9809,18 +10809,21 @@
         <v>86.92319999999999</v>
       </c>
       <c r="G269" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="H269" t="n">
         <v>152.7666666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9844,18 +10847,21 @@
         <v>86</v>
       </c>
       <c r="G270" t="n">
+        <v>150.8666666666667</v>
+      </c>
+      <c r="H270" t="n">
         <v>152.7</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,18 +10885,21 @@
         <v>1</v>
       </c>
       <c r="G271" t="n">
+        <v>150.8666666666667</v>
+      </c>
+      <c r="H271" t="n">
         <v>152.6333333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9914,18 +10923,21 @@
         <v>2.6732</v>
       </c>
       <c r="G272" t="n">
+        <v>151.0666666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>152.6</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9949,18 +10961,21 @@
         <v>2614.379</v>
       </c>
       <c r="G273" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="H273" t="n">
         <v>152.55</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9984,18 +10999,21 @@
         <v>1060.551472727273</v>
       </c>
       <c r="G274" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="H274" t="n">
         <v>152.5</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10019,18 +11037,21 @@
         <v>4937.1697</v>
       </c>
       <c r="G275" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="H275" t="n">
         <v>152.4666666666667</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10054,18 +11075,21 @@
         <v>14032.7314</v>
       </c>
       <c r="G276" t="n">
+        <v>151.8666666666667</v>
+      </c>
+      <c r="H276" t="n">
         <v>152.4666666666667</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10089,18 +11113,21 @@
         <v>18195.991</v>
       </c>
       <c r="G277" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="H277" t="n">
         <v>152.4666666666667</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10127,15 +11154,18 @@
         <v>152.4666666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>152.4666666666667</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10159,18 +11189,21 @@
         <v>1580</v>
       </c>
       <c r="G279" t="n">
+        <v>152.7333333333333</v>
+      </c>
+      <c r="H279" t="n">
         <v>152.4833333333333</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10194,18 +11227,21 @@
         <v>2360</v>
       </c>
       <c r="G280" t="n">
+        <v>153</v>
+      </c>
+      <c r="H280" t="n">
         <v>152.5</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10229,18 +11265,21 @@
         <v>1871.2214</v>
       </c>
       <c r="G281" t="n">
+        <v>153.2666666666667</v>
+      </c>
+      <c r="H281" t="n">
         <v>152.5166666666667</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10264,18 +11303,21 @@
         <v>1862.9204</v>
       </c>
       <c r="G282" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="H282" t="n">
         <v>152.4833333333333</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10299,18 +11341,21 @@
         <v>4094.8166</v>
       </c>
       <c r="G283" t="n">
+        <v>153.4666666666667</v>
+      </c>
+      <c r="H283" t="n">
         <v>152.4666666666667</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10334,18 +11379,21 @@
         <v>1373.4443</v>
       </c>
       <c r="G284" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="H284" t="n">
         <v>152.45</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10369,18 +11417,21 @@
         <v>5702.8348</v>
       </c>
       <c r="G285" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H285" t="n">
         <v>152.45</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10404,18 +11455,21 @@
         <v>599.8039</v>
       </c>
       <c r="G286" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H286" t="n">
         <v>152.45</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10439,18 +11493,21 @@
         <v>1824.101</v>
       </c>
       <c r="G287" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H287" t="n">
         <v>152.45</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10474,18 +11531,21 @@
         <v>1</v>
       </c>
       <c r="G288" t="n">
+        <v>153.8666666666667</v>
+      </c>
+      <c r="H288" t="n">
         <v>152.4666666666667</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10509,18 +11569,21 @@
         <v>3152.3051</v>
       </c>
       <c r="G289" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H289" t="n">
         <v>152.4833333333333</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10544,18 +11607,21 @@
         <v>400</v>
       </c>
       <c r="G290" t="n">
+        <v>154</v>
+      </c>
+      <c r="H290" t="n">
         <v>152.5</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10579,18 +11645,21 @@
         <v>10405.1961</v>
       </c>
       <c r="G291" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H291" t="n">
         <v>152.4833333333333</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10614,18 +11683,21 @@
         <v>6010.1365</v>
       </c>
       <c r="G292" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="H292" t="n">
         <v>152.45</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10649,18 +11721,21 @@
         <v>2004.3789</v>
       </c>
       <c r="G293" t="n">
+        <v>153.5333333333333</v>
+      </c>
+      <c r="H293" t="n">
         <v>152.4833333333333</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10684,18 +11759,21 @@
         <v>110.3731</v>
       </c>
       <c r="G294" t="n">
+        <v>153.3333333333333</v>
+      </c>
+      <c r="H294" t="n">
         <v>152.4666666666667</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10719,18 +11797,21 @@
         <v>3144.4243</v>
       </c>
       <c r="G295" t="n">
+        <v>153.1333333333333</v>
+      </c>
+      <c r="H295" t="n">
         <v>152.4333333333333</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10754,18 +11835,21 @@
         <v>1</v>
       </c>
       <c r="G296" t="n">
+        <v>153.0666666666667</v>
+      </c>
+      <c r="H296" t="n">
         <v>152.4333333333333</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10789,18 +11873,21 @@
         <v>502.4959</v>
       </c>
       <c r="G297" t="n">
+        <v>153.0666666666667</v>
+      </c>
+      <c r="H297" t="n">
         <v>152.4166666666667</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10824,18 +11911,21 @@
         <v>1294.3672</v>
       </c>
       <c r="G298" t="n">
+        <v>153</v>
+      </c>
+      <c r="H298" t="n">
         <v>152.3833333333333</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10859,18 +11949,21 @@
         <v>12492.3682</v>
       </c>
       <c r="G299" t="n">
+        <v>152.9333333333333</v>
+      </c>
+      <c r="H299" t="n">
         <v>152.35</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10894,18 +11987,21 @@
         <v>6144.177</v>
       </c>
       <c r="G300" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="H300" t="n">
         <v>152.3166666666667</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10929,18 +12025,21 @@
         <v>1115.2179</v>
       </c>
       <c r="G301" t="n">
+        <v>152.6666666666667</v>
+      </c>
+      <c r="H301" t="n">
         <v>152.2666666666667</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10964,18 +12063,21 @@
         <v>114.6593</v>
       </c>
       <c r="G302" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="H302" t="n">
         <v>152.2666666666667</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10999,18 +12101,21 @@
         <v>340</v>
       </c>
       <c r="G303" t="n">
+        <v>152.4666666666667</v>
+      </c>
+      <c r="H303" t="n">
         <v>152.2666666666667</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11034,18 +12139,21 @@
         <v>400</v>
       </c>
       <c r="G304" t="n">
+        <v>152.2666666666667</v>
+      </c>
+      <c r="H304" t="n">
         <v>152.25</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11069,18 +12177,21 @@
         <v>759.381</v>
       </c>
       <c r="G305" t="n">
+        <v>152.1333333333333</v>
+      </c>
+      <c r="H305" t="n">
         <v>152.25</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11104,18 +12215,21 @@
         <v>335.7058</v>
       </c>
       <c r="G306" t="n">
+        <v>152.0666666666667</v>
+      </c>
+      <c r="H306" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11139,18 +12253,21 @@
         <v>9639.4802</v>
       </c>
       <c r="G307" t="n">
+        <v>152.0666666666667</v>
+      </c>
+      <c r="H307" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11174,18 +12291,21 @@
         <v>215.8725</v>
       </c>
       <c r="G308" t="n">
+        <v>151.9333333333333</v>
+      </c>
+      <c r="H308" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11209,18 +12329,21 @@
         <v>4696.412</v>
       </c>
       <c r="G309" t="n">
+        <v>151.9333333333333</v>
+      </c>
+      <c r="H309" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11244,18 +12367,21 @@
         <v>500</v>
       </c>
       <c r="G310" t="n">
+        <v>151.9333333333333</v>
+      </c>
+      <c r="H310" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11279,18 +12405,21 @@
         <v>673.0657</v>
       </c>
       <c r="G311" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="H311" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11314,18 +12443,21 @@
         <v>4384.2993</v>
       </c>
       <c r="G312" t="n">
+        <v>151.6666666666667</v>
+      </c>
+      <c r="H312" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11349,18 +12481,21 @@
         <v>8609.6646</v>
       </c>
       <c r="G313" t="n">
+        <v>151.6666666666667</v>
+      </c>
+      <c r="H313" t="n">
         <v>152.2333333333333</v>
       </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11384,18 +12519,21 @@
         <v>32399.7724</v>
       </c>
       <c r="G314" t="n">
+        <v>151.6666666666667</v>
+      </c>
+      <c r="H314" t="n">
         <v>152.25</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11419,18 +12557,401 @@
         <v>2675.7466</v>
       </c>
       <c r="G315" t="n">
+        <v>151.7333333333333</v>
+      </c>
+      <c r="H315" t="n">
         <v>152.2666666666667</v>
       </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>152</v>
+      </c>
+      <c r="C316" t="n">
+        <v>152</v>
+      </c>
+      <c r="D316" t="n">
+        <v>152</v>
+      </c>
+      <c r="E316" t="n">
+        <v>152</v>
+      </c>
+      <c r="F316" t="n">
+        <v>833.8212</v>
+      </c>
+      <c r="G316" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="H316" t="n">
+        <v>152.2833333333333</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>152</v>
+      </c>
+      <c r="C317" t="n">
+        <v>152</v>
+      </c>
+      <c r="D317" t="n">
+        <v>152</v>
+      </c>
+      <c r="E317" t="n">
+        <v>152</v>
+      </c>
+      <c r="F317" t="n">
+        <v>59.2542</v>
+      </c>
+      <c r="G317" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="H317" t="n">
+        <v>152.3166666666667</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>152</v>
+      </c>
+      <c r="C318" t="n">
+        <v>152</v>
+      </c>
+      <c r="D318" t="n">
+        <v>152</v>
+      </c>
+      <c r="E318" t="n">
+        <v>152</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2012.4312</v>
+      </c>
+      <c r="G318" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="H318" t="n">
+        <v>152.3333333333333</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>152</v>
+      </c>
+      <c r="C319" t="n">
+        <v>152</v>
+      </c>
+      <c r="D319" t="n">
+        <v>152</v>
+      </c>
+      <c r="E319" t="n">
+        <v>152</v>
+      </c>
+      <c r="F319" t="n">
+        <v>7100</v>
+      </c>
+      <c r="G319" t="n">
+        <v>151.8666666666667</v>
+      </c>
+      <c r="H319" t="n">
+        <v>152.3666666666667</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>151</v>
+      </c>
+      <c r="C320" t="n">
+        <v>152</v>
+      </c>
+      <c r="D320" t="n">
+        <v>152</v>
+      </c>
+      <c r="E320" t="n">
+        <v>151</v>
+      </c>
+      <c r="F320" t="n">
+        <v>993.5326</v>
+      </c>
+      <c r="G320" t="n">
+        <v>151.8666666666667</v>
+      </c>
+      <c r="H320" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>152</v>
+      </c>
+      <c r="C321" t="n">
+        <v>152</v>
+      </c>
+      <c r="D321" t="n">
+        <v>152</v>
+      </c>
+      <c r="E321" t="n">
+        <v>152</v>
+      </c>
+      <c r="F321" t="n">
+        <v>202.298</v>
+      </c>
+      <c r="G321" t="n">
+        <v>151.9333333333333</v>
+      </c>
+      <c r="H321" t="n">
+        <v>152.4166666666667</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>152</v>
+      </c>
+      <c r="C322" t="n">
+        <v>152</v>
+      </c>
+      <c r="D322" t="n">
+        <v>152</v>
+      </c>
+      <c r="E322" t="n">
+        <v>152</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4933.2419</v>
+      </c>
+      <c r="G322" t="n">
+        <v>151.9333333333333</v>
+      </c>
+      <c r="H322" t="n">
+        <v>152.45</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>152</v>
+      </c>
+      <c r="C323" t="n">
+        <v>153</v>
+      </c>
+      <c r="D323" t="n">
+        <v>153</v>
+      </c>
+      <c r="E323" t="n">
+        <v>152</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2663.416</v>
+      </c>
+      <c r="G323" t="n">
+        <v>152</v>
+      </c>
+      <c r="H323" t="n">
+        <v>152.4833333333333</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>153</v>
+      </c>
+      <c r="C324" t="n">
+        <v>153</v>
+      </c>
+      <c r="D324" t="n">
+        <v>153</v>
+      </c>
+      <c r="E324" t="n">
+        <v>153</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G324" t="n">
+        <v>152.0666666666667</v>
+      </c>
+      <c r="H324" t="n">
+        <v>152.5166666666667</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>153</v>
+      </c>
+      <c r="C325" t="n">
+        <v>153</v>
+      </c>
+      <c r="D325" t="n">
+        <v>153</v>
+      </c>
+      <c r="E325" t="n">
+        <v>153</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4575.1633</v>
+      </c>
+      <c r="G325" t="n">
+        <v>152.1333333333333</v>
+      </c>
+      <c r="H325" t="n">
+        <v>152.55</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-06 BackTest ITC.xlsx
+++ b/BackTest/2019-10-06 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1936,14 +1936,10 @@
         <v>10192.8204</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>148</v>
-      </c>
-      <c r="J47" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
@@ -1976,172 +1972,146 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>148</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="C49" t="n">
+        <v>148</v>
+      </c>
+      <c r="D49" t="n">
+        <v>148</v>
+      </c>
+      <c r="E49" t="n">
+        <v>148</v>
+      </c>
+      <c r="F49" t="n">
+        <v>97.4162</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10192.8204</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>148</v>
+      </c>
+      <c r="C50" t="n">
+        <v>148</v>
+      </c>
+      <c r="D50" t="n">
+        <v>148</v>
+      </c>
+      <c r="E50" t="n">
+        <v>148</v>
+      </c>
+      <c r="F50" t="n">
+        <v>433.8642</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10192.8204</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>148</v>
+      </c>
+      <c r="C51" t="n">
+        <v>148</v>
+      </c>
+      <c r="D51" t="n">
+        <v>148</v>
+      </c>
+      <c r="E51" t="n">
+        <v>148</v>
+      </c>
+      <c r="F51" t="n">
+        <v>148.407</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10192.8204</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>148</v>
+      </c>
+      <c r="C52" t="n">
+        <v>148</v>
+      </c>
+      <c r="D52" t="n">
+        <v>149</v>
+      </c>
+      <c r="E52" t="n">
+        <v>148</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2101.3294</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10192.8204</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>148</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>148</v>
-      </c>
-      <c r="C49" t="n">
-        <v>148</v>
-      </c>
-      <c r="D49" t="n">
-        <v>148</v>
-      </c>
-      <c r="E49" t="n">
-        <v>148</v>
-      </c>
-      <c r="F49" t="n">
-        <v>97.4162</v>
-      </c>
-      <c r="G49" t="n">
-        <v>10192.8204</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>148</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>148</v>
-      </c>
-      <c r="C50" t="n">
-        <v>148</v>
-      </c>
-      <c r="D50" t="n">
-        <v>148</v>
-      </c>
-      <c r="E50" t="n">
-        <v>148</v>
-      </c>
-      <c r="F50" t="n">
-        <v>433.8642</v>
-      </c>
-      <c r="G50" t="n">
-        <v>10192.8204</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>148</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>148</v>
-      </c>
-      <c r="C51" t="n">
-        <v>148</v>
-      </c>
-      <c r="D51" t="n">
-        <v>148</v>
-      </c>
-      <c r="E51" t="n">
-        <v>148</v>
-      </c>
-      <c r="F51" t="n">
-        <v>148.407</v>
-      </c>
-      <c r="G51" t="n">
-        <v>10192.8204</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>148</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>148</v>
-      </c>
-      <c r="C52" t="n">
-        <v>148</v>
-      </c>
-      <c r="D52" t="n">
-        <v>149</v>
-      </c>
-      <c r="E52" t="n">
-        <v>148</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2101.3294</v>
-      </c>
-      <c r="G52" t="n">
-        <v>10192.8204</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>148</v>
-      </c>
-      <c r="J52" t="n">
-        <v>148</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +2140,12 @@
         <v>5196.348000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>148</v>
       </c>
-      <c r="J53" t="n">
-        <v>148</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2211,14 +2179,12 @@
         <v>43350.8547</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>147</v>
       </c>
-      <c r="J54" t="n">
-        <v>148</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,14 +2218,12 @@
         <v>41327.2211</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>148</v>
       </c>
-      <c r="J55" t="n">
-        <v>148</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2293,14 +2257,12 @@
         <v>41327.2211</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>147</v>
       </c>
-      <c r="J56" t="n">
-        <v>148</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2334,14 +2296,12 @@
         <v>53947.221</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>147</v>
       </c>
-      <c r="J57" t="n">
-        <v>148</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2375,14 +2335,12 @@
         <v>53947.221</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>148</v>
       </c>
-      <c r="J58" t="n">
-        <v>148</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2416,14 +2374,12 @@
         <v>53947.221</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>148</v>
       </c>
-      <c r="J59" t="n">
-        <v>148</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2457,14 +2413,12 @@
         <v>53914.2428</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>148</v>
       </c>
-      <c r="J60" t="n">
-        <v>148</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,14 +2452,12 @@
         <v>61974.2428</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>147</v>
       </c>
-      <c r="J61" t="n">
-        <v>148</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2539,14 +2491,12 @@
         <v>61820.0988</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>149</v>
       </c>
-      <c r="J62" t="n">
-        <v>148</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2580,14 +2530,12 @@
         <v>61820.0988</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>147</v>
       </c>
-      <c r="J63" t="n">
-        <v>148</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2621,14 +2569,12 @@
         <v>61979.664</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>147</v>
       </c>
-      <c r="J64" t="n">
-        <v>148</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,14 +2608,12 @@
         <v>61979.664</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>148</v>
       </c>
-      <c r="J65" t="n">
-        <v>148</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,14 +2647,12 @@
         <v>66323.9256</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>148</v>
       </c>
-      <c r="J66" t="n">
-        <v>148</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,14 +2686,12 @@
         <v>66323.9256</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>149</v>
       </c>
-      <c r="J67" t="n">
-        <v>148</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2785,14 +2725,12 @@
         <v>66323.9256</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>149</v>
       </c>
-      <c r="J68" t="n">
-        <v>148</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,14 +2764,12 @@
         <v>66323.9256</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>149</v>
       </c>
-      <c r="J69" t="n">
-        <v>148</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2867,14 +2803,12 @@
         <v>127661.4922</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>149</v>
       </c>
-      <c r="J70" t="n">
-        <v>148</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,14 +2842,12 @@
         <v>127661.4922</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>150</v>
       </c>
-      <c r="J71" t="n">
-        <v>148</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2949,14 +2881,12 @@
         <v>246366.243456962</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>150</v>
       </c>
-      <c r="J72" t="n">
-        <v>148</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,14 +2920,10 @@
         <v>80881.09615696198</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>158</v>
-      </c>
-      <c r="J73" t="n">
-        <v>148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3034,9 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>148</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,9 +2997,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>148</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,9 +3034,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>148</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,9 +3071,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>148</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>148</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,9 +3145,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>148</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3268,9 +3182,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>148</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3307,9 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>148</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,9 +3256,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>148</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,9 +3293,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>148</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,9 +3330,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>148</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,781 +3364,867 @@
         <v>120027.648073125</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>148</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>166</v>
+      </c>
+      <c r="C86" t="n">
+        <v>164</v>
+      </c>
+      <c r="D86" t="n">
+        <v>166</v>
+      </c>
+      <c r="E86" t="n">
+        <v>163</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12697.7638</v>
+      </c>
+      <c r="G86" t="n">
+        <v>107329.884273125</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>165</v>
+      </c>
+      <c r="C87" t="n">
+        <v>164</v>
+      </c>
+      <c r="D87" t="n">
+        <v>166</v>
+      </c>
+      <c r="E87" t="n">
+        <v>163</v>
+      </c>
+      <c r="F87" t="n">
+        <v>96647.4344</v>
+      </c>
+      <c r="G87" t="n">
+        <v>107329.884273125</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>164</v>
+      </c>
+      <c r="C88" t="n">
+        <v>166</v>
+      </c>
+      <c r="D88" t="n">
+        <v>166</v>
+      </c>
+      <c r="E88" t="n">
+        <v>163</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28080.0765</v>
+      </c>
+      <c r="G88" t="n">
+        <v>135409.960773125</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>164</v>
+      </c>
+      <c r="C89" t="n">
+        <v>164</v>
+      </c>
+      <c r="D89" t="n">
+        <v>164</v>
+      </c>
+      <c r="E89" t="n">
+        <v>164</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3124.7447</v>
+      </c>
+      <c r="G89" t="n">
+        <v>132285.216073125</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>165</v>
+      </c>
+      <c r="C90" t="n">
+        <v>165</v>
+      </c>
+      <c r="D90" t="n">
+        <v>165</v>
+      </c>
+      <c r="E90" t="n">
+        <v>163</v>
+      </c>
+      <c r="F90" t="n">
+        <v>69465.1658</v>
+      </c>
+      <c r="G90" t="n">
+        <v>201750.381873125</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>165</v>
+      </c>
+      <c r="C91" t="n">
+        <v>163</v>
+      </c>
+      <c r="D91" t="n">
+        <v>165</v>
+      </c>
+      <c r="E91" t="n">
+        <v>163</v>
+      </c>
+      <c r="F91" t="n">
+        <v>27716.3467</v>
+      </c>
+      <c r="G91" t="n">
+        <v>174034.035173125</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>164</v>
+      </c>
+      <c r="C92" t="n">
+        <v>164</v>
+      </c>
+      <c r="D92" t="n">
+        <v>165</v>
+      </c>
+      <c r="E92" t="n">
+        <v>164</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8007.5858</v>
+      </c>
+      <c r="G92" t="n">
+        <v>182041.620973125</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>164</v>
+      </c>
+      <c r="C93" t="n">
+        <v>165</v>
+      </c>
+      <c r="D93" t="n">
+        <v>166</v>
+      </c>
+      <c r="E93" t="n">
+        <v>163</v>
+      </c>
+      <c r="F93" t="n">
+        <v>38438.0612</v>
+      </c>
+      <c r="G93" t="n">
+        <v>220479.682173125</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>166</v>
+      </c>
+      <c r="C94" t="n">
+        <v>165</v>
+      </c>
+      <c r="D94" t="n">
+        <v>166</v>
+      </c>
+      <c r="E94" t="n">
+        <v>164</v>
+      </c>
+      <c r="F94" t="n">
+        <v>43605.5648</v>
+      </c>
+      <c r="G94" t="n">
+        <v>220479.682173125</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>165</v>
+      </c>
+      <c r="C95" t="n">
+        <v>165</v>
+      </c>
+      <c r="D95" t="n">
+        <v>167</v>
+      </c>
+      <c r="E95" t="n">
+        <v>164</v>
+      </c>
+      <c r="F95" t="n">
+        <v>41872.3737</v>
+      </c>
+      <c r="G95" t="n">
+        <v>220479.682173125</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>165</v>
+      </c>
+      <c r="C96" t="n">
+        <v>163</v>
+      </c>
+      <c r="D96" t="n">
+        <v>166</v>
+      </c>
+      <c r="E96" t="n">
+        <v>163</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11682.7891</v>
+      </c>
+      <c r="G96" t="n">
+        <v>208796.893073125</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>165</v>
+      </c>
+      <c r="C97" t="n">
+        <v>164</v>
+      </c>
+      <c r="D97" t="n">
+        <v>166</v>
+      </c>
+      <c r="E97" t="n">
+        <v>164</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17603.2697060241</v>
+      </c>
+      <c r="G97" t="n">
+        <v>226400.1627791491</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>164</v>
+      </c>
+      <c r="C98" t="n">
+        <v>163</v>
+      </c>
+      <c r="D98" t="n">
+        <v>165</v>
+      </c>
+      <c r="E98" t="n">
+        <v>163</v>
+      </c>
+      <c r="F98" t="n">
+        <v>31745.5434</v>
+      </c>
+      <c r="G98" t="n">
+        <v>194654.6193791491</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>164</v>
+      </c>
+      <c r="C99" t="n">
+        <v>162</v>
+      </c>
+      <c r="D99" t="n">
+        <v>164</v>
+      </c>
+      <c r="E99" t="n">
+        <v>161</v>
+      </c>
+      <c r="F99" t="n">
+        <v>9369.7084</v>
+      </c>
+      <c r="G99" t="n">
+        <v>185284.9109791491</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>161</v>
+      </c>
+      <c r="C100" t="n">
+        <v>160</v>
+      </c>
+      <c r="D100" t="n">
+        <v>161</v>
+      </c>
+      <c r="E100" t="n">
+        <v>160</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19917.2393</v>
+      </c>
+      <c r="G100" t="n">
+        <v>165367.6716791491</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>161</v>
+      </c>
+      <c r="C101" t="n">
+        <v>162</v>
+      </c>
+      <c r="D101" t="n">
+        <v>162</v>
+      </c>
+      <c r="E101" t="n">
+        <v>161</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3584.4223</v>
+      </c>
+      <c r="G101" t="n">
+        <v>168952.0939791491</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>162</v>
+      </c>
+      <c r="C102" t="n">
+        <v>162</v>
+      </c>
+      <c r="D102" t="n">
+        <v>162</v>
+      </c>
+      <c r="E102" t="n">
+        <v>162</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2263.4927</v>
+      </c>
+      <c r="G102" t="n">
+        <v>168952.0939791491</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>162</v>
+      </c>
+      <c r="C103" t="n">
+        <v>162</v>
+      </c>
+      <c r="D103" t="n">
+        <v>163</v>
+      </c>
+      <c r="E103" t="n">
+        <v>162</v>
+      </c>
+      <c r="F103" t="n">
+        <v>802.0918</v>
+      </c>
+      <c r="G103" t="n">
+        <v>168952.0939791491</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>163</v>
+      </c>
+      <c r="C104" t="n">
+        <v>163</v>
+      </c>
+      <c r="D104" t="n">
+        <v>163</v>
+      </c>
+      <c r="E104" t="n">
+        <v>162</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8250.873100000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>177202.9670791491</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>163</v>
+      </c>
+      <c r="C105" t="n">
+        <v>163</v>
+      </c>
+      <c r="D105" t="n">
+        <v>163</v>
+      </c>
+      <c r="E105" t="n">
+        <v>162</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1384.0071</v>
+      </c>
+      <c r="G105" t="n">
+        <v>177202.9670791491</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>163</v>
+      </c>
+      <c r="C106" t="n">
+        <v>163</v>
+      </c>
+      <c r="D106" t="n">
+        <v>164</v>
+      </c>
+      <c r="E106" t="n">
+        <v>163</v>
+      </c>
+      <c r="F106" t="n">
+        <v>815.6361000000001</v>
+      </c>
+      <c r="G106" t="n">
+        <v>177202.9670791491</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>164</v>
+      </c>
+      <c r="C107" t="n">
+        <v>163</v>
+      </c>
+      <c r="D107" t="n">
+        <v>164</v>
+      </c>
+      <c r="E107" t="n">
+        <v>162</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12953.8134</v>
+      </c>
+      <c r="G107" t="n">
+        <v>177202.9670791491</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>163</v>
+      </c>
+      <c r="C108" t="n">
+        <v>165</v>
+      </c>
+      <c r="D108" t="n">
+        <v>165</v>
+      </c>
+      <c r="E108" t="n">
+        <v>163</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1459.255658181818</v>
+      </c>
+      <c r="G108" t="n">
+        <v>178662.2227373309</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1.116621621621622</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.027586206896552</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>166</v>
-      </c>
-      <c r="C86" t="n">
-        <v>164</v>
-      </c>
-      <c r="D86" t="n">
-        <v>166</v>
-      </c>
-      <c r="E86" t="n">
-        <v>163</v>
-      </c>
-      <c r="F86" t="n">
-        <v>12697.7638</v>
-      </c>
-      <c r="G86" t="n">
-        <v>107329.884273125</v>
-      </c>
-      <c r="H86" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>165</v>
-      </c>
-      <c r="C87" t="n">
-        <v>164</v>
-      </c>
-      <c r="D87" t="n">
-        <v>166</v>
-      </c>
-      <c r="E87" t="n">
-        <v>163</v>
-      </c>
-      <c r="F87" t="n">
-        <v>96647.4344</v>
-      </c>
-      <c r="G87" t="n">
-        <v>107329.884273125</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>164</v>
-      </c>
-      <c r="C88" t="n">
-        <v>166</v>
-      </c>
-      <c r="D88" t="n">
-        <v>166</v>
-      </c>
-      <c r="E88" t="n">
-        <v>163</v>
-      </c>
-      <c r="F88" t="n">
-        <v>28080.0765</v>
-      </c>
-      <c r="G88" t="n">
-        <v>135409.960773125</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>164</v>
-      </c>
-      <c r="C89" t="n">
-        <v>164</v>
-      </c>
-      <c r="D89" t="n">
-        <v>164</v>
-      </c>
-      <c r="E89" t="n">
-        <v>164</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3124.7447</v>
-      </c>
-      <c r="G89" t="n">
-        <v>132285.216073125</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>165</v>
-      </c>
-      <c r="C90" t="n">
-        <v>165</v>
-      </c>
-      <c r="D90" t="n">
-        <v>165</v>
-      </c>
-      <c r="E90" t="n">
-        <v>163</v>
-      </c>
-      <c r="F90" t="n">
-        <v>69465.1658</v>
-      </c>
-      <c r="G90" t="n">
-        <v>201750.381873125</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>165</v>
-      </c>
-      <c r="C91" t="n">
-        <v>163</v>
-      </c>
-      <c r="D91" t="n">
-        <v>165</v>
-      </c>
-      <c r="E91" t="n">
-        <v>163</v>
-      </c>
-      <c r="F91" t="n">
-        <v>27716.3467</v>
-      </c>
-      <c r="G91" t="n">
-        <v>174034.035173125</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>164</v>
-      </c>
-      <c r="C92" t="n">
-        <v>164</v>
-      </c>
-      <c r="D92" t="n">
-        <v>165</v>
-      </c>
-      <c r="E92" t="n">
-        <v>164</v>
-      </c>
-      <c r="F92" t="n">
-        <v>8007.5858</v>
-      </c>
-      <c r="G92" t="n">
-        <v>182041.620973125</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>164</v>
-      </c>
-      <c r="C93" t="n">
-        <v>165</v>
-      </c>
-      <c r="D93" t="n">
-        <v>166</v>
-      </c>
-      <c r="E93" t="n">
-        <v>163</v>
-      </c>
-      <c r="F93" t="n">
-        <v>38438.0612</v>
-      </c>
-      <c r="G93" t="n">
-        <v>220479.682173125</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>166</v>
-      </c>
-      <c r="C94" t="n">
-        <v>165</v>
-      </c>
-      <c r="D94" t="n">
-        <v>166</v>
-      </c>
-      <c r="E94" t="n">
-        <v>164</v>
-      </c>
-      <c r="F94" t="n">
-        <v>43605.5648</v>
-      </c>
-      <c r="G94" t="n">
-        <v>220479.682173125</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>165</v>
-      </c>
-      <c r="C95" t="n">
-        <v>165</v>
-      </c>
-      <c r="D95" t="n">
-        <v>167</v>
-      </c>
-      <c r="E95" t="n">
-        <v>164</v>
-      </c>
-      <c r="F95" t="n">
-        <v>41872.3737</v>
-      </c>
-      <c r="G95" t="n">
-        <v>220479.682173125</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>165</v>
-      </c>
-      <c r="C96" t="n">
-        <v>163</v>
-      </c>
-      <c r="D96" t="n">
-        <v>166</v>
-      </c>
-      <c r="E96" t="n">
-        <v>163</v>
-      </c>
-      <c r="F96" t="n">
-        <v>11682.7891</v>
-      </c>
-      <c r="G96" t="n">
-        <v>208796.893073125</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>165</v>
-      </c>
-      <c r="C97" t="n">
-        <v>164</v>
-      </c>
-      <c r="D97" t="n">
-        <v>166</v>
-      </c>
-      <c r="E97" t="n">
-        <v>164</v>
-      </c>
-      <c r="F97" t="n">
-        <v>17603.2697060241</v>
-      </c>
-      <c r="G97" t="n">
-        <v>226400.1627791491</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>164</v>
-      </c>
-      <c r="C98" t="n">
-        <v>163</v>
-      </c>
-      <c r="D98" t="n">
-        <v>165</v>
-      </c>
-      <c r="E98" t="n">
-        <v>163</v>
-      </c>
-      <c r="F98" t="n">
-        <v>31745.5434</v>
-      </c>
-      <c r="G98" t="n">
-        <v>194654.6193791491</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>164</v>
-      </c>
-      <c r="C99" t="n">
-        <v>162</v>
-      </c>
-      <c r="D99" t="n">
-        <v>164</v>
-      </c>
-      <c r="E99" t="n">
-        <v>161</v>
-      </c>
-      <c r="F99" t="n">
-        <v>9369.7084</v>
-      </c>
-      <c r="G99" t="n">
-        <v>185284.9109791491</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>161</v>
-      </c>
-      <c r="C100" t="n">
-        <v>160</v>
-      </c>
-      <c r="D100" t="n">
-        <v>161</v>
-      </c>
-      <c r="E100" t="n">
-        <v>160</v>
-      </c>
-      <c r="F100" t="n">
-        <v>19917.2393</v>
-      </c>
-      <c r="G100" t="n">
-        <v>165367.6716791491</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>161</v>
-      </c>
-      <c r="C101" t="n">
-        <v>162</v>
-      </c>
-      <c r="D101" t="n">
-        <v>162</v>
-      </c>
-      <c r="E101" t="n">
-        <v>161</v>
-      </c>
-      <c r="F101" t="n">
-        <v>3584.4223</v>
-      </c>
-      <c r="G101" t="n">
-        <v>168952.0939791491</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>162</v>
-      </c>
-      <c r="C102" t="n">
-        <v>162</v>
-      </c>
-      <c r="D102" t="n">
-        <v>162</v>
-      </c>
-      <c r="E102" t="n">
-        <v>162</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2263.4927</v>
-      </c>
-      <c r="G102" t="n">
-        <v>168952.0939791491</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>162</v>
-      </c>
-      <c r="C103" t="n">
-        <v>162</v>
-      </c>
-      <c r="D103" t="n">
-        <v>163</v>
-      </c>
-      <c r="E103" t="n">
-        <v>162</v>
-      </c>
-      <c r="F103" t="n">
-        <v>802.0918</v>
-      </c>
-      <c r="G103" t="n">
-        <v>168952.0939791491</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>163</v>
-      </c>
-      <c r="C104" t="n">
-        <v>163</v>
-      </c>
-      <c r="D104" t="n">
-        <v>163</v>
-      </c>
-      <c r="E104" t="n">
-        <v>162</v>
-      </c>
-      <c r="F104" t="n">
-        <v>8250.873100000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>177202.9670791491</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>163</v>
-      </c>
-      <c r="C105" t="n">
-        <v>163</v>
-      </c>
-      <c r="D105" t="n">
-        <v>163</v>
-      </c>
-      <c r="E105" t="n">
-        <v>162</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1384.0071</v>
-      </c>
-      <c r="G105" t="n">
-        <v>177202.9670791491</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>163</v>
-      </c>
-      <c r="C106" t="n">
-        <v>163</v>
-      </c>
-      <c r="D106" t="n">
-        <v>164</v>
-      </c>
-      <c r="E106" t="n">
-        <v>163</v>
-      </c>
-      <c r="F106" t="n">
-        <v>815.6361000000001</v>
-      </c>
-      <c r="G106" t="n">
-        <v>177202.9670791491</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>164</v>
-      </c>
-      <c r="C107" t="n">
-        <v>163</v>
-      </c>
-      <c r="D107" t="n">
-        <v>164</v>
-      </c>
-      <c r="E107" t="n">
-        <v>162</v>
-      </c>
-      <c r="F107" t="n">
-        <v>12953.8134</v>
-      </c>
-      <c r="G107" t="n">
-        <v>177202.9670791491</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>163</v>
-      </c>
-      <c r="C108" t="n">
-        <v>165</v>
-      </c>
-      <c r="D108" t="n">
-        <v>165</v>
-      </c>
-      <c r="E108" t="n">
-        <v>163</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1459.255658181818</v>
-      </c>
-      <c r="G108" t="n">
-        <v>178662.2227373309</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -4260,7 +4250,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4293,7 +4283,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4326,7 +4316,7 @@
         <v>167059.6511373309</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4359,7 +4349,7 @@
         <v>166388.2396373309</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4392,7 +4382,7 @@
         <v>230749.7862373309</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4425,7 +4415,7 @@
         <v>197066.4456373309</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4458,7 +4448,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4491,7 +4481,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4524,7 +4514,7 @@
         <v>197199.0355373309</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4557,7 +4547,7 @@
         <v>197199.0355373309</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4590,7 +4580,7 @@
         <v>262627.964437331</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4623,7 +4613,7 @@
         <v>258573.350037331</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4656,7 +4646,7 @@
         <v>258882.106037331</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4689,7 +4679,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4722,7 +4712,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4755,7 +4745,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4788,7 +4778,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4821,7 +4811,7 @@
         <v>247540.268219648</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4854,7 +4844,7 @@
         <v>247553.1209803842</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4887,7 +4877,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4920,7 +4910,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5019,7 +5009,7 @@
         <v>191917.0609803842</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5052,7 +5042,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5085,7 +5075,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5118,7 +5108,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5151,7 +5141,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5184,7 +5174,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5217,7 +5207,7 @@
         <v>192069.5912803842</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5250,7 +5240,7 @@
         <v>206716.0479803842</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5283,7 +5273,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5316,7 +5306,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5349,7 +5339,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5382,7 +5372,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5415,7 +5405,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5448,7 +5438,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5481,7 +5471,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5514,7 +5504,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5547,7 +5537,7 @@
         <v>190603.2979803842</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5580,7 +5570,7 @@
         <v>186074.1946803842</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5613,7 +5603,7 @@
         <v>205560.6217803842</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5646,7 +5636,7 @@
         <v>205510.6217803842</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5679,7 +5669,7 @@
         <v>190825.5452803842</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5712,7 +5702,7 @@
         <v>201097.2784803842</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5745,7 +5735,7 @@
         <v>201097.2784803842</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5778,7 +5768,7 @@
         <v>140554.7680803842</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5811,7 +5801,7 @@
         <v>140554.7680803842</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5844,7 +5834,7 @@
         <v>128882.2164803842</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5877,7 +5867,7 @@
         <v>141594.5766803842</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5910,7 +5900,7 @@
         <v>133501.8613803842</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5943,7 +5933,7 @@
         <v>142583.6224803842</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5976,7 +5966,7 @@
         <v>142011.0702803842</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6009,7 +5999,7 @@
         <v>142049.6299803842</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6042,7 +6032,7 @@
         <v>185604.4599803842</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6075,7 +6065,7 @@
         <v>184295.6884803842</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6108,7 +6098,7 @@
         <v>179955.6277803842</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6141,7 +6131,7 @@
         <v>182684.6277803842</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6174,7 +6164,7 @@
         <v>182684.6277803842</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6207,7 +6197,7 @@
         <v>182348.9220803842</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6240,7 +6230,7 @@
         <v>182848.9220803842</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6273,7 +6263,7 @@
         <v>182848.9220803842</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6306,7 +6296,7 @@
         <v>184818.7220803842</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6339,7 +6329,7 @@
         <v>184675.3617803842</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6372,7 +6362,7 @@
         <v>184676.3617803842</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6405,7 +6395,7 @@
         <v>184515.0963803842</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6438,7 +6428,7 @@
         <v>186344.4463803842</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6471,7 +6461,7 @@
         <v>186344.4463803842</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6570,7 +6560,7 @@
         <v>187861.0439803842</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6603,7 +6593,7 @@
         <v>187861.0439803842</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6636,7 +6626,7 @@
         <v>175216.8378803842</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6669,7 +6659,7 @@
         <v>175249.3190803842</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6702,7 +6692,7 @@
         <v>175249.3190803842</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6735,7 +6725,7 @@
         <v>163464.5931803842</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6768,7 +6758,7 @@
         <v>153046.6835803842</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6801,7 +6791,7 @@
         <v>130294.6894803842</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6834,7 +6824,7 @@
         <v>130795.6894803842</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6900,7 +6890,7 @@
         <v>130795.6894803842</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6999,7 +6989,7 @@
         <v>158323.7220803842</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7032,7 +7022,7 @@
         <v>158167.1905803842</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7065,7 +7055,7 @@
         <v>158167.1905803842</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7098,7 +7088,7 @@
         <v>159670.0517250382</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7131,7 +7121,7 @@
         <v>155512.7897250383</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7164,7 +7154,7 @@
         <v>206219.6039250382</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8187,7 +8177,7 @@
         <v>183317.1593250383</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -11850,7 +11840,7 @@
         <v>217081.3774250382</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11883,7 +11873,7 @@
         <v>215218.4570250382</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11916,7 +11906,7 @@
         <v>215218.4570250382</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11949,7 +11939,7 @@
         <v>215218.4570250382</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12444,7 +12434,7 @@
         <v>204912.4036250382</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13313,6 +13303,6 @@
       <c r="M383" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest ITC.xlsx
+++ b/BackTest/2019-10-06 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2842,11 +2842,9 @@
         <v>127661.4922</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2881,11 +2879,9 @@
         <v>246366.243456962</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2920,18 +2916,16 @@
         <v>80881.09615696198</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2957,15 +2951,11 @@
         <v>85294.62194696198</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2994,15 +2984,11 @@
         <v>72400.53159696198</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3031,15 +3017,11 @@
         <v>108886.639996962</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3068,15 +3050,11 @@
         <v>108886.639996962</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3105,15 +3083,11 @@
         <v>35147.28435696199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3142,15 +3116,11 @@
         <v>146808.127056962</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3179,15 +3149,11 @@
         <v>88472.829456962</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3216,15 +3182,11 @@
         <v>104789.509256962</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3257,11 +3219,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3294,11 +3252,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3331,11 +3285,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +3318,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3405,11 +3351,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3442,11 +3384,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3479,11 +3417,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3450,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3483,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3590,11 +3516,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3627,11 +3549,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3582,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3615,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3648,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3775,11 +3681,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3812,11 +3714,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3849,11 +3747,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3780,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +3813,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +3846,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3997,11 +3879,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4034,11 +3912,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4071,11 +3945,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4108,11 +3978,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4145,11 +4011,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +4044,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4215,16 +4073,14 @@
         <v>178662.2227373309</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
       <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -4250,7 +4106,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4283,7 +4139,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4316,7 +4172,7 @@
         <v>167059.6511373309</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4349,7 +4205,7 @@
         <v>166388.2396373309</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4382,7 +4238,7 @@
         <v>230749.7862373309</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4415,7 +4271,7 @@
         <v>197066.4456373309</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4448,7 +4304,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4481,7 +4337,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4514,7 +4370,7 @@
         <v>197199.0355373309</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4547,7 +4403,7 @@
         <v>197199.0355373309</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4580,7 +4436,7 @@
         <v>262627.964437331</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4613,7 +4469,7 @@
         <v>258573.350037331</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4646,7 +4502,7 @@
         <v>258882.106037331</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4679,7 +4535,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4712,7 +4568,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4745,7 +4601,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4778,7 +4634,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4811,7 +4667,7 @@
         <v>247540.268219648</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4844,7 +4700,7 @@
         <v>247553.1209803842</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4877,7 +4733,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4910,7 +4766,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5009,7 +4865,7 @@
         <v>191917.0609803842</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5042,7 +4898,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5075,7 +4931,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5108,7 +4964,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5141,7 +4997,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5174,7 +5030,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5207,7 +5063,7 @@
         <v>192069.5912803842</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5240,7 +5096,7 @@
         <v>206716.0479803842</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5273,7 +5129,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5306,7 +5162,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5339,7 +5195,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5372,7 +5228,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5405,7 +5261,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5438,7 +5294,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5471,7 +5327,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5504,7 +5360,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5537,7 +5393,7 @@
         <v>190603.2979803842</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5570,7 +5426,7 @@
         <v>186074.1946803842</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5603,7 +5459,7 @@
         <v>205560.6217803842</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5636,7 +5492,7 @@
         <v>205510.6217803842</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5669,7 +5525,7 @@
         <v>190825.5452803842</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5702,7 +5558,7 @@
         <v>201097.2784803842</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5735,7 +5591,7 @@
         <v>201097.2784803842</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5768,7 +5624,7 @@
         <v>140554.7680803842</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5801,7 +5657,7 @@
         <v>140554.7680803842</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5834,7 +5690,7 @@
         <v>128882.2164803842</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5867,7 +5723,7 @@
         <v>141594.5766803842</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5900,7 +5756,7 @@
         <v>133501.8613803842</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5933,7 +5789,7 @@
         <v>142583.6224803842</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5966,7 +5822,7 @@
         <v>142011.0702803842</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5999,7 +5855,7 @@
         <v>142049.6299803842</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6032,7 +5888,7 @@
         <v>185604.4599803842</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6065,7 +5921,7 @@
         <v>184295.6884803842</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6098,7 +5954,7 @@
         <v>179955.6277803842</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6131,7 +5987,7 @@
         <v>182684.6277803842</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6164,7 +6020,7 @@
         <v>182684.6277803842</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6197,7 +6053,7 @@
         <v>182348.9220803842</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6230,7 +6086,7 @@
         <v>182848.9220803842</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6263,7 +6119,7 @@
         <v>182848.9220803842</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6296,7 +6152,7 @@
         <v>184818.7220803842</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6329,7 +6185,7 @@
         <v>184675.3617803842</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6362,7 +6218,7 @@
         <v>184676.3617803842</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6395,7 +6251,7 @@
         <v>184515.0963803842</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6428,7 +6284,7 @@
         <v>186344.4463803842</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6461,7 +6317,7 @@
         <v>186344.4463803842</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6560,7 +6416,7 @@
         <v>187861.0439803842</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6593,7 +6449,7 @@
         <v>187861.0439803842</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6626,7 +6482,7 @@
         <v>175216.8378803842</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6659,7 +6515,7 @@
         <v>175249.3190803842</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6692,7 +6548,7 @@
         <v>175249.3190803842</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6725,7 +6581,7 @@
         <v>163464.5931803842</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6758,7 +6614,7 @@
         <v>153046.6835803842</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6791,7 +6647,7 @@
         <v>130294.6894803842</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6824,7 +6680,7 @@
         <v>130795.6894803842</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6890,7 +6746,7 @@
         <v>130795.6894803842</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6989,7 +6845,7 @@
         <v>158323.7220803842</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7022,7 +6878,7 @@
         <v>158167.1905803842</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7055,7 +6911,7 @@
         <v>158167.1905803842</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7088,7 +6944,7 @@
         <v>159670.0517250382</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7121,7 +6977,7 @@
         <v>155512.7897250383</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7154,7 +7010,7 @@
         <v>206219.6039250382</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -13303,6 +13159,6 @@
       <c r="M383" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest ITC.xlsx
+++ b/BackTest/2019-10-06 BackTest ITC.xlsx
@@ -2068,10 +2068,14 @@
         <v>10192.8204</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>148</v>
+      </c>
+      <c r="J51" t="n">
+        <v>148</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2106,7 +2110,9 @@
       <c r="I52" t="n">
         <v>148</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>148</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2145,7 +2151,9 @@
       <c r="I53" t="n">
         <v>148</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>148</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,7 +2192,9 @@
       <c r="I54" t="n">
         <v>147</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>148</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2223,7 +2233,9 @@
       <c r="I55" t="n">
         <v>148</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>148</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2262,7 +2274,9 @@
       <c r="I56" t="n">
         <v>147</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>148</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2301,7 +2315,9 @@
       <c r="I57" t="n">
         <v>147</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>148</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,7 +2356,9 @@
       <c r="I58" t="n">
         <v>148</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>148</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2379,7 +2397,9 @@
       <c r="I59" t="n">
         <v>148</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>148</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2418,7 +2438,9 @@
       <c r="I60" t="n">
         <v>148</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>148</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2457,7 +2479,9 @@
       <c r="I61" t="n">
         <v>147</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>148</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,7 +2520,9 @@
       <c r="I62" t="n">
         <v>149</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>148</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2535,7 +2561,9 @@
       <c r="I63" t="n">
         <v>147</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>148</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,7 +2602,9 @@
       <c r="I64" t="n">
         <v>147</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>148</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2613,7 +2643,9 @@
       <c r="I65" t="n">
         <v>148</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>148</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2652,7 +2684,9 @@
       <c r="I66" t="n">
         <v>148</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>148</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2691,7 +2725,9 @@
       <c r="I67" t="n">
         <v>149</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>148</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,7 +2766,9 @@
       <c r="I68" t="n">
         <v>149</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>148</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,7 +2807,9 @@
       <c r="I69" t="n">
         <v>149</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>148</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,7 +2848,9 @@
       <c r="I70" t="n">
         <v>149</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,10 +2884,14 @@
         <v>127661.4922</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>150</v>
+      </c>
+      <c r="J71" t="n">
+        <v>148</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2882,7 +2928,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>148</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,413 +2964,491 @@
         <v>80881.09615696198</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>148</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>156</v>
+      </c>
+      <c r="C74" t="n">
+        <v>160</v>
+      </c>
+      <c r="D74" t="n">
+        <v>160</v>
+      </c>
+      <c r="E74" t="n">
+        <v>156</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4413.52579</v>
+      </c>
+      <c r="G74" t="n">
+        <v>85294.62194696198</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>148</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>159</v>
+      </c>
+      <c r="C75" t="n">
+        <v>157</v>
+      </c>
+      <c r="D75" t="n">
+        <v>160</v>
+      </c>
+      <c r="E75" t="n">
+        <v>157</v>
+      </c>
+      <c r="F75" t="n">
+        <v>12894.09035</v>
+      </c>
+      <c r="G75" t="n">
+        <v>72400.53159696198</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>148</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>158</v>
+      </c>
+      <c r="C76" t="n">
+        <v>159</v>
+      </c>
+      <c r="D76" t="n">
+        <v>160</v>
+      </c>
+      <c r="E76" t="n">
+        <v>156</v>
+      </c>
+      <c r="F76" t="n">
+        <v>36486.1084</v>
+      </c>
+      <c r="G76" t="n">
+        <v>108886.639996962</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>148</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>159</v>
+      </c>
+      <c r="C77" t="n">
+        <v>159</v>
+      </c>
+      <c r="D77" t="n">
+        <v>160</v>
+      </c>
+      <c r="E77" t="n">
+        <v>159</v>
+      </c>
+      <c r="F77" t="n">
+        <v>22512.21616</v>
+      </c>
+      <c r="G77" t="n">
+        <v>108886.639996962</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>148</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>159</v>
+      </c>
+      <c r="C78" t="n">
+        <v>158</v>
+      </c>
+      <c r="D78" t="n">
+        <v>161</v>
+      </c>
+      <c r="E78" t="n">
+        <v>158</v>
+      </c>
+      <c r="F78" t="n">
+        <v>73739.35563999999</v>
+      </c>
+      <c r="G78" t="n">
+        <v>35147.28435696199</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>148</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>164</v>
+      </c>
+      <c r="D79" t="n">
+        <v>164</v>
+      </c>
+      <c r="E79" t="n">
+        <v>158</v>
+      </c>
+      <c r="F79" t="n">
+        <v>111660.8427</v>
+      </c>
+      <c r="G79" t="n">
+        <v>146808.127056962</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>148</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>162</v>
+      </c>
+      <c r="C80" t="n">
+        <v>162</v>
+      </c>
+      <c r="D80" t="n">
+        <v>165</v>
+      </c>
+      <c r="E80" t="n">
+        <v>162</v>
+      </c>
+      <c r="F80" t="n">
+        <v>58335.2976</v>
+      </c>
+      <c r="G80" t="n">
+        <v>88472.829456962</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>148</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>163</v>
+      </c>
+      <c r="D81" t="n">
+        <v>164</v>
+      </c>
+      <c r="E81" t="n">
+        <v>162</v>
+      </c>
+      <c r="F81" t="n">
+        <v>16316.6798</v>
+      </c>
+      <c r="G81" t="n">
+        <v>104789.509256962</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>148</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>163</v>
+      </c>
+      <c r="C82" t="n">
+        <v>162</v>
+      </c>
+      <c r="D82" t="n">
+        <v>163</v>
+      </c>
+      <c r="E82" t="n">
+        <v>161</v>
+      </c>
+      <c r="F82" t="n">
+        <v>58609.2632</v>
+      </c>
+      <c r="G82" t="n">
+        <v>46180.246056962</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>148</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>163</v>
+      </c>
+      <c r="C83" t="n">
+        <v>166</v>
+      </c>
+      <c r="D83" t="n">
+        <v>168</v>
+      </c>
+      <c r="E83" t="n">
+        <v>162</v>
+      </c>
+      <c r="F83" t="n">
+        <v>73847.40201616297</v>
+      </c>
+      <c r="G83" t="n">
+        <v>120027.648073125</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>148</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>167</v>
+      </c>
+      <c r="C84" t="n">
+        <v>166</v>
+      </c>
+      <c r="D84" t="n">
+        <v>169</v>
+      </c>
+      <c r="E84" t="n">
+        <v>166</v>
+      </c>
+      <c r="F84" t="n">
+        <v>64570.7158</v>
+      </c>
+      <c r="G84" t="n">
+        <v>120027.648073125</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>148</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>166</v>
+      </c>
+      <c r="C85" t="n">
+        <v>166</v>
+      </c>
+      <c r="D85" t="n">
+        <v>168</v>
+      </c>
+      <c r="E85" t="n">
+        <v>166</v>
+      </c>
+      <c r="F85" t="n">
+        <v>40715.9715</v>
+      </c>
+      <c r="G85" t="n">
+        <v>120027.648073125</v>
+      </c>
+      <c r="H85" t="n">
         <v>2</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>148</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>156</v>
-      </c>
-      <c r="C74" t="n">
-        <v>160</v>
-      </c>
-      <c r="D74" t="n">
-        <v>160</v>
-      </c>
-      <c r="E74" t="n">
-        <v>156</v>
-      </c>
-      <c r="F74" t="n">
-        <v>4413.52579</v>
-      </c>
-      <c r="G74" t="n">
-        <v>85294.62194696198</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>159</v>
-      </c>
-      <c r="C75" t="n">
-        <v>157</v>
-      </c>
-      <c r="D75" t="n">
-        <v>160</v>
-      </c>
-      <c r="E75" t="n">
-        <v>157</v>
-      </c>
-      <c r="F75" t="n">
-        <v>12894.09035</v>
-      </c>
-      <c r="G75" t="n">
-        <v>72400.53159696198</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>158</v>
-      </c>
-      <c r="C76" t="n">
-        <v>159</v>
-      </c>
-      <c r="D76" t="n">
-        <v>160</v>
-      </c>
-      <c r="E76" t="n">
-        <v>156</v>
-      </c>
-      <c r="F76" t="n">
-        <v>36486.1084</v>
-      </c>
-      <c r="G76" t="n">
-        <v>108886.639996962</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>159</v>
-      </c>
-      <c r="C77" t="n">
-        <v>159</v>
-      </c>
-      <c r="D77" t="n">
-        <v>160</v>
-      </c>
-      <c r="E77" t="n">
-        <v>159</v>
-      </c>
-      <c r="F77" t="n">
-        <v>22512.21616</v>
-      </c>
-      <c r="G77" t="n">
-        <v>108886.639996962</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>159</v>
-      </c>
-      <c r="C78" t="n">
-        <v>158</v>
-      </c>
-      <c r="D78" t="n">
-        <v>161</v>
-      </c>
-      <c r="E78" t="n">
-        <v>158</v>
-      </c>
-      <c r="F78" t="n">
-        <v>73739.35563999999</v>
-      </c>
-      <c r="G78" t="n">
-        <v>35147.28435696199</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>159</v>
-      </c>
-      <c r="C79" t="n">
-        <v>164</v>
-      </c>
-      <c r="D79" t="n">
-        <v>164</v>
-      </c>
-      <c r="E79" t="n">
-        <v>158</v>
-      </c>
-      <c r="F79" t="n">
-        <v>111660.8427</v>
-      </c>
-      <c r="G79" t="n">
-        <v>146808.127056962</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>162</v>
-      </c>
-      <c r="C80" t="n">
-        <v>162</v>
-      </c>
-      <c r="D80" t="n">
-        <v>165</v>
-      </c>
-      <c r="E80" t="n">
-        <v>162</v>
-      </c>
-      <c r="F80" t="n">
-        <v>58335.2976</v>
-      </c>
-      <c r="G80" t="n">
-        <v>88472.829456962</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>163</v>
-      </c>
-      <c r="C81" t="n">
-        <v>163</v>
-      </c>
-      <c r="D81" t="n">
-        <v>164</v>
-      </c>
-      <c r="E81" t="n">
-        <v>162</v>
-      </c>
-      <c r="F81" t="n">
-        <v>16316.6798</v>
-      </c>
-      <c r="G81" t="n">
-        <v>104789.509256962</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>163</v>
-      </c>
-      <c r="C82" t="n">
-        <v>162</v>
-      </c>
-      <c r="D82" t="n">
-        <v>163</v>
-      </c>
-      <c r="E82" t="n">
-        <v>161</v>
-      </c>
-      <c r="F82" t="n">
-        <v>58609.2632</v>
-      </c>
-      <c r="G82" t="n">
-        <v>46180.246056962</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>163</v>
-      </c>
-      <c r="C83" t="n">
-        <v>166</v>
-      </c>
-      <c r="D83" t="n">
-        <v>168</v>
-      </c>
-      <c r="E83" t="n">
-        <v>162</v>
-      </c>
-      <c r="F83" t="n">
-        <v>73847.40201616297</v>
-      </c>
-      <c r="G83" t="n">
-        <v>120027.648073125</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>167</v>
-      </c>
-      <c r="C84" t="n">
-        <v>166</v>
-      </c>
-      <c r="D84" t="n">
-        <v>169</v>
-      </c>
-      <c r="E84" t="n">
-        <v>166</v>
-      </c>
-      <c r="F84" t="n">
-        <v>64570.7158</v>
-      </c>
-      <c r="G84" t="n">
-        <v>120027.648073125</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>166</v>
-      </c>
-      <c r="C85" t="n">
-        <v>166</v>
-      </c>
-      <c r="D85" t="n">
-        <v>168</v>
-      </c>
-      <c r="E85" t="n">
-        <v>166</v>
-      </c>
-      <c r="F85" t="n">
-        <v>40715.9715</v>
-      </c>
-      <c r="G85" t="n">
-        <v>120027.648073125</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>1.116621621621622</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.027586206896552</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3347,7 +3473,7 @@
         <v>107329.884273125</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3578,7 +3704,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3611,7 +3737,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3644,7 +3770,7 @@
         <v>220479.682173125</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3677,7 +3803,7 @@
         <v>208796.893073125</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3710,7 +3836,7 @@
         <v>226400.1627791491</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3743,7 +3869,7 @@
         <v>194654.6193791491</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3776,7 +3902,7 @@
         <v>185284.9109791491</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3809,7 +3935,7 @@
         <v>165367.6716791491</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3842,7 +3968,7 @@
         <v>168952.0939791491</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3908,7 +4034,7 @@
         <v>168952.0939791491</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3941,7 +4067,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3974,7 +4100,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4007,7 +4133,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4040,7 +4166,7 @@
         <v>177202.9670791491</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4073,7 +4199,7 @@
         <v>178662.2227373309</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4106,7 +4232,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4139,7 +4265,7 @@
         <v>173844.5296373309</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4205,7 +4331,7 @@
         <v>166388.2396373309</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4271,7 +4397,7 @@
         <v>197066.4456373309</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4304,7 +4430,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4337,7 +4463,7 @@
         <v>197573.1863373309</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4535,7 +4661,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4568,7 +4694,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4601,7 +4727,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4634,7 +4760,7 @@
         <v>257199.163537331</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4667,7 +4793,7 @@
         <v>247540.268219648</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4700,7 +4826,7 @@
         <v>247553.1209803842</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4733,7 +4859,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4766,7 +4892,7 @@
         <v>193568.5066803842</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4931,7 +5057,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4964,7 +5090,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4997,7 +5123,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5030,7 +5156,7 @@
         <v>192153.6989803842</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5063,7 +5189,7 @@
         <v>192069.5912803842</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5129,7 +5255,7 @@
         <v>196728.2979803842</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5228,7 +5354,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5261,7 +5387,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5294,7 +5420,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5327,7 +5453,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5360,7 +5486,7 @@
         <v>197003.2979803842</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5393,7 +5519,7 @@
         <v>190603.2979803842</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5426,7 +5552,7 @@
         <v>186074.1946803842</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
